--- a/planB/data/rf_out/RF_important_features.xlsx
+++ b/planB/data/rf_out/RF_important_features.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jake/Desktop/DSS_repo/BTCMiningCO2Footprint/planB/data/rf_out/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8565C86-1E78-4E4A-A8CB-2B619D22467F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85B6D506-6CA1-C042-A56B-2FC21A2CCDB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36420" yWindow="500" windowWidth="27640" windowHeight="16940" xr2:uid="{CB2A7D81-577F-B948-B7BD-8F247062CBE1}"/>
+    <workbookView xWindow="1360" yWindow="500" windowWidth="30540" windowHeight="19120" xr2:uid="{CB2A7D81-577F-B948-B7BD-8F247062CBE1}"/>
   </bookViews>
   <sheets>
     <sheet name="by method" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2541" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2694" uniqueCount="94">
   <si>
     <t>1: Both Urban and Rural, All Income</t>
   </si>
@@ -340,12 +340,54 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDECCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC1C6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -448,7 +490,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -467,8 +509,16 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -476,8 +526,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -487,27 +538,38 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFC1C6"/>
+      <color rgb="FFDECCFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -818,18 +880,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F670D600-BE7B-A546-8B6E-27B91BA76A6F}">
   <dimension ref="B1:AM82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="S1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="0.83203125" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" customWidth="1"/>
     <col min="7" max="7" width="9" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" customWidth="1"/>
     <col min="9" max="9" width="9" customWidth="1"/>
+    <col min="10" max="10" width="12.5" customWidth="1"/>
     <col min="11" max="11" width="9" customWidth="1"/>
+    <col min="12" max="12" width="12.5" customWidth="1"/>
     <col min="13" max="13" width="9" customWidth="1"/>
     <col min="14" max="14" width="3.33203125" customWidth="1"/>
     <col min="16" max="16" width="9" customWidth="1"/>
@@ -839,163 +907,169 @@
     <col min="24" max="24" width="9" customWidth="1"/>
     <col min="26" max="26" width="9" customWidth="1"/>
     <col min="27" max="27" width="3.33203125" customWidth="1"/>
+    <col min="28" max="28" width="12.6640625" customWidth="1"/>
+    <col min="30" max="30" width="12.33203125" customWidth="1"/>
+    <col min="32" max="32" width="12.5" customWidth="1"/>
     <col min="33" max="33" width="9" customWidth="1"/>
+    <col min="34" max="34" width="12.1640625" customWidth="1"/>
     <col min="35" max="35" width="9" customWidth="1"/>
+    <col min="36" max="36" width="12.5" customWidth="1"/>
     <col min="37" max="37" width="9" customWidth="1"/>
+    <col min="38" max="38" width="12.5" customWidth="1"/>
     <col min="39" max="39" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:39" ht="5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="22"/>
-      <c r="O2" s="20" t="s">
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="16"/>
+      <c r="O2" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21"/>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="21"/>
-      <c r="Z2" s="22"/>
-      <c r="AB2" s="20" t="s">
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="15"/>
+      <c r="X2" s="15"/>
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="16"/>
+      <c r="AB2" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="AC2" s="21"/>
-      <c r="AD2" s="21"/>
-      <c r="AE2" s="21"/>
-      <c r="AF2" s="21"/>
-      <c r="AG2" s="21"/>
-      <c r="AH2" s="21"/>
-      <c r="AI2" s="21"/>
-      <c r="AJ2" s="21"/>
-      <c r="AK2" s="21"/>
-      <c r="AL2" s="21"/>
-      <c r="AM2" s="22"/>
+      <c r="AC2" s="15"/>
+      <c r="AD2" s="15"/>
+      <c r="AE2" s="15"/>
+      <c r="AF2" s="15"/>
+      <c r="AG2" s="15"/>
+      <c r="AH2" s="15"/>
+      <c r="AI2" s="15"/>
+      <c r="AJ2" s="15"/>
+      <c r="AK2" s="15"/>
+      <c r="AL2" s="15"/>
+      <c r="AM2" s="16"/>
     </row>
     <row r="3" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21" t="s">
+      <c r="C3" s="15"/>
+      <c r="D3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21" t="s">
+      <c r="E3" s="15"/>
+      <c r="F3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21" t="s">
+      <c r="G3" s="15"/>
+      <c r="H3" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21" t="s">
+      <c r="I3" s="15"/>
+      <c r="J3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21" t="s">
+      <c r="K3" s="15"/>
+      <c r="L3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="22"/>
-      <c r="O3" s="20" t="s">
+      <c r="M3" s="16"/>
+      <c r="O3" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21" t="s">
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="R3" s="21"/>
-      <c r="S3" s="21" t="s">
+      <c r="R3" s="15"/>
+      <c r="S3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="T3" s="21"/>
-      <c r="U3" s="21" t="s">
+      <c r="T3" s="15"/>
+      <c r="U3" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="V3" s="21"/>
-      <c r="W3" s="21" t="s">
+      <c r="V3" s="15"/>
+      <c r="W3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="X3" s="21"/>
-      <c r="Y3" s="21" t="s">
+      <c r="X3" s="15"/>
+      <c r="Y3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="Z3" s="22"/>
-      <c r="AB3" s="20" t="s">
+      <c r="Z3" s="16"/>
+      <c r="AB3" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="AC3" s="21"/>
-      <c r="AD3" s="21" t="s">
+      <c r="AC3" s="15"/>
+      <c r="AD3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="AE3" s="21"/>
-      <c r="AF3" s="21" t="s">
+      <c r="AE3" s="15"/>
+      <c r="AF3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AG3" s="21"/>
-      <c r="AH3" s="21" t="s">
+      <c r="AG3" s="15"/>
+      <c r="AH3" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="AI3" s="21"/>
-      <c r="AJ3" s="21" t="s">
+      <c r="AI3" s="15"/>
+      <c r="AJ3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="AK3" s="21"/>
-      <c r="AL3" s="21" t="s">
+      <c r="AK3" s="15"/>
+      <c r="AL3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="AM3" s="22"/>
+      <c r="AM3" s="16"/>
     </row>
     <row r="4" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="23" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="7">
         <v>0.16047042666438899</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="24" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="7">
         <v>0.16658057025509901</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="26" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="7">
         <v>0.123435216919571</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="24" t="s">
         <v>9</v>
       </c>
       <c r="I4" s="7">
         <v>0.14134313275666499</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="24" t="s">
         <v>9</v>
       </c>
       <c r="K4" s="7">
         <v>0.14265107861162801</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="L4" s="24" t="s">
         <v>9</v>
       </c>
       <c r="M4" s="5">
@@ -1037,37 +1111,37 @@
       <c r="Z4" s="5">
         <v>7.0831389934541203E-2</v>
       </c>
-      <c r="AB4" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="AC4" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="AD4" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="AE4" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="AF4" s="7" t="s">
+      <c r="AB4" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC4">
+        <v>1.7897645281229901E-2</v>
+      </c>
+      <c r="AD4" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE4">
+        <v>1.7390847296468202E-2</v>
+      </c>
+      <c r="AF4" s="28" t="s">
         <v>11</v>
       </c>
       <c r="AG4" s="7">
         <v>1.46022081575671E-2</v>
       </c>
-      <c r="AH4" s="7" t="s">
+      <c r="AH4" s="28" t="s">
         <v>11</v>
       </c>
       <c r="AI4" s="7">
         <v>3.2653301315025397E-2</v>
       </c>
-      <c r="AJ4" s="7" t="s">
+      <c r="AJ4" s="28" t="s">
         <v>11</v>
       </c>
       <c r="AK4" s="7">
         <v>2.861667371522E-2</v>
       </c>
-      <c r="AL4" s="7" t="s">
+      <c r="AL4" s="26" t="s">
         <v>10</v>
       </c>
       <c r="AM4" s="5">
@@ -1075,37 +1149,37 @@
       </c>
     </row>
     <row r="5" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="25" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="7">
         <v>9.6357395716446095E-2</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="26" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="7">
         <v>0.101112122353365</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="24" t="s">
         <v>9</v>
       </c>
       <c r="G5" s="7">
         <v>0.117946382373509</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="26" t="s">
         <v>10</v>
       </c>
       <c r="I5" s="7">
         <v>0.109953559830305</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="26" t="s">
         <v>10</v>
       </c>
       <c r="K5" s="7">
         <v>0.11126430571450401</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="L5" s="26" t="s">
         <v>10</v>
       </c>
       <c r="M5" s="5">
@@ -1147,29 +1221,37 @@
       <c r="Z5" s="5">
         <v>5.5345630725479197E-2</v>
       </c>
-      <c r="AB5" s="2"/>
-      <c r="AC5" s="7"/>
-      <c r="AD5" s="7"/>
-      <c r="AE5" s="7"/>
-      <c r="AF5" s="7" t="s">
+      <c r="AB5" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC5">
+        <v>9.8341210630012808E-3</v>
+      </c>
+      <c r="AD5" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE5">
+        <v>8.7964257248314397E-3</v>
+      </c>
+      <c r="AF5" s="40" t="s">
         <v>32</v>
       </c>
       <c r="AG5" s="7">
         <v>8.8752213791343793E-3</v>
       </c>
-      <c r="AH5" s="7" t="s">
+      <c r="AH5" s="32" t="s">
         <v>13</v>
       </c>
       <c r="AI5" s="7">
         <v>2.0126790100643398E-2</v>
       </c>
-      <c r="AJ5" s="7" t="s">
+      <c r="AJ5" s="32" t="s">
         <v>13</v>
       </c>
       <c r="AK5" s="7">
         <v>2.6911680204498099E-2</v>
       </c>
-      <c r="AL5" s="7" t="s">
+      <c r="AL5" s="28" t="s">
         <v>11</v>
       </c>
       <c r="AM5" s="5">
@@ -1177,37 +1259,37 @@
       </c>
     </row>
     <row r="6" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="27" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="7">
         <v>4.0532795190764401E-2</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="28" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="7">
         <v>4.0495174244186201E-2</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="29" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="7">
         <v>4.5328762400968003E-2</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="28" t="s">
         <v>11</v>
       </c>
       <c r="I6" s="7">
         <v>4.6847004255811703E-2</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="J6" s="28" t="s">
         <v>11</v>
       </c>
       <c r="K6" s="7">
         <v>4.24939000317743E-2</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="L6" s="28" t="s">
         <v>11</v>
       </c>
       <c r="M6" s="5">
@@ -1249,23 +1331,31 @@
       <c r="Z6" s="5">
         <v>5.47459714817475E-2</v>
       </c>
-      <c r="AB6" s="2"/>
-      <c r="AC6" s="7"/>
-      <c r="AD6" s="7"/>
-      <c r="AE6" s="7"/>
-      <c r="AF6" s="7" t="s">
+      <c r="AB6" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC6">
+        <v>7.9615442652960396E-3</v>
+      </c>
+      <c r="AD6" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE6">
+        <v>7.1996980375613299E-3</v>
+      </c>
+      <c r="AF6" s="24" t="s">
         <v>9</v>
       </c>
       <c r="AG6" s="7">
         <v>7.1950757112848197E-3</v>
       </c>
-      <c r="AH6" s="7" t="s">
+      <c r="AH6" s="42" t="s">
         <v>29</v>
       </c>
       <c r="AI6" s="7">
         <v>1.38540385505254E-2</v>
       </c>
-      <c r="AJ6" s="7" t="s">
+      <c r="AJ6" s="24" t="s">
         <v>9</v>
       </c>
       <c r="AK6" s="7">
@@ -1279,31 +1369,31 @@
       </c>
     </row>
     <row r="7" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="30" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="7">
         <v>3.1630122621181797E-2</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="32" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="7">
         <v>3.4885072734609897E-2</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="28" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7">
         <v>4.4058424468310903E-2</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="32" t="s">
         <v>13</v>
       </c>
       <c r="I7" s="7">
         <v>3.0201232740022298E-2</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="32" t="s">
         <v>13</v>
       </c>
       <c r="K7" s="7">
@@ -1351,29 +1441,37 @@
       <c r="Z7" s="5">
         <v>3.8072738161771098E-2</v>
       </c>
-      <c r="AB7" s="2"/>
-      <c r="AC7" s="7"/>
-      <c r="AD7" s="7"/>
-      <c r="AE7" s="7"/>
-      <c r="AF7" s="7" t="s">
+      <c r="AB7" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC7">
+        <v>5.9676784478187002E-3</v>
+      </c>
+      <c r="AD7" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE7">
+        <v>5.2790614405028103E-3</v>
+      </c>
+      <c r="AF7" s="26" t="s">
         <v>10</v>
       </c>
       <c r="AG7" s="7">
         <v>6.1030391854946502E-3</v>
       </c>
-      <c r="AH7" s="7" t="s">
+      <c r="AH7" s="40" t="s">
         <v>46</v>
       </c>
       <c r="AI7" s="7">
         <v>1.2704296845491399E-2</v>
       </c>
-      <c r="AJ7" s="7" t="s">
+      <c r="AJ7" s="42" t="s">
         <v>29</v>
       </c>
       <c r="AK7" s="7">
         <v>1.13215535191853E-2</v>
       </c>
-      <c r="AL7" s="7" t="s">
+      <c r="AL7" s="24" t="s">
         <v>9</v>
       </c>
       <c r="AM7" s="5">
@@ -1381,13 +1479,13 @@
       </c>
     </row>
     <row r="8" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="31" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="7">
         <v>2.8411121713496201E-2</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="29" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="7">
@@ -1399,19 +1497,19 @@
       <c r="G8" s="7">
         <v>2.8651031186155598E-2</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="29" t="s">
         <v>12</v>
       </c>
       <c r="I8" s="7">
         <v>2.6628775514551999E-2</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="J8" s="29" t="s">
         <v>12</v>
       </c>
       <c r="K8" s="7">
         <v>2.5643529146983798E-2</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="L8" s="32" t="s">
         <v>13</v>
       </c>
       <c r="M8" s="5">
@@ -1453,23 +1551,31 @@
       <c r="Z8" s="5">
         <v>3.2190288916356898E-2</v>
       </c>
-      <c r="AB8" s="2"/>
-      <c r="AC8" s="7"/>
-      <c r="AD8" s="7"/>
-      <c r="AE8" s="7"/>
+      <c r="AB8" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC8">
+        <v>5.2676469892237402E-3</v>
+      </c>
+      <c r="AD8" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE8">
+        <v>3.9949972611768598E-3</v>
+      </c>
       <c r="AF8" s="7" t="s">
         <v>63</v>
       </c>
       <c r="AG8" s="7">
         <v>5.3900012672668798E-3</v>
       </c>
-      <c r="AH8" s="7" t="s">
+      <c r="AH8" s="24" t="s">
         <v>9</v>
       </c>
       <c r="AI8" s="7">
         <v>1.1363273271393901E-2</v>
       </c>
-      <c r="AJ8" s="7" t="s">
+      <c r="AJ8" s="26" t="s">
         <v>10</v>
       </c>
       <c r="AK8" s="7">
@@ -1492,10 +1598,10 @@
       <c r="D9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="33">
         <v>2.64509295211021E-2</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="32" t="s">
         <v>13</v>
       </c>
       <c r="G9" s="7">
@@ -1555,23 +1661,31 @@
       <c r="Z9" s="5">
         <v>2.97542072675837E-2</v>
       </c>
-      <c r="AB9" s="2"/>
-      <c r="AC9" s="7"/>
-      <c r="AD9" s="7"/>
-      <c r="AE9" s="7"/>
+      <c r="AB9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC9">
+        <v>3.6556136824557198E-3</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE9">
+        <v>3.7853648757950002E-3</v>
+      </c>
       <c r="AF9" s="7" t="s">
         <v>38</v>
       </c>
       <c r="AG9" s="7">
         <v>4.2876261200726499E-3</v>
       </c>
-      <c r="AH9" s="7" t="s">
+      <c r="AH9" s="26" t="s">
         <v>10</v>
       </c>
       <c r="AI9" s="7">
         <v>9.9007783255706493E-3</v>
       </c>
-      <c r="AJ9" s="7" t="s">
+      <c r="AJ9" s="29" t="s">
         <v>12</v>
       </c>
       <c r="AK9" s="7">
@@ -1657,10 +1771,18 @@
       <c r="Z10" s="5">
         <v>2.5865466269533701E-2</v>
       </c>
-      <c r="AB10" s="2"/>
-      <c r="AC10" s="7"/>
-      <c r="AD10" s="7"/>
-      <c r="AE10" s="7"/>
+      <c r="AB10" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC10">
+        <v>2.93400292301388E-3</v>
+      </c>
+      <c r="AD10" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE10">
+        <v>3.4158392375531498E-3</v>
+      </c>
       <c r="AF10" s="7" t="s">
         <v>16</v>
       </c>
@@ -1759,17 +1881,25 @@
       <c r="Z11" s="5">
         <v>2.4770372318713801E-2</v>
       </c>
-      <c r="AB11" s="2"/>
-      <c r="AC11" s="7"/>
-      <c r="AD11" s="7"/>
-      <c r="AE11" s="7"/>
+      <c r="AB11" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC11">
+        <v>2.88682538706647E-3</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE11">
+        <v>3.2735900888736999E-3</v>
+      </c>
       <c r="AF11" s="7" t="s">
         <v>18</v>
       </c>
       <c r="AG11" s="7">
         <v>3.1342873760778702E-3</v>
       </c>
-      <c r="AH11" s="7" t="s">
+      <c r="AH11" s="29" t="s">
         <v>12</v>
       </c>
       <c r="AI11" s="7">
@@ -1861,10 +1991,18 @@
       <c r="Z12" s="5">
         <v>2.069137091921E-2</v>
       </c>
-      <c r="AB12" s="2"/>
-      <c r="AC12" s="7"/>
-      <c r="AD12" s="7"/>
-      <c r="AE12" s="7"/>
+      <c r="AB12" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC12">
+        <v>2.65465893397502E-3</v>
+      </c>
+      <c r="AD12" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE12">
+        <v>3.1020087802926099E-3</v>
+      </c>
       <c r="AF12" s="7" t="s">
         <v>45</v>
       </c>
@@ -1877,7 +2015,7 @@
       <c r="AI12" s="7">
         <v>8.1259678577831999E-3</v>
       </c>
-      <c r="AJ12" s="7" t="s">
+      <c r="AJ12" s="40" t="s">
         <v>46</v>
       </c>
       <c r="AK12" s="7">
@@ -1963,10 +2101,18 @@
       <c r="Z13" s="5">
         <v>1.7676447326875799E-2</v>
       </c>
-      <c r="AB13" s="2"/>
-      <c r="AC13" s="7"/>
-      <c r="AD13" s="7"/>
-      <c r="AE13" s="7"/>
+      <c r="AB13" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC13">
+        <v>2.64732012132272E-3</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE13">
+        <v>2.7479972800709298E-3</v>
+      </c>
       <c r="AF13" s="7" t="s">
         <v>34</v>
       </c>
@@ -1985,7 +2131,7 @@
       <c r="AK13" s="7">
         <v>6.3775759451482001E-3</v>
       </c>
-      <c r="AL13" s="7" t="s">
+      <c r="AL13" s="29" t="s">
         <v>12</v>
       </c>
       <c r="AM13" s="5">
@@ -2065,10 +2211,18 @@
       <c r="Z14" s="5">
         <v>1.2072386078192001E-2</v>
       </c>
-      <c r="AB14" s="2"/>
-      <c r="AC14" s="7"/>
-      <c r="AD14" s="7"/>
-      <c r="AE14" s="7"/>
+      <c r="AB14" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC14">
+        <v>2.5337048033906399E-3</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE14">
+        <v>2.5601415577881301E-3</v>
+      </c>
       <c r="AF14" s="7" t="s">
         <v>65</v>
       </c>
@@ -2167,10 +2321,18 @@
       <c r="Z15" s="5">
         <v>1.18801274078755E-2</v>
       </c>
-      <c r="AB15" s="2"/>
-      <c r="AC15" s="7"/>
-      <c r="AD15" s="7"/>
-      <c r="AE15" s="7"/>
+      <c r="AB15" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC15">
+        <v>2.4451504732970202E-3</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE15">
+        <v>2.3503150276109599E-3</v>
+      </c>
       <c r="AF15" s="7" t="s">
         <v>62</v>
       </c>
@@ -2189,7 +2351,7 @@
       <c r="AK15" s="7">
         <v>6.0879413830952998E-3</v>
       </c>
-      <c r="AL15" s="7" t="s">
+      <c r="AL15" s="32" t="s">
         <v>13</v>
       </c>
       <c r="AM15" s="5">
@@ -2269,10 +2431,18 @@
       <c r="Z16" s="5">
         <v>1.05026474958044E-2</v>
       </c>
-      <c r="AB16" s="2"/>
-      <c r="AC16" s="7"/>
-      <c r="AD16" s="7"/>
-      <c r="AE16" s="7"/>
+      <c r="AB16" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC16">
+        <v>2.4358205146186199E-3</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE16">
+        <v>2.3426494579206199E-3</v>
+      </c>
       <c r="AF16" s="7" t="s">
         <v>20</v>
       </c>
@@ -2371,10 +2541,18 @@
       <c r="Z17" s="5">
         <v>9.1086752994097003E-3</v>
       </c>
-      <c r="AB17" s="2"/>
-      <c r="AC17" s="7"/>
-      <c r="AD17" s="7"/>
-      <c r="AE17" s="7"/>
+      <c r="AB17" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC17">
+        <v>2.3033841347155398E-3</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE17">
+        <v>2.32228370222619E-3</v>
+      </c>
       <c r="AF17" s="7" t="s">
         <v>39</v>
       </c>
@@ -2473,10 +2651,18 @@
       <c r="Z18" s="5">
         <v>8.5352844237140506E-3</v>
       </c>
-      <c r="AB18" s="2"/>
-      <c r="AC18" s="7"/>
-      <c r="AD18" s="7"/>
-      <c r="AE18" s="7"/>
+      <c r="AB18" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC18">
+        <v>2.2311655434846698E-3</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE18">
+        <v>1.6934405787107699E-3</v>
+      </c>
       <c r="AF18" s="7" t="s">
         <v>52</v>
       </c>
@@ -2575,10 +2761,18 @@
       <c r="Z19" s="5">
         <v>6.1407934908061096E-3</v>
       </c>
-      <c r="AB19" s="2"/>
-      <c r="AC19" s="7"/>
-      <c r="AD19" s="7"/>
-      <c r="AE19" s="7"/>
+      <c r="AB19" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC19">
+        <v>1.88328177799344E-3</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE19">
+        <v>1.5051628370864099E-3</v>
+      </c>
       <c r="AF19" s="7" t="s">
         <v>28</v>
       </c>
@@ -2677,10 +2871,18 @@
       <c r="Z20" s="5">
         <v>5.8454820543656803E-3</v>
       </c>
-      <c r="AB20" s="2"/>
-      <c r="AC20" s="7"/>
-      <c r="AD20" s="7"/>
-      <c r="AE20" s="7"/>
+      <c r="AB20" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC20">
+        <v>1.82500179609053E-3</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE20">
+        <v>1.4758521833334599E-3</v>
+      </c>
       <c r="AF20" s="7" t="s">
         <v>30</v>
       </c>
@@ -2779,11 +2981,19 @@
       <c r="Z21" s="5">
         <v>3.5010297795902302E-3</v>
       </c>
-      <c r="AB21" s="2"/>
-      <c r="AC21" s="7"/>
-      <c r="AD21" s="7"/>
-      <c r="AE21" s="7"/>
-      <c r="AF21" s="7" t="s">
+      <c r="AB21" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC21">
+        <v>1.7023341684190201E-3</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE21">
+        <v>1.3860653598055299E-3</v>
+      </c>
+      <c r="AF21" s="29" t="s">
         <v>12</v>
       </c>
       <c r="AG21" s="7">
@@ -2881,10 +3091,18 @@
       <c r="Z22" s="5">
         <v>3.1524900470035E-3</v>
       </c>
-      <c r="AB22" s="2"/>
-      <c r="AC22" s="7"/>
-      <c r="AD22" s="7"/>
-      <c r="AE22" s="7"/>
+      <c r="AB22" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC22">
+        <v>1.63740886903635E-3</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE22">
+        <v>1.35141435378784E-3</v>
+      </c>
       <c r="AF22" s="7" t="s">
         <v>64</v>
       </c>
@@ -2983,10 +3201,18 @@
       <c r="Z23" s="5">
         <v>3.0162869467675402E-3</v>
       </c>
-      <c r="AB23" s="2"/>
-      <c r="AC23" s="7"/>
-      <c r="AD23" s="7"/>
-      <c r="AE23" s="7"/>
+      <c r="AB23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC23">
+        <v>1.54660947478961E-3</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE23">
+        <v>1.29631582342876E-3</v>
+      </c>
       <c r="AF23" s="7" t="s">
         <v>22</v>
       </c>
@@ -3085,10 +3311,18 @@
       <c r="Z24" s="5">
         <v>2.0126166376073602E-3</v>
       </c>
-      <c r="AB24" s="2"/>
-      <c r="AC24" s="7"/>
-      <c r="AD24" s="7"/>
-      <c r="AE24" s="7"/>
+      <c r="AB24" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC24">
+        <v>1.51246856592631E-3</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE24">
+        <v>1.29392620836403E-3</v>
+      </c>
       <c r="AF24" s="7" t="s">
         <v>25</v>
       </c>
@@ -3187,10 +3421,18 @@
       <c r="Z25" s="5">
         <v>1.46262643165191E-3</v>
       </c>
-      <c r="AB25" s="2"/>
-      <c r="AC25" s="7"/>
-      <c r="AD25" s="7"/>
-      <c r="AE25" s="7"/>
+      <c r="AB25" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC25">
+        <v>1.47850643198429E-3</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE25">
+        <v>1.2755929561765801E-3</v>
+      </c>
       <c r="AF25" s="7" t="s">
         <v>14</v>
       </c>
@@ -3289,10 +3531,18 @@
       <c r="Z26" s="5">
         <v>1.08728955756456E-3</v>
       </c>
-      <c r="AB26" s="2"/>
-      <c r="AC26" s="7"/>
-      <c r="AD26" s="7"/>
-      <c r="AE26" s="7"/>
+      <c r="AB26" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC26">
+        <v>1.3976452487967301E-3</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE26">
+        <v>1.27243709263701E-3</v>
+      </c>
       <c r="AF26" s="7" t="s">
         <v>50</v>
       </c>
@@ -3391,10 +3641,18 @@
       <c r="Z27" s="5">
         <v>6.9229301091122599E-4</v>
       </c>
-      <c r="AB27" s="2"/>
-      <c r="AC27" s="7"/>
-      <c r="AD27" s="7"/>
-      <c r="AE27" s="7"/>
+      <c r="AB27" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC27">
+        <v>1.39089348522412E-3</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE27">
+        <v>1.26650553093781E-3</v>
+      </c>
       <c r="AF27" s="7" t="s">
         <v>61</v>
       </c>
@@ -3493,10 +3751,18 @@
       <c r="Z28" s="5">
         <v>5.2506431454673002E-4</v>
       </c>
-      <c r="AB28" s="2"/>
-      <c r="AC28" s="7"/>
-      <c r="AD28" s="7"/>
-      <c r="AE28" s="7"/>
+      <c r="AB28" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC28">
+        <v>1.3563257263990299E-3</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE28">
+        <v>1.18988818033414E-3</v>
+      </c>
       <c r="AF28" s="7" t="s">
         <v>24</v>
       </c>
@@ -3595,10 +3861,18 @@
       <c r="Z29" s="5">
         <v>3.43953873987734E-4</v>
       </c>
-      <c r="AB29" s="2"/>
-      <c r="AC29" s="7"/>
-      <c r="AD29" s="7"/>
-      <c r="AE29" s="7"/>
+      <c r="AB29" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC29">
+        <v>1.30932832873223E-3</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE29">
+        <v>1.18881500077817E-3</v>
+      </c>
       <c r="AF29" s="7" t="s">
         <v>23</v>
       </c>
@@ -3697,11 +3971,19 @@
       <c r="Z30" s="5">
         <v>3.1930415373517798E-4</v>
       </c>
-      <c r="AB30" s="2"/>
-      <c r="AC30" s="7"/>
-      <c r="AD30" s="7"/>
-      <c r="AE30" s="7"/>
-      <c r="AF30" s="7" t="s">
+      <c r="AB30" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC30">
+        <v>1.27641236123749E-3</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE30">
+        <v>1.1674157214620899E-3</v>
+      </c>
+      <c r="AF30" s="32" t="s">
         <v>13</v>
       </c>
       <c r="AG30" s="7">
@@ -3799,10 +4081,18 @@
       <c r="Z31" s="5">
         <v>3.1455495017329501E-4</v>
       </c>
-      <c r="AB31" s="2"/>
-      <c r="AC31" s="7"/>
-      <c r="AD31" s="7"/>
-      <c r="AE31" s="7"/>
+      <c r="AB31" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC31">
+        <v>1.2524106593180999E-3</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE31">
+        <v>1.1459546090187001E-3</v>
+      </c>
       <c r="AF31" s="7" t="s">
         <v>35</v>
       </c>
@@ -3859,7 +4149,7 @@
       <c r="K32" s="7">
         <v>1.42157466147129E-2</v>
       </c>
-      <c r="L32" s="7" t="s">
+      <c r="L32" s="29" t="s">
         <v>12</v>
       </c>
       <c r="M32" s="5">
@@ -3901,10 +4191,18 @@
       <c r="Z32" s="5">
         <v>1.5968773632843899E-4</v>
       </c>
-      <c r="AB32" s="2"/>
-      <c r="AC32" s="7"/>
-      <c r="AD32" s="7"/>
-      <c r="AE32" s="7"/>
+      <c r="AB32" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC32">
+        <v>1.20219917600766E-3</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE32">
+        <v>1.1380992175698899E-3</v>
+      </c>
       <c r="AF32" s="7" t="s">
         <v>51</v>
       </c>
@@ -4003,10 +4301,18 @@
       <c r="Z33" s="11">
         <v>6.7196507636513295E-5</v>
       </c>
-      <c r="AB33" s="2"/>
-      <c r="AC33" s="7"/>
-      <c r="AD33" s="7"/>
-      <c r="AE33" s="7"/>
+      <c r="AB33" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC33">
+        <v>1.1654543269679701E-3</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE33">
+        <v>1.0191962294252301E-3</v>
+      </c>
       <c r="AF33" s="7" t="s">
         <v>66</v>
       </c>
@@ -4105,10 +4411,18 @@
       <c r="Z34" s="11">
         <v>4.2484167039047398E-5</v>
       </c>
-      <c r="AB34" s="2"/>
-      <c r="AC34" s="7"/>
-      <c r="AD34" s="7"/>
-      <c r="AE34" s="7"/>
+      <c r="AB34" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC34">
+        <v>1.1089730444360001E-3</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE34">
+        <v>1.0014724487669301E-3</v>
+      </c>
       <c r="AF34" s="7" t="s">
         <v>43</v>
       </c>
@@ -4207,10 +4521,18 @@
       <c r="Z35" s="11">
         <v>3.1633549726128801E-5</v>
       </c>
-      <c r="AB35" s="2"/>
-      <c r="AC35" s="7"/>
-      <c r="AD35" s="7"/>
-      <c r="AE35" s="7"/>
+      <c r="AB35" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC35">
+        <v>1.1049985270500801E-3</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE35">
+        <v>9.4235487819919301E-4</v>
+      </c>
       <c r="AF35" s="7" t="s">
         <v>37</v>
       </c>
@@ -4229,7 +4551,7 @@
       <c r="AK35" s="7">
         <v>2.7465018431786599E-3</v>
       </c>
-      <c r="AL35" s="7" t="s">
+      <c r="AL35" s="40" t="s">
         <v>32</v>
       </c>
       <c r="AM35" s="5">
@@ -4309,10 +4631,18 @@
       <c r="Z36" s="11">
         <v>1.6782943256643501E-5</v>
       </c>
-      <c r="AB36" s="2"/>
-      <c r="AC36" s="7"/>
-      <c r="AD36" s="7"/>
-      <c r="AE36" s="7"/>
+      <c r="AB36" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC36">
+        <v>1.0048767832882301E-3</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE36">
+        <v>9.3303192552681498E-4</v>
+      </c>
       <c r="AF36" s="7" t="s">
         <v>15</v>
       </c>
@@ -4411,10 +4741,18 @@
       <c r="Z37" s="11">
         <v>1.39843735386779E-5</v>
       </c>
-      <c r="AB37" s="2"/>
-      <c r="AC37" s="7"/>
-      <c r="AD37" s="7"/>
-      <c r="AE37" s="7"/>
+      <c r="AB37" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC37">
+        <v>9.9929841976359999E-4</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE37">
+        <v>8.9920974779855397E-4</v>
+      </c>
       <c r="AF37" s="7" t="s">
         <v>53</v>
       </c>
@@ -4513,10 +4851,18 @@
       <c r="Z38" s="11">
         <v>8.6838322268523104E-6</v>
       </c>
-      <c r="AB38" s="2"/>
-      <c r="AC38" s="7"/>
-      <c r="AD38" s="7"/>
-      <c r="AE38" s="7"/>
+      <c r="AB38" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC38">
+        <v>9.40009241809762E-4</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE38">
+        <v>8.9739354833706295E-4</v>
+      </c>
       <c r="AF38" s="7" t="s">
         <v>29</v>
       </c>
@@ -4615,10 +4961,18 @@
       <c r="Z39" s="5">
         <v>0</v>
       </c>
-      <c r="AB39" s="2"/>
-      <c r="AC39" s="7"/>
-      <c r="AD39" s="7"/>
-      <c r="AE39" s="7"/>
+      <c r="AB39" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC39">
+        <v>9.1961378181067404E-4</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE39">
+        <v>8.9723999747982799E-4</v>
+      </c>
       <c r="AF39" s="7" t="s">
         <v>60</v>
       </c>
@@ -4637,7 +4991,7 @@
       <c r="AK39" s="7">
         <v>2.11694217445999E-3</v>
       </c>
-      <c r="AL39" s="7" t="s">
+      <c r="AL39" s="40" t="s">
         <v>46</v>
       </c>
       <c r="AM39" s="5">
@@ -4717,10 +5071,18 @@
       <c r="Z40" s="5">
         <v>0</v>
       </c>
-      <c r="AB40" s="2"/>
-      <c r="AC40" s="7"/>
-      <c r="AD40" s="7"/>
-      <c r="AE40" s="7"/>
+      <c r="AB40" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC40">
+        <v>9.1261239512190203E-4</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE40">
+        <v>8.6298487428190503E-4</v>
+      </c>
       <c r="AF40" s="7" t="s">
         <v>46</v>
       </c>
@@ -4819,10 +5181,18 @@
       <c r="Z41" s="5">
         <v>0</v>
       </c>
-      <c r="AB41" s="2"/>
-      <c r="AC41" s="7"/>
-      <c r="AD41" s="7"/>
-      <c r="AE41" s="7"/>
+      <c r="AB41" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC41">
+        <v>9.1148823419837403E-4</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE41">
+        <v>8.3701149240452799E-4</v>
+      </c>
       <c r="AF41" s="7" t="s">
         <v>48</v>
       </c>
@@ -4921,10 +5291,18 @@
       <c r="Z42" s="5">
         <v>0</v>
       </c>
-      <c r="AB42" s="2"/>
-      <c r="AC42" s="7"/>
-      <c r="AD42" s="7"/>
-      <c r="AE42" s="7"/>
+      <c r="AB42" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC42">
+        <v>8.6769451481948502E-4</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE42">
+        <v>7.88224211093635E-4</v>
+      </c>
       <c r="AF42" s="7" t="s">
         <v>57</v>
       </c>
@@ -5023,10 +5401,18 @@
       <c r="Z43" s="5">
         <v>0</v>
       </c>
-      <c r="AB43" s="2"/>
-      <c r="AC43" s="7"/>
-      <c r="AD43" s="7"/>
-      <c r="AE43" s="7"/>
+      <c r="AB43" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC43">
+        <v>8.6438186435904897E-4</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE43">
+        <v>7.8287179963565205E-4</v>
+      </c>
       <c r="AF43" s="7" t="s">
         <v>19</v>
       </c>
@@ -5125,10 +5511,18 @@
       <c r="Z44" s="5">
         <v>0</v>
       </c>
-      <c r="AB44" s="2"/>
-      <c r="AC44" s="7"/>
-      <c r="AD44" s="7"/>
-      <c r="AE44" s="7"/>
+      <c r="AB44" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC44">
+        <v>8.3208925594835902E-4</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE44">
+        <v>7.7800350180467701E-4</v>
+      </c>
       <c r="AF44" s="7" t="s">
         <v>70</v>
       </c>
@@ -5227,10 +5621,18 @@
       <c r="Z45" s="5">
         <v>0</v>
       </c>
-      <c r="AB45" s="2"/>
-      <c r="AC45" s="7"/>
-      <c r="AD45" s="7"/>
-      <c r="AE45" s="7"/>
+      <c r="AB45" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC45">
+        <v>8.2952394190677402E-4</v>
+      </c>
+      <c r="AD45" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE45">
+        <v>6.7215561217786202E-4</v>
+      </c>
       <c r="AF45" s="7" t="s">
         <v>49</v>
       </c>
@@ -5329,10 +5731,18 @@
       <c r="Z46" s="5">
         <v>0</v>
       </c>
-      <c r="AB46" s="2"/>
-      <c r="AC46" s="7"/>
-      <c r="AD46" s="7"/>
-      <c r="AE46" s="7"/>
+      <c r="AB46" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC46">
+        <v>7.6953426094541197E-4</v>
+      </c>
+      <c r="AD46" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE46">
+        <v>6.6929312042476896E-4</v>
+      </c>
       <c r="AF46" s="7" t="s">
         <v>31</v>
       </c>
@@ -5431,10 +5841,18 @@
       <c r="Z47" s="5">
         <v>0</v>
       </c>
-      <c r="AB47" s="2"/>
-      <c r="AC47" s="7"/>
-      <c r="AD47" s="7"/>
-      <c r="AE47" s="7"/>
+      <c r="AB47" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC47">
+        <v>7.2209619170290201E-4</v>
+      </c>
+      <c r="AD47" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE47">
+        <v>6.5004131873519901E-4</v>
+      </c>
       <c r="AF47" s="7" t="s">
         <v>36</v>
       </c>
@@ -5533,10 +5951,18 @@
       <c r="Z48" s="11">
         <v>-1.4461255599673701E-5</v>
       </c>
-      <c r="AB48" s="2"/>
-      <c r="AC48" s="7"/>
-      <c r="AD48" s="7"/>
-      <c r="AE48" s="7"/>
+      <c r="AB48" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC48">
+        <v>7.1573651154714798E-4</v>
+      </c>
+      <c r="AD48" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE48">
+        <v>6.4456228821977704E-4</v>
+      </c>
       <c r="AF48" s="7" t="s">
         <v>17</v>
       </c>
@@ -5635,10 +6061,18 @@
       <c r="Z49" s="11">
         <v>-4.2148014296827797E-5</v>
       </c>
-      <c r="AB49" s="2"/>
-      <c r="AC49" s="7"/>
-      <c r="AD49" s="7"/>
-      <c r="AE49" s="7"/>
+      <c r="AB49" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC49">
+        <v>7.1291005594875602E-4</v>
+      </c>
+      <c r="AD49" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE49">
+        <v>5.8264473111652398E-4</v>
+      </c>
       <c r="AF49" s="7" t="s">
         <v>41</v>
       </c>
@@ -5737,10 +6171,18 @@
       <c r="Z50" s="11">
         <v>-5.1759028130726701E-5</v>
       </c>
-      <c r="AB50" s="2"/>
-      <c r="AC50" s="7"/>
-      <c r="AD50" s="7"/>
-      <c r="AE50" s="7"/>
+      <c r="AB50" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC50">
+        <v>7.1246105470053605E-4</v>
+      </c>
+      <c r="AD50" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE50">
+        <v>5.7322466738534902E-4</v>
+      </c>
       <c r="AF50" s="7" t="s">
         <v>58</v>
       </c>
@@ -5839,10 +6281,18 @@
       <c r="Z51" s="11">
         <v>-9.0887216161661405E-5</v>
       </c>
-      <c r="AB51" s="2"/>
-      <c r="AC51" s="7"/>
-      <c r="AD51" s="7"/>
-      <c r="AE51" s="7"/>
+      <c r="AB51" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC51">
+        <v>7.0073361910033896E-4</v>
+      </c>
+      <c r="AD51" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE51">
+        <v>5.2189888662750896E-4</v>
+      </c>
       <c r="AF51" s="7" t="s">
         <v>47</v>
       </c>
@@ -5941,10 +6391,18 @@
       <c r="Z52" s="5">
         <v>-3.4441034849397301E-4</v>
       </c>
-      <c r="AB52" s="2"/>
-      <c r="AC52" s="7"/>
-      <c r="AD52" s="7"/>
-      <c r="AE52" s="7"/>
+      <c r="AB52" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC52">
+        <v>6.9084907638659605E-4</v>
+      </c>
+      <c r="AD52" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE52">
+        <v>5.12651551744207E-4</v>
+      </c>
       <c r="AF52" s="7" t="s">
         <v>68</v>
       </c>
@@ -6043,10 +6501,18 @@
       <c r="Z53" s="5">
         <v>-4.2362561524282799E-4</v>
       </c>
-      <c r="AB53" s="2"/>
-      <c r="AC53" s="7"/>
-      <c r="AD53" s="7"/>
-      <c r="AE53" s="7"/>
+      <c r="AB53" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC53">
+        <v>6.3960143103651004E-4</v>
+      </c>
+      <c r="AD53" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE53">
+        <v>5.0063266569698895E-4</v>
+      </c>
       <c r="AF53" s="7" t="s">
         <v>21</v>
       </c>
@@ -6145,10 +6611,18 @@
       <c r="Z54" s="5">
         <v>-5.4323646554812403E-4</v>
       </c>
-      <c r="AB54" s="2"/>
-      <c r="AC54" s="7"/>
-      <c r="AD54" s="7"/>
-      <c r="AE54" s="7"/>
+      <c r="AB54" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC54">
+        <v>5.6408035456857904E-4</v>
+      </c>
+      <c r="AD54" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE54">
+        <v>4.8010032184244599E-4</v>
+      </c>
       <c r="AF54" s="7" t="s">
         <v>73</v>
       </c>
@@ -6247,10 +6721,18 @@
       <c r="Z55" s="5">
         <v>-6.63719710535026E-4</v>
       </c>
-      <c r="AB55" s="2"/>
-      <c r="AC55" s="7"/>
-      <c r="AD55" s="7"/>
-      <c r="AE55" s="7"/>
+      <c r="AB55" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC55">
+        <v>5.4587304723366901E-4</v>
+      </c>
+      <c r="AD55" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE55">
+        <v>4.56921881115847E-4</v>
+      </c>
       <c r="AF55" s="7" t="s">
         <v>59</v>
       </c>
@@ -6349,10 +6831,18 @@
       <c r="Z56" s="5">
         <v>-7.3420959737342502E-4</v>
       </c>
-      <c r="AB56" s="2"/>
-      <c r="AC56" s="7"/>
-      <c r="AD56" s="7"/>
-      <c r="AE56" s="7"/>
+      <c r="AB56" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC56">
+        <v>5.3454927898970096E-4</v>
+      </c>
+      <c r="AD56" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE56">
+        <v>3.8935498678275502E-4</v>
+      </c>
       <c r="AF56" s="7" t="s">
         <v>74</v>
       </c>
@@ -6451,10 +6941,18 @@
       <c r="Z57" s="5">
         <v>-1.00893111508932E-3</v>
       </c>
-      <c r="AB57" s="2"/>
-      <c r="AC57" s="7"/>
-      <c r="AD57" s="7"/>
-      <c r="AE57" s="7"/>
+      <c r="AB57" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC57">
+        <v>5.2749673280973002E-4</v>
+      </c>
+      <c r="AD57" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE57">
+        <v>3.3776296140798103E-4</v>
+      </c>
       <c r="AF57" s="7" t="s">
         <v>33</v>
       </c>
@@ -6553,10 +7051,18 @@
       <c r="Z58" s="5">
         <v>-1.1313624165418801E-3</v>
       </c>
-      <c r="AB58" s="2"/>
-      <c r="AC58" s="7"/>
-      <c r="AD58" s="7"/>
-      <c r="AE58" s="7"/>
+      <c r="AB58" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC58">
+        <v>4.49919511107217E-4</v>
+      </c>
+      <c r="AD58" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE58">
+        <v>3.1367028026863002E-4</v>
+      </c>
       <c r="AF58" s="7" t="s">
         <v>40</v>
       </c>
@@ -6655,10 +7161,18 @@
       <c r="Z59" s="5">
         <v>-1.1651292131859201E-3</v>
       </c>
-      <c r="AB59" s="2"/>
-      <c r="AC59" s="7"/>
-      <c r="AD59" s="7"/>
-      <c r="AE59" s="7"/>
+      <c r="AB59" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC59">
+        <v>3.6806787873451199E-4</v>
+      </c>
+      <c r="AD59" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE59">
+        <v>2.36296916188303E-4</v>
+      </c>
       <c r="AF59" s="7" t="s">
         <v>56</v>
       </c>
@@ -6757,10 +7271,18 @@
       <c r="Z60" s="5">
         <v>-1.2568869391176699E-3</v>
       </c>
-      <c r="AB60" s="2"/>
-      <c r="AC60" s="7"/>
-      <c r="AD60" s="7"/>
-      <c r="AE60" s="7"/>
+      <c r="AB60" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC60">
+        <v>3.1223778752851098E-4</v>
+      </c>
+      <c r="AD60" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE60">
+        <v>2.2683221319616501E-4</v>
+      </c>
       <c r="AF60" s="7" t="s">
         <v>69</v>
       </c>
@@ -6859,10 +7381,18 @@
       <c r="Z61" s="5">
         <v>-1.26832133898302E-3</v>
       </c>
-      <c r="AB61" s="2"/>
-      <c r="AC61" s="7"/>
-      <c r="AD61" s="7"/>
-      <c r="AE61" s="7"/>
+      <c r="AB61" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC61">
+        <v>2.1852006958099899E-4</v>
+      </c>
+      <c r="AD61" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE61">
+        <v>1.8196414585959299E-4</v>
+      </c>
       <c r="AF61" s="7" t="s">
         <v>42</v>
       </c>
@@ -6961,10 +7491,18 @@
       <c r="Z62" s="5">
         <v>-1.3407887486275899E-3</v>
       </c>
-      <c r="AB62" s="2"/>
-      <c r="AC62" s="7"/>
-      <c r="AD62" s="7"/>
-      <c r="AE62" s="7"/>
+      <c r="AB62" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC62">
+        <v>2.0378428364608301E-4</v>
+      </c>
+      <c r="AD62" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE62">
+        <v>1.56236310106821E-4</v>
+      </c>
       <c r="AF62" s="7" t="s">
         <v>71</v>
       </c>
@@ -7063,10 +7601,18 @@
       <c r="Z63" s="5">
         <v>-1.4113426843644901E-3</v>
       </c>
-      <c r="AB63" s="2"/>
-      <c r="AC63" s="7"/>
-      <c r="AD63" s="7"/>
-      <c r="AE63" s="7"/>
+      <c r="AB63" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC63">
+        <v>1.48834690786912E-4</v>
+      </c>
+      <c r="AD63" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE63">
+        <v>1.00189867576008E-4</v>
+      </c>
       <c r="AF63" s="7" t="s">
         <v>26</v>
       </c>
@@ -7165,10 +7711,18 @@
       <c r="Z64" s="5">
         <v>-1.52182389632558E-3</v>
       </c>
-      <c r="AB64" s="2"/>
-      <c r="AC64" s="7"/>
-      <c r="AD64" s="7"/>
-      <c r="AE64" s="7"/>
+      <c r="AB64" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC64">
+        <v>1.2398531710193801E-4</v>
+      </c>
+      <c r="AD64" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE64" s="9">
+        <v>9.9997420337643298E-5</v>
+      </c>
       <c r="AF64" s="7" t="s">
         <v>55</v>
       </c>
@@ -7267,10 +7821,18 @@
       <c r="Z65" s="5">
         <v>-1.6854042546383199E-3</v>
       </c>
-      <c r="AB65" s="2"/>
-      <c r="AC65" s="7"/>
-      <c r="AD65" s="7"/>
-      <c r="AE65" s="7"/>
+      <c r="AB65" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC65">
+        <v>1.04688748483742E-4</v>
+      </c>
+      <c r="AD65" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE65" s="9">
+        <v>7.2275757972106597E-5</v>
+      </c>
       <c r="AF65" s="7" t="s">
         <v>83</v>
       </c>
@@ -7369,10 +7931,18 @@
       <c r="Z66" s="5">
         <v>-2.0310813820381499E-3</v>
       </c>
-      <c r="AB66" s="2"/>
-      <c r="AC66" s="7"/>
-      <c r="AD66" s="7"/>
-      <c r="AE66" s="7"/>
+      <c r="AB66" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC66" s="9">
+        <v>9.5338462083283001E-5</v>
+      </c>
+      <c r="AD66" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE66" s="9">
+        <v>6.8897718624410495E-5</v>
+      </c>
       <c r="AF66" s="7" t="s">
         <v>72</v>
       </c>
@@ -7471,10 +8041,18 @@
       <c r="Z67" s="5">
         <v>-2.3136124014424102E-3</v>
       </c>
-      <c r="AB67" s="2"/>
-      <c r="AC67" s="7"/>
-      <c r="AD67" s="7"/>
-      <c r="AE67" s="7"/>
+      <c r="AB67" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC67" s="9">
+        <v>7.7628583109150398E-5</v>
+      </c>
+      <c r="AD67" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE67" s="9">
+        <v>6.2613684707430204E-5</v>
+      </c>
       <c r="AF67" s="7" t="s">
         <v>54</v>
       </c>
@@ -7573,10 +8151,18 @@
       <c r="Z68" s="5">
         <v>-2.4402964824282E-3</v>
       </c>
-      <c r="AB68" s="2"/>
-      <c r="AC68" s="7"/>
-      <c r="AD68" s="7"/>
-      <c r="AE68" s="7"/>
+      <c r="AB68" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC68" s="9">
+        <v>7.5813302271829095E-5</v>
+      </c>
+      <c r="AD68" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE68" s="9">
+        <v>5.0964012611896799E-5</v>
+      </c>
       <c r="AF68" s="7" t="s">
         <v>85</v>
       </c>
@@ -7675,10 +8261,18 @@
       <c r="Z69" s="5">
         <v>-3.2517459752786399E-3</v>
       </c>
-      <c r="AB69" s="2"/>
-      <c r="AC69" s="7"/>
-      <c r="AD69" s="7"/>
-      <c r="AE69" s="7"/>
+      <c r="AB69" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC69" s="9">
+        <v>5.7624940449316501E-5</v>
+      </c>
+      <c r="AD69" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE69" s="9">
+        <v>4.2918755706986902E-5</v>
+      </c>
       <c r="AF69" s="7" t="s">
         <v>81</v>
       </c>
@@ -7777,10 +8371,18 @@
       <c r="Z70" s="5">
         <v>-3.7711695951458501E-3</v>
       </c>
-      <c r="AB70" s="2"/>
-      <c r="AC70" s="7"/>
-      <c r="AD70" s="7"/>
-      <c r="AE70" s="7"/>
+      <c r="AB70" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC70" s="9">
+        <v>5.2403151939373002E-5</v>
+      </c>
+      <c r="AD70" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE70" s="9">
+        <v>3.02957667463319E-5</v>
+      </c>
       <c r="AF70" s="7" t="s">
         <v>44</v>
       </c>
@@ -7879,10 +8481,18 @@
       <c r="Z71" s="5">
         <v>-4.0167708042509699E-3</v>
       </c>
-      <c r="AB71" s="2"/>
-      <c r="AC71" s="7"/>
-      <c r="AD71" s="7"/>
-      <c r="AE71" s="7"/>
+      <c r="AB71" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC71" s="9">
+        <v>2.6728088356225899E-5</v>
+      </c>
+      <c r="AD71" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE71" s="9">
+        <v>2.99235011597841E-5</v>
+      </c>
       <c r="AF71" s="7" t="s">
         <v>84</v>
       </c>
@@ -7981,10 +8591,18 @@
       <c r="Z72" s="5">
         <v>-5.0805827180908604E-3</v>
       </c>
-      <c r="AB72" s="2"/>
-      <c r="AC72" s="7"/>
-      <c r="AD72" s="7"/>
-      <c r="AE72" s="7"/>
+      <c r="AB72" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC72" s="9">
+        <v>2.6643386490152899E-5</v>
+      </c>
+      <c r="AD72" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE72" s="9">
+        <v>2.29599147030014E-5</v>
+      </c>
       <c r="AF72" s="7" t="s">
         <v>79</v>
       </c>
@@ -8083,10 +8701,18 @@
       <c r="Z73" s="5">
         <v>-5.77651972972774E-3</v>
       </c>
-      <c r="AB73" s="2"/>
-      <c r="AC73" s="7"/>
-      <c r="AD73" s="7"/>
-      <c r="AE73" s="7"/>
+      <c r="AB73" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC73" s="9">
+        <v>2.6290742326931299E-5</v>
+      </c>
+      <c r="AD73" t="s">
+        <v>83</v>
+      </c>
+      <c r="AE73" s="9">
+        <v>1.00689309300377E-5</v>
+      </c>
       <c r="AF73" s="7" t="s">
         <v>82</v>
       </c>
@@ -8185,10 +8811,18 @@
       <c r="Z74" s="5">
         <v>-6.1812156547884998E-3</v>
       </c>
-      <c r="AB74" s="2"/>
-      <c r="AC74" s="7"/>
-      <c r="AD74" s="7"/>
-      <c r="AE74" s="7"/>
+      <c r="AB74" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC74" s="9">
+        <v>2.4963505678397699E-5</v>
+      </c>
+      <c r="AD74" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE74" s="9">
+        <v>9.3710521130025599E-6</v>
+      </c>
       <c r="AF74" s="7" t="s">
         <v>80</v>
       </c>
@@ -8287,10 +8921,18 @@
       <c r="Z75" s="5">
         <v>-8.7323495979083603E-3</v>
       </c>
-      <c r="AB75" s="2"/>
-      <c r="AC75" s="7"/>
-      <c r="AD75" s="7"/>
-      <c r="AE75" s="7"/>
+      <c r="AB75" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC75" s="9">
+        <v>1.57393746125837E-5</v>
+      </c>
+      <c r="AD75" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE75" s="9">
+        <v>8.9050795247180505E-6</v>
+      </c>
       <c r="AF75" s="7" t="s">
         <v>87</v>
       </c>
@@ -8389,10 +9031,18 @@
       <c r="Z76" s="5">
         <v>-1.1072898074557899E-2</v>
       </c>
-      <c r="AB76" s="2"/>
-      <c r="AC76" s="7"/>
-      <c r="AD76" s="7"/>
-      <c r="AE76" s="7"/>
+      <c r="AB76" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC76" s="9">
+        <v>9.4633533883454003E-6</v>
+      </c>
+      <c r="AD76" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE76" s="9">
+        <v>5.7553114082644001E-6</v>
+      </c>
       <c r="AF76" s="7" t="s">
         <v>77</v>
       </c>
@@ -8491,10 +9141,18 @@
       <c r="Z77" s="5">
         <v>-1.20917274753166E-2</v>
       </c>
-      <c r="AB77" s="2"/>
-      <c r="AC77" s="7"/>
-      <c r="AD77" s="7"/>
-      <c r="AE77" s="7"/>
+      <c r="AB77" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC77" s="9">
+        <v>6.6821874744393596E-6</v>
+      </c>
+      <c r="AD77" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE77" s="9">
+        <v>3.2036575940689201E-6</v>
+      </c>
       <c r="AF77" s="7" t="s">
         <v>75</v>
       </c>
@@ -8593,10 +9251,18 @@
       <c r="Z78" s="5">
         <v>-1.5969336102454199E-2</v>
       </c>
-      <c r="AB78" s="2"/>
-      <c r="AC78" s="7"/>
-      <c r="AD78" s="7"/>
-      <c r="AE78" s="7"/>
+      <c r="AB78" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC78" s="9">
+        <v>4.9719229329042699E-6</v>
+      </c>
+      <c r="AD78" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE78" s="9">
+        <v>3.1828419351976098E-6</v>
+      </c>
       <c r="AF78" s="7" t="s">
         <v>67</v>
       </c>
@@ -8695,10 +9361,18 @@
       <c r="Z79" s="5">
         <v>-2.32614359001025E-2</v>
       </c>
-      <c r="AB79" s="2"/>
-      <c r="AC79" s="7"/>
-      <c r="AD79" s="7"/>
-      <c r="AE79" s="7"/>
+      <c r="AB79" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC79" s="9">
+        <v>4.31657319380512E-6</v>
+      </c>
+      <c r="AD79" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE79" s="9">
+        <v>2.0074050123623501E-6</v>
+      </c>
       <c r="AF79" s="7" t="s">
         <v>78</v>
       </c>
@@ -8797,10 +9471,18 @@
       <c r="Z80" s="5">
         <v>-2.9240400740999699E-2</v>
       </c>
-      <c r="AB80" s="2"/>
-      <c r="AC80" s="7"/>
-      <c r="AD80" s="7"/>
-      <c r="AE80" s="7"/>
+      <c r="AB80" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC80" s="9">
+        <v>3.36804974572022E-6</v>
+      </c>
+      <c r="AD80" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE80" s="9">
+        <v>1.07938820904232E-6</v>
+      </c>
       <c r="AF80" s="7" t="s">
         <v>76</v>
       </c>
@@ -8883,10 +9565,18 @@
       <c r="X81" s="7"/>
       <c r="Y81" s="7"/>
       <c r="Z81" s="5"/>
-      <c r="AB81" s="2"/>
-      <c r="AC81" s="7"/>
-      <c r="AD81" s="7"/>
-      <c r="AE81" s="7"/>
+      <c r="AB81" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC81" s="9">
+        <v>3.2103745053004701E-6</v>
+      </c>
+      <c r="AD81" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE81" s="9">
+        <v>5.2694578094360998E-7</v>
+      </c>
       <c r="AF81" s="7" t="s">
         <v>86</v>
       </c>
@@ -8937,21 +9627,15 @@
       <c r="X82" s="7"/>
       <c r="Y82" s="7"/>
       <c r="Z82" s="5"/>
+      <c r="AB82" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC82" s="9">
+        <v>7.1131721892138101E-7</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AH3:AI3"/>
-    <mergeCell ref="AJ3:AK3"/>
-    <mergeCell ref="AL3:AM3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Y3:Z3"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="O2:Z2"/>
     <mergeCell ref="AB2:AM2"/>
@@ -8961,6 +9645,18 @@
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="L3:M3"/>
+    <mergeCell ref="AL3:AM3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Y3:Z3"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AH3:AI3"/>
+    <mergeCell ref="AJ3:AK3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8990,147 +9686,147 @@
   <sheetData>
     <row r="1" spans="2:43" ht="5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:43" x14ac:dyDescent="0.2">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="19"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="22"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="19"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="22"/>
       <c r="O2" s="3"/>
-      <c r="P2" s="17" t="s">
+      <c r="P2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="19"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="22"/>
       <c r="V2" s="3"/>
-      <c r="W2" s="17" t="s">
+      <c r="W2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="18"/>
-      <c r="Z2" s="18"/>
-      <c r="AA2" s="18"/>
-      <c r="AB2" s="19"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="21"/>
+      <c r="Z2" s="21"/>
+      <c r="AA2" s="21"/>
+      <c r="AB2" s="22"/>
       <c r="AC2" s="3"/>
-      <c r="AD2" s="17" t="s">
+      <c r="AD2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="AE2" s="18"/>
-      <c r="AF2" s="18"/>
-      <c r="AG2" s="18"/>
-      <c r="AH2" s="18"/>
-      <c r="AI2" s="19"/>
+      <c r="AE2" s="21"/>
+      <c r="AF2" s="21"/>
+      <c r="AG2" s="21"/>
+      <c r="AH2" s="21"/>
+      <c r="AI2" s="22"/>
       <c r="AJ2" s="3"/>
-      <c r="AK2" s="17" t="s">
+      <c r="AK2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="AL2" s="18"/>
-      <c r="AM2" s="18"/>
-      <c r="AN2" s="18"/>
-      <c r="AO2" s="18"/>
-      <c r="AP2" s="19"/>
+      <c r="AL2" s="21"/>
+      <c r="AM2" s="21"/>
+      <c r="AN2" s="21"/>
+      <c r="AO2" s="21"/>
+      <c r="AP2" s="22"/>
       <c r="AQ2" s="8"/>
     </row>
     <row r="3" spans="2:43" x14ac:dyDescent="0.2">
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13" t="s">
+      <c r="C3" s="17"/>
+      <c r="D3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13" t="s">
+      <c r="E3" s="17"/>
+      <c r="F3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="I3" s="12" t="s">
+      <c r="G3" s="18"/>
+      <c r="I3" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13" t="s">
+      <c r="J3" s="17"/>
+      <c r="K3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13" t="s">
+      <c r="L3" s="17"/>
+      <c r="M3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="14"/>
-      <c r="P3" s="12" t="s">
+      <c r="N3" s="18"/>
+      <c r="P3" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13" t="s">
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13" t="s">
+      <c r="S3" s="17"/>
+      <c r="T3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="U3" s="14"/>
-      <c r="W3" s="12" t="s">
+      <c r="U3" s="18"/>
+      <c r="W3" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="X3" s="13"/>
-      <c r="Y3" s="13" t="s">
+      <c r="X3" s="17"/>
+      <c r="Y3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="Z3" s="13"/>
-      <c r="AA3" s="13" t="s">
+      <c r="Z3" s="17"/>
+      <c r="AA3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="AB3" s="14"/>
-      <c r="AD3" s="12" t="s">
+      <c r="AB3" s="18"/>
+      <c r="AD3" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="AE3" s="13"/>
-      <c r="AF3" s="13" t="s">
+      <c r="AE3" s="17"/>
+      <c r="AF3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="AG3" s="13"/>
-      <c r="AH3" s="13" t="s">
+      <c r="AG3" s="17"/>
+      <c r="AH3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="AI3" s="14"/>
-      <c r="AK3" s="12" t="s">
+      <c r="AI3" s="18"/>
+      <c r="AK3" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="AL3" s="13"/>
-      <c r="AM3" s="13" t="s">
+      <c r="AL3" s="17"/>
+      <c r="AM3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="AN3" s="13"/>
-      <c r="AO3" s="13" t="s">
+      <c r="AN3" s="17"/>
+      <c r="AO3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="AP3" s="14"/>
+      <c r="AP3" s="18"/>
       <c r="AQ3" s="6"/>
     </row>
     <row r="4" spans="2:43" x14ac:dyDescent="0.2">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="12" t="s">
         <v>9</v>
       </c>
       <c r="C4">
         <v>0.16047042666438899</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="13">
         <v>0.108451002634894</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -9145,10 +9841,10 @@
       <c r="J4">
         <v>0.16658057025509901</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="K4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="16">
+      <c r="L4" s="13">
         <v>8.5136053784184207E-2</v>
       </c>
       <c r="M4" s="1" t="s">
@@ -16756,15 +17452,11 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="AM3:AN3"/>
-    <mergeCell ref="AO3:AP3"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Y3:Z3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AH3:AI3"/>
-    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="AK2:AP2"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="P2:U2"/>
+    <mergeCell ref="W2:AB2"/>
     <mergeCell ref="AD2:AI2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:E3"/>
@@ -16775,11 +17467,15 @@
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="R3:S3"/>
     <mergeCell ref="T3:U3"/>
-    <mergeCell ref="AK2:AP2"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="I2:N2"/>
-    <mergeCell ref="P2:U2"/>
-    <mergeCell ref="W2:AB2"/>
+    <mergeCell ref="AM3:AN3"/>
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Y3:Z3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AH3:AI3"/>
+    <mergeCell ref="AK3:AL3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/planB/data/rf_out/RF_important_features.xlsx
+++ b/planB/data/rf_out/RF_important_features.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jake/Desktop/DSS_repo/BTCMiningCO2Footprint/planB/data/rf_out/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85B6D506-6CA1-C042-A56B-2FC21A2CCDB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56DE98E9-89EC-1C4E-AC1F-B7C85299F87F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1360" yWindow="500" windowWidth="30540" windowHeight="19120" xr2:uid="{CB2A7D81-577F-B948-B7BD-8F247062CBE1}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30540" windowHeight="19120" xr2:uid="{CB2A7D81-577F-B948-B7BD-8F247062CBE1}"/>
   </bookViews>
   <sheets>
     <sheet name="by method" sheetId="1" r:id="rId1"/>
@@ -390,7 +390,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -486,11 +486,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -549,15 +558,14 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -880,8 +888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F670D600-BE7B-A546-8B6E-27B91BA76A6F}">
   <dimension ref="B1:AM82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:M2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AL36" sqref="AL36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1075,76 +1083,76 @@
       <c r="M4" s="5">
         <v>0.13973873345799001</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="O4" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="P4" s="5">
-        <v>0.108451002634894</v>
-      </c>
-      <c r="Q4" s="2" t="s">
+      <c r="P4" s="36">
+        <v>0.58253792014710803</v>
+      </c>
+      <c r="Q4" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="R4" s="5">
-        <v>8.5136053784184207E-2</v>
-      </c>
-      <c r="S4" s="2" t="s">
+      <c r="R4" s="36">
+        <v>0.59407853956703804</v>
+      </c>
+      <c r="S4" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="T4" s="36">
+        <v>0.47499429046160002</v>
+      </c>
+      <c r="U4" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="V4" s="36">
+        <v>0.48604130970297499</v>
+      </c>
+      <c r="W4" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="X4" s="36">
+        <v>0.46158946752568097</v>
+      </c>
+      <c r="Y4" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="T4" s="5">
-        <v>9.4208061816850194E-2</v>
-      </c>
-      <c r="U4" s="2" t="s">
+      <c r="Z4" s="13">
+        <v>0.29739820782009602</v>
+      </c>
+      <c r="AB4" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="V4" s="5">
-        <v>2.6019313837556401E-2</v>
-      </c>
-      <c r="W4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="X4" s="5">
-        <v>7.5004236155200498E-3</v>
-      </c>
-      <c r="Y4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z4" s="5">
-        <v>7.0831389934541203E-2</v>
-      </c>
-      <c r="AB4" s="36" t="s">
+      <c r="AC4" s="36">
+        <v>1.7897645281229901E-2</v>
+      </c>
+      <c r="AD4" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="AC4">
-        <v>1.7897645281229901E-2</v>
-      </c>
-      <c r="AD4" s="36" t="s">
+      <c r="AE4" s="36">
+        <v>1.7390847296468202E-2</v>
+      </c>
+      <c r="AF4" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="AE4">
-        <v>1.7390847296468202E-2</v>
-      </c>
-      <c r="AF4" s="28" t="s">
+      <c r="AG4" s="36">
+        <v>1.46022081575671E-2</v>
+      </c>
+      <c r="AH4" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="AG4" s="7">
-        <v>1.46022081575671E-2</v>
-      </c>
-      <c r="AH4" s="28" t="s">
+      <c r="AI4" s="36">
+        <v>3.2653301315025397E-2</v>
+      </c>
+      <c r="AJ4" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="AI4" s="7">
-        <v>3.2653301315025397E-2</v>
-      </c>
-      <c r="AJ4" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="AK4" s="7">
+      <c r="AK4" s="36">
         <v>2.861667371522E-2</v>
       </c>
-      <c r="AL4" s="26" t="s">
+      <c r="AL4" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="AM4" s="5">
+      <c r="AM4" s="13">
         <v>2.28136418134708E-2</v>
       </c>
     </row>
@@ -1185,55 +1193,55 @@
       <c r="M5" s="5">
         <v>9.4385225812702797E-2</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="O5" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="P5" s="5">
-        <v>5.2657939728982701E-2</v>
-      </c>
-      <c r="Q5" s="2" t="s">
+      <c r="P5" s="7">
+        <v>0.56281055383548295</v>
+      </c>
+      <c r="Q5" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="R5" s="7">
+        <v>0.55571402242883305</v>
+      </c>
+      <c r="S5" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="T5" s="7">
+        <v>0.36297962559714703</v>
+      </c>
+      <c r="U5" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="R5" s="5">
-        <v>4.9748430508884903E-2</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T5" s="5">
-        <v>6.4698928472491105E-2</v>
-      </c>
-      <c r="U5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V5" s="5">
-        <v>2.02625919817419E-2</v>
-      </c>
-      <c r="W5" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="X5" s="5">
-        <v>6.6971637625765097E-3</v>
-      </c>
-      <c r="Y5" s="2" t="s">
+      <c r="V5" s="7">
+        <v>0.31444249454920398</v>
+      </c>
+      <c r="W5" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="X5" s="7">
+        <v>0.34533561972795002</v>
+      </c>
+      <c r="Y5" s="28" t="s">
         <v>11</v>
       </c>
       <c r="Z5" s="5">
-        <v>5.5345630725479197E-2</v>
-      </c>
-      <c r="AB5" s="35" t="s">
+        <v>0.250884248764491</v>
+      </c>
+      <c r="AB5" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="AC5">
+      <c r="AC5" s="7">
         <v>9.8341210630012808E-3</v>
       </c>
-      <c r="AD5" s="35" t="s">
+      <c r="AD5" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="AE5">
+      <c r="AE5" s="7">
         <v>8.7964257248314397E-3</v>
       </c>
-      <c r="AF5" s="40" t="s">
+      <c r="AF5" s="34" t="s">
         <v>32</v>
       </c>
       <c r="AG5" s="7">
@@ -1295,52 +1303,52 @@
       <c r="M6" s="5">
         <v>3.9436941062068201E-2</v>
       </c>
-      <c r="O6" s="2" t="s">
+      <c r="O6" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="P6" s="7">
+        <v>0.41197936171142102</v>
+      </c>
+      <c r="Q6" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="R6" s="7">
+        <v>0.43280562846123499</v>
+      </c>
+      <c r="S6" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="T6" s="7">
+        <v>0.32165712443058397</v>
+      </c>
+      <c r="U6" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="V6" s="7">
+        <v>0.29710008076062999</v>
+      </c>
+      <c r="W6" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="P6" s="5">
-        <v>2.4325282393651799E-2</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="R6" s="5">
-        <v>4.5897775076892598E-2</v>
-      </c>
-      <c r="S6" s="2" t="s">
+      <c r="X6" s="7">
+        <v>0.31892037332658102</v>
+      </c>
+      <c r="Y6" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="T6" s="5">
-        <v>2.7120329131508199E-2</v>
-      </c>
-      <c r="U6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="V6" s="5">
-        <v>2.02058268397389E-2</v>
-      </c>
-      <c r="W6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="X6" s="5">
-        <v>5.9383212014344697E-3</v>
-      </c>
-      <c r="Y6" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="Z6" s="5">
-        <v>5.47459714817475E-2</v>
-      </c>
-      <c r="AB6" s="39" t="s">
+        <v>0.190143193549874</v>
+      </c>
+      <c r="AB6" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="AC6">
+      <c r="AC6" s="7">
         <v>7.9615442652960396E-3</v>
       </c>
-      <c r="AD6" s="41" t="s">
+      <c r="AD6" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="AE6">
+      <c r="AE6" s="7">
         <v>7.1996980375613299E-3</v>
       </c>
       <c r="AF6" s="24" t="s">
@@ -1349,7 +1357,7 @@
       <c r="AG6" s="7">
         <v>7.1950757112848197E-3</v>
       </c>
-      <c r="AH6" s="42" t="s">
+      <c r="AH6" s="35" t="s">
         <v>29</v>
       </c>
       <c r="AI6" s="7">
@@ -1405,52 +1413,52 @@
       <c r="M7" s="5">
         <v>3.69483920349193E-2</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="O7" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="P7" s="5">
-        <v>1.7702784052088701E-2</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="R7" s="5">
-        <v>1.45145971193154E-2</v>
-      </c>
-      <c r="S7" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="T7" s="5">
-        <v>2.3901127409848E-2</v>
-      </c>
-      <c r="U7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="V7" s="5">
-        <v>1.7159129118872799E-2</v>
-      </c>
-      <c r="W7" s="2" t="s">
+      <c r="P7" s="7">
+        <v>0.25594767723455197</v>
+      </c>
+      <c r="Q7" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="R7" s="7">
+        <v>0.25563743437730502</v>
+      </c>
+      <c r="S7" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="T7" s="7">
+        <v>0.28923213180983998</v>
+      </c>
+      <c r="U7" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="X7" s="5">
-        <v>5.1740481269505201E-3</v>
-      </c>
-      <c r="Y7" s="2" t="s">
+      <c r="V7" s="7">
+        <v>0.27157052158436501</v>
+      </c>
+      <c r="W7" s="26" t="s">
         <v>10</v>
       </c>
+      <c r="X7" s="7">
+        <v>0.27260923429558898</v>
+      </c>
+      <c r="Y7" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="Z7" s="5">
-        <v>3.8072738161771098E-2</v>
+        <v>0.14639381929043499</v>
       </c>
       <c r="AB7" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="AC7">
+      <c r="AC7" s="7">
         <v>5.9676784478187002E-3</v>
       </c>
-      <c r="AD7" s="34" t="s">
+      <c r="AD7" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="AE7">
+      <c r="AE7" s="7">
         <v>5.2790614405028103E-3</v>
       </c>
       <c r="AF7" s="26" t="s">
@@ -1459,13 +1467,13 @@
       <c r="AG7" s="7">
         <v>6.1030391854946502E-3</v>
       </c>
-      <c r="AH7" s="40" t="s">
+      <c r="AH7" s="34" t="s">
         <v>46</v>
       </c>
       <c r="AI7" s="7">
         <v>1.2704296845491399E-2</v>
       </c>
-      <c r="AJ7" s="42" t="s">
+      <c r="AJ7" s="35" t="s">
         <v>29</v>
       </c>
       <c r="AK7" s="7">
@@ -1515,52 +1523,52 @@
       <c r="M8" s="5">
         <v>3.02037515429294E-2</v>
       </c>
-      <c r="O8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="P8" s="5">
-        <v>1.6762415606003798E-2</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="R8" s="5">
-        <v>1.0631360956894801E-2</v>
-      </c>
-      <c r="S8" s="2" t="s">
+      <c r="O8" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="P8" s="7">
+        <v>0.23504347626882899</v>
+      </c>
+      <c r="Q8" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="R8" s="7">
+        <v>0.198817886533945</v>
+      </c>
+      <c r="S8" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="T8" s="5">
-        <v>2.1797712860166601E-2</v>
-      </c>
-      <c r="U8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="V8" s="5">
-        <v>1.25195260385599E-2</v>
-      </c>
-      <c r="W8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="X8" s="5">
-        <v>4.5412180342696501E-3</v>
-      </c>
-      <c r="Y8" s="2" t="s">
-        <v>58</v>
+      <c r="T8" s="7">
+        <v>0.103585022916027</v>
+      </c>
+      <c r="U8" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="V8" s="7">
+        <v>0.17793672415193801</v>
+      </c>
+      <c r="W8" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="X8" s="7">
+        <v>0.12454193973103</v>
+      </c>
+      <c r="Y8" s="7" t="s">
+        <v>62</v>
       </c>
       <c r="Z8" s="5">
-        <v>3.2190288916356898E-2</v>
-      </c>
-      <c r="AB8" s="34" t="s">
+        <v>8.7131676100436595E-2</v>
+      </c>
+      <c r="AB8" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="AC8">
+      <c r="AC8" s="7">
         <v>5.2676469892237402E-3</v>
       </c>
-      <c r="AD8" s="37" t="s">
+      <c r="AD8" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="AE8">
+      <c r="AE8" s="7">
         <v>3.9949972611768598E-3</v>
       </c>
       <c r="AF8" s="7" t="s">
@@ -1625,52 +1633,52 @@
       <c r="M9" s="5">
         <v>2.8003493449795799E-2</v>
       </c>
-      <c r="O9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="P9" s="5">
-        <v>1.4307844686969899E-2</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R9" s="5">
-        <v>9.1610706188055297E-3</v>
-      </c>
-      <c r="S9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="T9" s="5">
-        <v>1.51813401301924E-2</v>
-      </c>
-      <c r="U9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="V9" s="5">
-        <v>8.0014542030820007E-3</v>
-      </c>
-      <c r="W9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="X9" s="5">
-        <v>1.8934565586817601E-3</v>
-      </c>
-      <c r="Y9" s="2" t="s">
-        <v>63</v>
+      <c r="O9" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="P9" s="7">
+        <v>0.15630656326165099</v>
+      </c>
+      <c r="Q9" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="R9" s="7">
+        <v>0.152177154310669</v>
+      </c>
+      <c r="S9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="T9" s="7">
+        <v>8.6249260218584103E-2</v>
+      </c>
+      <c r="U9" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="V9" s="7">
+        <v>0.14813302695968</v>
+      </c>
+      <c r="W9" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="X9" s="7">
+        <v>0.115288661559238</v>
+      </c>
+      <c r="Y9" s="7" t="s">
+        <v>64</v>
       </c>
       <c r="Z9" s="5">
-        <v>2.97542072675837E-2</v>
-      </c>
-      <c r="AB9" t="s">
+        <v>8.4784586452547897E-2</v>
+      </c>
+      <c r="AB9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="AC9">
+      <c r="AC9" s="7">
         <v>3.6556136824557198E-3</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AD9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="AE9">
+      <c r="AE9" s="7">
         <v>3.7853648757950002E-3</v>
       </c>
       <c r="AF9" s="7" t="s">
@@ -1735,52 +1743,52 @@
       <c r="M10" s="5">
         <v>2.7632609657679299E-2</v>
       </c>
-      <c r="O10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="P10" s="5">
-        <v>8.3343656210039807E-3</v>
-      </c>
-      <c r="Q10" s="2" t="s">
+      <c r="O10" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="R10" s="5">
-        <v>8.7611673060543592E-3</v>
-      </c>
-      <c r="S10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="T10" s="5">
-        <v>1.51646086805165E-2</v>
-      </c>
-      <c r="U10" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="V10" s="5">
-        <v>6.7461321111736902E-3</v>
-      </c>
-      <c r="W10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="X10" s="5">
-        <v>1.60836178098198E-3</v>
-      </c>
-      <c r="Y10" s="2" t="s">
+      <c r="P10" s="7">
+        <v>0.113601956873319</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>18</v>
       </c>
+      <c r="R10" s="7">
+        <v>0.119380473649219</v>
+      </c>
+      <c r="S10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="T10" s="7">
+        <v>7.8628454504684905E-2</v>
+      </c>
+      <c r="U10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="V10" s="7">
+        <v>9.5730804102373404E-2</v>
+      </c>
+      <c r="W10" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="X10" s="7">
+        <v>0.114942579063329</v>
+      </c>
+      <c r="Y10" s="7" t="s">
+        <v>66</v>
+      </c>
       <c r="Z10" s="5">
-        <v>2.5865466269533701E-2</v>
-      </c>
-      <c r="AB10" s="38" t="s">
+        <v>8.0930632269057695E-2</v>
+      </c>
+      <c r="AB10" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="AC10">
+      <c r="AC10" s="7">
         <v>2.93400292301388E-3</v>
       </c>
-      <c r="AD10" s="38" t="s">
+      <c r="AD10" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="AE10">
+      <c r="AE10" s="7">
         <v>3.4158392375531498E-3</v>
       </c>
       <c r="AF10" s="7" t="s">
@@ -1846,51 +1854,51 @@
         <v>2.7069337900537699E-2</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="P11" s="5">
-        <v>8.2482459169305397E-3</v>
-      </c>
-      <c r="Q11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P11" s="7">
+        <v>9.4796200781443393E-2</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="R11" s="7">
+        <v>0.11425135489049799</v>
+      </c>
+      <c r="S11" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="R11" s="5">
-        <v>6.7254817463596496E-3</v>
-      </c>
-      <c r="S11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="T11" s="5">
-        <v>1.3278123306617999E-2</v>
-      </c>
-      <c r="U11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="V11" s="5">
-        <v>4.6227631204516203E-3</v>
-      </c>
-      <c r="W11" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="X11" s="5">
-        <v>1.46999658657613E-3</v>
-      </c>
-      <c r="Y11" s="2" t="s">
-        <v>62</v>
+      <c r="T11" s="7">
+        <v>7.8187846922896903E-2</v>
+      </c>
+      <c r="U11" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="V11" s="7">
+        <v>8.4051907324055097E-2</v>
+      </c>
+      <c r="W11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="X11" s="7">
+        <v>8.2687390255523893E-2</v>
+      </c>
+      <c r="Y11" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="Z11" s="5">
-        <v>2.4770372318713801E-2</v>
-      </c>
-      <c r="AB11" t="s">
+        <v>7.9989009384858298E-2</v>
+      </c>
+      <c r="AB11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AC11">
+      <c r="AC11" s="7">
         <v>2.88682538706647E-3</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AD11" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="AE11">
+      <c r="AE11" s="7">
         <v>3.2735900888736999E-3</v>
       </c>
       <c r="AF11" s="7" t="s">
@@ -1956,51 +1964,51 @@
         <v>2.0716198116298601E-2</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="P12" s="5">
-        <v>7.8576015327789205E-3</v>
-      </c>
-      <c r="Q12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="R12" s="5">
-        <v>6.3230876138815999E-3</v>
-      </c>
-      <c r="S12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T12" s="5">
-        <v>1.12529767698603E-2</v>
-      </c>
-      <c r="U12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="V12" s="5">
-        <v>4.6070528600802496E-3</v>
-      </c>
-      <c r="W12" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="X12" s="5">
-        <v>1.34072726145975E-3</v>
-      </c>
-      <c r="Y12" s="2" t="s">
-        <v>52</v>
+        <v>33</v>
+      </c>
+      <c r="P12" s="7">
+        <v>8.1023917965976106E-2</v>
+      </c>
+      <c r="Q12" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="R12" s="7">
+        <v>9.8627564200488099E-2</v>
+      </c>
+      <c r="S12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="T12" s="7">
+        <v>7.63129562112876E-2</v>
+      </c>
+      <c r="U12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="V12" s="7">
+        <v>7.2362338653480796E-2</v>
+      </c>
+      <c r="W12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="X12" s="7">
+        <v>8.1234061568243601E-2</v>
+      </c>
+      <c r="Y12" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="Z12" s="5">
-        <v>2.069137091921E-2</v>
-      </c>
-      <c r="AB12" t="s">
+        <v>6.6387244702535597E-2</v>
+      </c>
+      <c r="AB12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="AC12">
+      <c r="AC12" s="7">
         <v>2.65465893397502E-3</v>
       </c>
-      <c r="AD12" s="39" t="s">
+      <c r="AD12" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="AE12">
+      <c r="AE12" s="7">
         <v>3.1020087802926099E-3</v>
       </c>
       <c r="AF12" s="7" t="s">
@@ -2015,7 +2023,7 @@
       <c r="AI12" s="7">
         <v>8.1259678577831999E-3</v>
       </c>
-      <c r="AJ12" s="40" t="s">
+      <c r="AJ12" s="34" t="s">
         <v>46</v>
       </c>
       <c r="AK12" s="7">
@@ -2066,51 +2074,51 @@
         <v>1.9658703914904801E-2</v>
       </c>
       <c r="O13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P13" s="7">
+        <v>7.8021231121667103E-2</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="R13" s="7">
+        <v>8.0703574468061506E-2</v>
+      </c>
+      <c r="S13" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="T13" s="7">
+        <v>6.7256748272693997E-2</v>
+      </c>
+      <c r="U13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="V13" s="7">
+        <v>7.0424180984667004E-2</v>
+      </c>
+      <c r="W13" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="X13" s="7">
+        <v>7.8273601425717501E-2</v>
+      </c>
+      <c r="Y13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z13" s="5">
+        <v>4.6741543077606598E-2</v>
+      </c>
+      <c r="AB13" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P13" s="5">
-        <v>7.5680899560826402E-3</v>
-      </c>
-      <c r="Q13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="R13" s="5">
-        <v>5.6881551781715603E-3</v>
-      </c>
-      <c r="S13" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="T13" s="5">
-        <v>8.1178323935482792E-3</v>
-      </c>
-      <c r="U13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="V13" s="5">
-        <v>4.4011487418637698E-3</v>
-      </c>
-      <c r="W13" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="X13" s="5">
-        <v>1.32916484116694E-3</v>
-      </c>
-      <c r="Y13" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z13" s="5">
-        <v>1.7676447326875799E-2</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC13">
+      <c r="AC13" s="7">
         <v>2.64732012132272E-3</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AD13" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="AE13">
+      <c r="AE13" s="7">
         <v>2.7479972800709298E-3</v>
       </c>
       <c r="AF13" s="7" t="s">
@@ -2176,51 +2184,51 @@
         <v>1.9553647807554999E-2</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="P14" s="5">
-        <v>6.6652643374231603E-3</v>
-      </c>
-      <c r="Q14" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="R14" s="5">
-        <v>3.2189331231211099E-3</v>
-      </c>
-      <c r="S14" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="T14" s="5">
-        <v>7.7153724755300596E-3</v>
-      </c>
-      <c r="U14" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="V14" s="5">
-        <v>4.3300906533969997E-3</v>
-      </c>
-      <c r="W14" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="X14" s="5">
-        <v>1.21558724772055E-3</v>
-      </c>
-      <c r="Y14" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
+      </c>
+      <c r="P14" s="7">
+        <v>7.6008193700387694E-2</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="R14" s="7">
+        <v>7.6289508534504599E-2</v>
+      </c>
+      <c r="S14" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="T14" s="7">
+        <v>6.4241010991995307E-2</v>
+      </c>
+      <c r="U14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="V14" s="7">
+        <v>6.5717627242839805E-2</v>
+      </c>
+      <c r="W14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="X14" s="7">
+        <v>6.6667775329691301E-2</v>
+      </c>
+      <c r="Y14" s="32" t="s">
+        <v>13</v>
       </c>
       <c r="Z14" s="5">
-        <v>1.2072386078192001E-2</v>
-      </c>
-      <c r="AB14" s="37" t="s">
+        <v>4.4089921430067902E-2</v>
+      </c>
+      <c r="AB14" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="AC14">
+      <c r="AC14" s="7">
         <v>2.5337048033906399E-3</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AD14" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="AE14">
+      <c r="AE14" s="7">
         <v>2.5601415577881301E-3</v>
       </c>
       <c r="AF14" s="7" t="s">
@@ -2286,51 +2294,51 @@
         <v>1.8851256297519499E-2</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="P15" s="5">
-        <v>5.7017052795143401E-3</v>
-      </c>
-      <c r="Q15" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="R15" s="5">
-        <v>2.91047345452342E-3</v>
-      </c>
-      <c r="S15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P15" s="7">
+        <v>7.3869952935597394E-2</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="R15" s="7">
+        <v>7.3020989167742897E-2</v>
+      </c>
+      <c r="S15" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="T15" s="7">
+        <v>6.2173161694643098E-2</v>
+      </c>
+      <c r="U15" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="V15" s="7">
+        <v>6.5297473878347403E-2</v>
+      </c>
+      <c r="W15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="X15" s="7">
+        <v>5.6082563507112299E-2</v>
+      </c>
+      <c r="Y15" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="T15" s="5">
-        <v>7.5161801027647298E-3</v>
-      </c>
-      <c r="U15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="V15" s="5">
-        <v>4.1994733680998904E-3</v>
-      </c>
-      <c r="W15" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="X15" s="5">
-        <v>9.7998393020341996E-4</v>
-      </c>
-      <c r="Y15" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="Z15" s="5">
-        <v>1.18801274078755E-2</v>
-      </c>
-      <c r="AB15" t="s">
+        <v>4.11114546588923E-2</v>
+      </c>
+      <c r="AB15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AC15">
+      <c r="AC15" s="7">
         <v>2.4451504732970202E-3</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AD15" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="AE15">
+      <c r="AE15" s="7">
         <v>2.3503150276109599E-3</v>
       </c>
       <c r="AF15" s="7" t="s">
@@ -2396,51 +2404,51 @@
         <v>1.87464035626091E-2</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="P16" s="5">
-        <v>4.9501418326376801E-3</v>
-      </c>
-      <c r="Q16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R16" s="5">
-        <v>2.6819454893170802E-3</v>
-      </c>
-      <c r="S16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P16" s="7">
+        <v>6.3668605435511103E-2</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="R16" s="7">
+        <v>5.6008873344979102E-2</v>
+      </c>
+      <c r="S16" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="T16" s="7">
+        <v>6.04615476515011E-2</v>
+      </c>
+      <c r="U16" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="V16" s="7">
+        <v>5.9270790318464099E-2</v>
+      </c>
+      <c r="W16" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="X16" s="7">
+        <v>5.59687723586118E-2</v>
+      </c>
+      <c r="Y16" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z16" s="5">
+        <v>3.8998155069303E-2</v>
+      </c>
+      <c r="AB16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC16" s="7">
+        <v>2.4358205146186199E-3</v>
+      </c>
+      <c r="AD16" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="T16" s="5">
-        <v>6.9915350675489899E-3</v>
-      </c>
-      <c r="U16" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="V16" s="5">
-        <v>3.64006705218042E-3</v>
-      </c>
-      <c r="W16" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="X16" s="5">
-        <v>8.2429471360461197E-4</v>
-      </c>
-      <c r="Y16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z16" s="5">
-        <v>1.05026474958044E-2</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC16">
-        <v>2.4358205146186199E-3</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE16">
+      <c r="AE16" s="7">
         <v>2.3426494579206199E-3</v>
       </c>
       <c r="AF16" s="7" t="s">
@@ -2506,51 +2514,51 @@
         <v>1.8608700897235101E-2</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="P17" s="5">
-        <v>4.3799608675843399E-3</v>
-      </c>
-      <c r="Q17" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="R17" s="5">
-        <v>2.3883655609409E-3</v>
-      </c>
-      <c r="S17" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="T17" s="5">
-        <v>6.8186687956626997E-3</v>
-      </c>
-      <c r="U17" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="V17" s="5">
-        <v>3.62795291392523E-3</v>
-      </c>
-      <c r="W17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P17" s="7">
+        <v>6.1717031486441302E-2</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="R17" s="7">
+        <v>5.43430140610544E-2</v>
+      </c>
+      <c r="S17" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="X17" s="5">
-        <v>4.8446149943011098E-4</v>
-      </c>
-      <c r="Y17" s="2" t="s">
-        <v>12</v>
+      <c r="T17" s="7">
+        <v>5.4039060041709601E-2</v>
+      </c>
+      <c r="U17" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="V17" s="7">
+        <v>5.0972763611709097E-2</v>
+      </c>
+      <c r="W17" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="X17" s="7">
+        <v>5.5602538090419699E-2</v>
+      </c>
+      <c r="Y17" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="Z17" s="5">
-        <v>9.1086752994097003E-3</v>
-      </c>
-      <c r="AB17" t="s">
+        <v>3.7808608184522398E-2</v>
+      </c>
+      <c r="AB17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC17">
+      <c r="AC17" s="7">
         <v>2.3033841347155398E-3</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AD17" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="AE17">
+      <c r="AE17" s="7">
         <v>2.32228370222619E-3</v>
       </c>
       <c r="AF17" s="7" t="s">
@@ -2616,51 +2624,51 @@
         <v>1.8110124026652501E-2</v>
       </c>
       <c r="O18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P18" s="7">
+        <v>6.1374784351038103E-2</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="R18" s="7">
+        <v>5.1870911796118399E-2</v>
+      </c>
+      <c r="S18" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="T18" s="7">
+        <v>4.7204087164155598E-2</v>
+      </c>
+      <c r="U18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="V18" s="7">
+        <v>4.9137494183607203E-2</v>
+      </c>
+      <c r="W18" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="P18" s="5">
-        <v>3.5845303010949301E-3</v>
-      </c>
-      <c r="Q18" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="R18" s="5">
-        <v>2.1324455967183398E-3</v>
-      </c>
-      <c r="S18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="T18" s="5">
-        <v>6.8013079058984703E-3</v>
-      </c>
-      <c r="U18" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="V18" s="5">
-        <v>3.23100288379603E-3</v>
-      </c>
-      <c r="W18" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="X18" s="5">
-        <v>3.4936752853242898E-4</v>
-      </c>
-      <c r="Y18" s="2" t="s">
-        <v>43</v>
+      <c r="X18" s="7">
+        <v>5.1192668265709097E-2</v>
+      </c>
+      <c r="Y18" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="Z18" s="5">
-        <v>8.5352844237140506E-3</v>
-      </c>
-      <c r="AB18" t="s">
+        <v>3.68898016327565E-2</v>
+      </c>
+      <c r="AB18" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AC18">
+      <c r="AC18" s="7">
         <v>2.2311655434846698E-3</v>
       </c>
-      <c r="AD18" t="s">
+      <c r="AD18" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="AE18">
+      <c r="AE18" s="7">
         <v>1.6934405787107699E-3</v>
       </c>
       <c r="AF18" s="7" t="s">
@@ -2726,51 +2734,51 @@
         <v>1.78899387186158E-2</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="P19" s="5">
-        <v>1.9633085335561901E-3</v>
-      </c>
-      <c r="Q19" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="R19" s="5">
-        <v>2.0989341569751701E-3</v>
-      </c>
-      <c r="S19" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="T19" s="5">
-        <v>6.7837684754493404E-3</v>
-      </c>
-      <c r="U19" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="V19" s="5">
-        <v>3.1613986120979602E-3</v>
-      </c>
-      <c r="W19" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="X19" s="5">
-        <v>2.17629319774159E-4</v>
-      </c>
-      <c r="Y19" s="2" t="s">
-        <v>14</v>
+        <v>34</v>
+      </c>
+      <c r="P19" s="7">
+        <v>5.6781730339248902E-2</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="R19" s="7">
+        <v>5.0984498013990201E-2</v>
+      </c>
+      <c r="S19" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="T19" s="7">
+        <v>4.6713393156720101E-2</v>
+      </c>
+      <c r="U19" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="V19" s="7">
+        <v>4.3739606436020803E-2</v>
+      </c>
+      <c r="W19" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="X19" s="7">
+        <v>4.6498376937604897E-2</v>
+      </c>
+      <c r="Y19" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="Z19" s="5">
-        <v>6.1407934908061096E-3</v>
-      </c>
-      <c r="AB19" t="s">
+        <v>3.43791036207058E-2</v>
+      </c>
+      <c r="AB19" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AC19">
+      <c r="AC19" s="7">
         <v>1.88328177799344E-3</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AD19" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="AE19">
+      <c r="AE19" s="7">
         <v>1.5051628370864099E-3</v>
       </c>
       <c r="AF19" s="7" t="s">
@@ -2836,51 +2844,51 @@
         <v>1.7711838483754801E-2</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="P20" s="5">
-        <v>9.70152921262457E-4</v>
-      </c>
-      <c r="Q20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="P20" s="7">
+        <v>5.6376361365379601E-2</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="R20" s="7">
+        <v>4.7747472056320503E-2</v>
+      </c>
+      <c r="S20" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="T20" s="7">
+        <v>4.4876671676591498E-2</v>
+      </c>
+      <c r="U20" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="V20" s="7">
+        <v>4.3590116268422602E-2</v>
+      </c>
+      <c r="W20" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="X20" s="7">
+        <v>4.4780863306067398E-2</v>
+      </c>
+      <c r="Y20" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z20" s="5">
+        <v>3.2937420990982E-2</v>
+      </c>
+      <c r="AB20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC20" s="7">
+        <v>1.82500179609053E-3</v>
+      </c>
+      <c r="AD20" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="R20" s="5">
-        <v>2.0119861493758302E-3</v>
-      </c>
-      <c r="S20" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="T20" s="5">
-        <v>6.7082008186871199E-3</v>
-      </c>
-      <c r="U20" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="V20" s="5">
-        <v>2.9125694535014398E-3</v>
-      </c>
-      <c r="W20" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="X20" s="5">
-        <v>1.0341817660224299E-4</v>
-      </c>
-      <c r="Y20" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z20" s="5">
-        <v>5.8454820543656803E-3</v>
-      </c>
-      <c r="AB20" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC20">
-        <v>1.82500179609053E-3</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>24</v>
-      </c>
-      <c r="AE20">
+      <c r="AE20" s="7">
         <v>1.4758521833334599E-3</v>
       </c>
       <c r="AF20" s="7" t="s">
@@ -2946,51 +2954,51 @@
         <v>1.69606469423168E-2</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="P21" s="5">
-        <v>6.13768030790273E-4</v>
-      </c>
-      <c r="Q21" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="R21" s="5">
-        <v>2.0005846294111501E-3</v>
-      </c>
-      <c r="S21" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="T21" s="5">
-        <v>6.0711326520936004E-3</v>
-      </c>
-      <c r="U21" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="V21" s="5">
-        <v>2.52608992109766E-3</v>
-      </c>
-      <c r="W21" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="X21" s="11">
-        <v>6.9680813663008901E-5</v>
-      </c>
-      <c r="Y21" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
+      </c>
+      <c r="P21" s="7">
+        <v>5.1822230185269297E-2</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="R21" s="7">
+        <v>4.73087399129693E-2</v>
+      </c>
+      <c r="S21" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="T21" s="7">
+        <v>4.4624349408790502E-2</v>
+      </c>
+      <c r="U21" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="V21" s="7">
+        <v>4.3381296480841297E-2</v>
+      </c>
+      <c r="W21" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="X21" s="7">
+        <v>4.4382527898886102E-2</v>
+      </c>
+      <c r="Y21" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="Z21" s="5">
-        <v>3.5010297795902302E-3</v>
-      </c>
-      <c r="AB21" t="s">
+        <v>3.2744864080026602E-2</v>
+      </c>
+      <c r="AB21" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AC21">
+      <c r="AC21" s="7">
         <v>1.7023341684190201E-3</v>
       </c>
-      <c r="AD21" t="s">
+      <c r="AD21" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="AE21">
+      <c r="AE21" s="7">
         <v>1.3860653598055299E-3</v>
       </c>
       <c r="AF21" s="29" t="s">
@@ -3056,51 +3064,51 @@
         <v>1.6518501291624601E-2</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="P22" s="5">
-        <v>2.5736684238784001E-4</v>
-      </c>
-      <c r="Q22" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="R22" s="5">
-        <v>1.77331113352918E-3</v>
-      </c>
-      <c r="S22" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="T22" s="5">
-        <v>6.0572801233045696E-3</v>
-      </c>
-      <c r="U22" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="V22" s="5">
-        <v>2.4237951566221201E-3</v>
-      </c>
-      <c r="W22" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="X22" s="11">
-        <v>1.74766522365477E-5</v>
-      </c>
-      <c r="Y22" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="P22" s="7">
+        <v>4.3583379886929799E-2</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="R22" s="7">
+        <v>4.6465495703438497E-2</v>
+      </c>
+      <c r="S22" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="T22" s="7">
+        <v>3.7617814602387903E-2</v>
+      </c>
+      <c r="U22" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="V22" s="7">
+        <v>4.2592626755731999E-2</v>
+      </c>
+      <c r="W22" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="X22" s="7">
+        <v>4.3065538091133899E-2</v>
+      </c>
+      <c r="Y22" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="Z22" s="5">
-        <v>3.1524900470035E-3</v>
-      </c>
-      <c r="AB22" t="s">
+        <v>3.1340420229808701E-2</v>
+      </c>
+      <c r="AB22" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AC22">
+      <c r="AC22" s="7">
         <v>1.63740886903635E-3</v>
       </c>
-      <c r="AD22" t="s">
+      <c r="AD22" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AE22">
+      <c r="AE22" s="7">
         <v>1.35141435378784E-3</v>
       </c>
       <c r="AF22" s="7" t="s">
@@ -3166,51 +3174,51 @@
         <v>1.61614156339305E-2</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="P23" s="5">
-        <v>1.01682651415657E-4</v>
-      </c>
-      <c r="Q23" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="R23" s="5">
-        <v>1.71570379793126E-3</v>
-      </c>
-      <c r="S23" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="T23" s="5">
-        <v>4.9286898896124098E-3</v>
-      </c>
-      <c r="U23" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="V23" s="5">
-        <v>2.2190368912777801E-3</v>
-      </c>
-      <c r="W23" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="X23" s="11">
-        <v>8.5434918006832493E-6</v>
-      </c>
-      <c r="Y23" s="2" t="s">
-        <v>69</v>
+        <v>39</v>
+      </c>
+      <c r="P23" s="7">
+        <v>4.3463119346255803E-2</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="R23" s="7">
+        <v>4.4429168033271502E-2</v>
+      </c>
+      <c r="S23" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="T23" s="7">
+        <v>3.6962044783965101E-2</v>
+      </c>
+      <c r="U23" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="V23" s="7">
+        <v>4.2084938361159299E-2</v>
+      </c>
+      <c r="W23" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="X23" s="7">
+        <v>4.2161634380509502E-2</v>
+      </c>
+      <c r="Y23" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="Z23" s="5">
-        <v>3.0162869467675402E-3</v>
-      </c>
-      <c r="AB23" t="s">
+        <v>2.8336170453446399E-2</v>
+      </c>
+      <c r="AB23" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AC23">
+      <c r="AC23" s="7">
         <v>1.54660947478961E-3</v>
       </c>
-      <c r="AD23" t="s">
+      <c r="AD23" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="AE23">
+      <c r="AE23" s="7">
         <v>1.29631582342876E-3</v>
       </c>
       <c r="AF23" s="7" t="s">
@@ -3276,51 +3284,51 @@
         <v>1.5861449331294599E-2</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="P24" s="11">
-        <v>4.5209721832373198E-5</v>
-      </c>
-      <c r="Q24" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="R24" s="5">
-        <v>1.4736541303570401E-3</v>
-      </c>
-      <c r="S24" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="T24" s="5">
-        <v>2.4013093014739499E-3</v>
-      </c>
-      <c r="U24" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="V24" s="5">
-        <v>2.0007271926289101E-3</v>
-      </c>
-      <c r="W24" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="X24" s="11">
-        <v>1.9815014802748701E-6</v>
-      </c>
-      <c r="Y24" s="2" t="s">
-        <v>61</v>
+        <v>37</v>
+      </c>
+      <c r="P24" s="7">
+        <v>4.3296764156581603E-2</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="R24" s="7">
+        <v>4.3081096145256098E-2</v>
+      </c>
+      <c r="S24" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="T24" s="7">
+        <v>3.68139814068262E-2</v>
+      </c>
+      <c r="U24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="V24" s="7">
+        <v>4.2059091674685203E-2</v>
+      </c>
+      <c r="W24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="X24" s="7">
+        <v>4.0957228967895401E-2</v>
+      </c>
+      <c r="Y24" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="Z24" s="5">
-        <v>2.0126166376073602E-3</v>
-      </c>
-      <c r="AB24" t="s">
+        <v>2.66259685005606E-2</v>
+      </c>
+      <c r="AB24" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="AC24">
+      <c r="AC24" s="7">
         <v>1.51246856592631E-3</v>
       </c>
-      <c r="AD24" t="s">
+      <c r="AD24" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="AE24">
+      <c r="AE24" s="7">
         <v>1.29392620836403E-3</v>
       </c>
       <c r="AF24" s="7" t="s">
@@ -3386,51 +3394,51 @@
         <v>1.5845014337222199E-2</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="P25" s="11">
-        <v>4.1217545969551797E-5</v>
-      </c>
-      <c r="Q25" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="R25" s="5">
-        <v>1.2305119509995199E-3</v>
-      </c>
-      <c r="S25" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="T25" s="5">
-        <v>2.0949180430262101E-3</v>
-      </c>
-      <c r="U25" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="V25" s="5">
-        <v>1.86004537392352E-3</v>
-      </c>
-      <c r="W25" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="X25" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y25" s="2" t="s">
-        <v>47</v>
+        <v>24</v>
+      </c>
+      <c r="P25" s="7">
+        <v>4.0382345616353503E-2</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="R25" s="7">
+        <v>4.24886365541257E-2</v>
+      </c>
+      <c r="S25" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="T25" s="7">
+        <v>3.5665255571109201E-2</v>
+      </c>
+      <c r="U25" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="V25" s="7">
+        <v>4.1288754611970298E-2</v>
+      </c>
+      <c r="W25" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="X25" s="7">
+        <v>3.6427710916938499E-2</v>
+      </c>
+      <c r="Y25" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="Z25" s="5">
-        <v>1.46262643165191E-3</v>
-      </c>
-      <c r="AB25" t="s">
+        <v>2.5607548104550699E-2</v>
+      </c>
+      <c r="AB25" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AC25">
+      <c r="AC25" s="7">
         <v>1.47850643198429E-3</v>
       </c>
-      <c r="AD25" t="s">
+      <c r="AD25" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AE25">
+      <c r="AE25" s="7">
         <v>1.2755929561765801E-3</v>
       </c>
       <c r="AF25" s="7" t="s">
@@ -3496,51 +3504,51 @@
         <v>1.5524623947783801E-2</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="P26" s="11">
-        <v>3.57417276148908E-6</v>
-      </c>
-      <c r="Q26" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="R26" s="5">
-        <v>1.2018026085601E-3</v>
-      </c>
-      <c r="S26" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="T26" s="5">
-        <v>1.7662333147016201E-3</v>
-      </c>
-      <c r="U26" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="V26" s="5">
-        <v>9.8286293060283409E-4</v>
-      </c>
-      <c r="W26" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="X26" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y26" s="2" t="s">
-        <v>48</v>
+        <v>20</v>
+      </c>
+      <c r="P26" s="7">
+        <v>3.9179533109742697E-2</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="R26" s="7">
+        <v>4.20254771495936E-2</v>
+      </c>
+      <c r="S26" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="T26" s="7">
+        <v>3.4971848972355501E-2</v>
+      </c>
+      <c r="U26" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="V26" s="7">
+        <v>4.0851982249631602E-2</v>
+      </c>
+      <c r="W26" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="X26" s="7">
+        <v>3.5029875917856799E-2</v>
+      </c>
+      <c r="Y26" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="Z26" s="5">
-        <v>1.08728955756456E-3</v>
-      </c>
-      <c r="AB26" t="s">
+        <v>2.5066084274401199E-2</v>
+      </c>
+      <c r="AB26" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AC26">
+      <c r="AC26" s="7">
         <v>1.3976452487967301E-3</v>
       </c>
-      <c r="AD26" t="s">
+      <c r="AD26" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="AE26">
+      <c r="AE26" s="7">
         <v>1.27243709263701E-3</v>
       </c>
       <c r="AF26" s="7" t="s">
@@ -3606,51 +3614,51 @@
         <v>1.4619366024204E-2</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="P27" s="11">
-        <v>-1.0639265024536799E-9</v>
-      </c>
-      <c r="Q27" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="R27" s="5">
-        <v>8.6111984841612504E-4</v>
-      </c>
-      <c r="S27" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P27" s="7">
+        <v>3.7674182729134101E-2</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="R27" s="7">
+        <v>4.1266916258865298E-2</v>
+      </c>
+      <c r="S27" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="T27" s="7">
+        <v>3.0916286611227198E-2</v>
+      </c>
+      <c r="U27" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="T27" s="5">
-        <v>1.09193459507253E-3</v>
-      </c>
-      <c r="U27" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="V27" s="5">
-        <v>9.1297086585497803E-4</v>
-      </c>
-      <c r="W27" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="X27" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y27" s="2" t="s">
+      <c r="V27" s="7">
+        <v>4.0568678413774997E-2</v>
+      </c>
+      <c r="W27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="X27" s="7">
+        <v>3.4751068947009398E-2</v>
+      </c>
+      <c r="Y27" s="34" t="s">
         <v>46</v>
       </c>
       <c r="Z27" s="5">
-        <v>6.9229301091122599E-4</v>
-      </c>
-      <c r="AB27" t="s">
+        <v>2.2403899498437099E-2</v>
+      </c>
+      <c r="AB27" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AC27">
+      <c r="AC27" s="7">
         <v>1.39089348522412E-3</v>
       </c>
-      <c r="AD27" t="s">
+      <c r="AD27" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="AE27">
+      <c r="AE27" s="7">
         <v>1.26650553093781E-3</v>
       </c>
       <c r="AF27" s="7" t="s">
@@ -3716,51 +3724,51 @@
         <v>1.442299840567E-2</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="P28" s="11">
-        <v>-7.13320952083762E-8</v>
-      </c>
-      <c r="Q28" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P28" s="7">
+        <v>3.6491051350722899E-2</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="R28" s="7">
+        <v>4.0957275901078297E-2</v>
+      </c>
+      <c r="S28" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="R28" s="5">
-        <v>6.9895338297354295E-4</v>
-      </c>
-      <c r="S28" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="T28" s="5">
-        <v>9.8352878211618302E-4</v>
-      </c>
-      <c r="U28" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="V28" s="5">
-        <v>3.3917233912141801E-4</v>
-      </c>
-      <c r="W28" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="X28" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y28" s="2" t="s">
-        <v>79</v>
+      <c r="T28" s="7">
+        <v>3.04440646644752E-2</v>
+      </c>
+      <c r="U28" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="V28" s="7">
+        <v>4.0233659390399801E-2</v>
+      </c>
+      <c r="W28" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="X28" s="7">
+        <v>3.4055779084712197E-2</v>
+      </c>
+      <c r="Y28" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="Z28" s="5">
-        <v>5.2506431454673002E-4</v>
-      </c>
-      <c r="AB28" t="s">
+        <v>2.0522840185892299E-2</v>
+      </c>
+      <c r="AB28" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AC28">
+      <c r="AC28" s="7">
         <v>1.3563257263990299E-3</v>
       </c>
-      <c r="AD28" t="s">
+      <c r="AD28" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="AE28">
+      <c r="AE28" s="7">
         <v>1.18988818033414E-3</v>
       </c>
       <c r="AF28" s="7" t="s">
@@ -3826,51 +3834,51 @@
         <v>1.41120797241189E-2</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="P29" s="11">
-        <v>-8.6057342083556402E-7</v>
-      </c>
-      <c r="Q29" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="R29" s="5">
-        <v>5.4938739356327196E-4</v>
-      </c>
-      <c r="S29" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="T29" s="5">
-        <v>9.6012775265266195E-4</v>
-      </c>
-      <c r="U29" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="V29" s="5">
-        <v>2.4106844511151399E-4</v>
-      </c>
-      <c r="W29" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="X29" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y29" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
+      </c>
+      <c r="P29" s="7">
+        <v>3.5889071011070098E-2</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="R29" s="7">
+        <v>3.8344280118310398E-2</v>
+      </c>
+      <c r="S29" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="T29" s="7">
+        <v>2.9915241085963801E-2</v>
+      </c>
+      <c r="U29" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="V29" s="7">
+        <v>3.7527342035630198E-2</v>
+      </c>
+      <c r="W29" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="X29" s="7">
+        <v>3.1339193846822697E-2</v>
+      </c>
+      <c r="Y29" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="Z29" s="5">
-        <v>3.43953873987734E-4</v>
-      </c>
-      <c r="AB29" t="s">
+        <v>2.0255087331809599E-2</v>
+      </c>
+      <c r="AB29" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AC29">
+      <c r="AC29" s="7">
         <v>1.30932832873223E-3</v>
       </c>
-      <c r="AD29" t="s">
+      <c r="AD29" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="AE29">
+      <c r="AE29" s="7">
         <v>1.18881500077817E-3</v>
       </c>
       <c r="AF29" s="7" t="s">
@@ -3936,51 +3944,51 @@
         <v>1.3793048234119599E-2</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="P30" s="11">
-        <v>-2.0365790751597501E-6</v>
-      </c>
-      <c r="Q30" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="R30" s="5">
-        <v>5.1144080047573696E-4</v>
-      </c>
-      <c r="S30" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="T30" s="5">
-        <v>9.0425435574910103E-4</v>
-      </c>
-      <c r="U30" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="V30" s="5">
-        <v>1.7459217589284E-4</v>
-      </c>
-      <c r="W30" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="X30" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y30" s="2" t="s">
-        <v>73</v>
+        <v>17</v>
+      </c>
+      <c r="P30" s="7">
+        <v>3.5340799214491202E-2</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="R30" s="7">
+        <v>3.7914301888696197E-2</v>
+      </c>
+      <c r="S30" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="T30" s="7">
+        <v>2.8617251972599098E-2</v>
+      </c>
+      <c r="U30" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="V30" s="7">
+        <v>3.5861899805937701E-2</v>
+      </c>
+      <c r="W30" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="X30" s="7">
+        <v>3.05958692807629E-2</v>
+      </c>
+      <c r="Y30" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="Z30" s="5">
-        <v>3.1930415373517798E-4</v>
-      </c>
-      <c r="AB30" t="s">
+        <v>1.8933857280364799E-2</v>
+      </c>
+      <c r="AB30" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AC30">
+      <c r="AC30" s="7">
         <v>1.27641236123749E-3</v>
       </c>
-      <c r="AD30" t="s">
+      <c r="AD30" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="AE30">
+      <c r="AE30" s="7">
         <v>1.1674157214620899E-3</v>
       </c>
       <c r="AF30" s="32" t="s">
@@ -4046,51 +4054,51 @@
         <v>1.33304537837545E-2</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="P31" s="11">
-        <v>-4.5948253879490804E-6</v>
-      </c>
-      <c r="Q31" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="R31" s="5">
-        <v>3.4656712012401901E-4</v>
-      </c>
-      <c r="S31" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="T31" s="5">
-        <v>8.3697908015798405E-4</v>
-      </c>
-      <c r="U31" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="V31" s="5">
-        <v>1.4659535027039501E-4</v>
-      </c>
-      <c r="W31" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="X31" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y31" s="2" t="s">
-        <v>32</v>
+        <v>47</v>
+      </c>
+      <c r="P31" s="7">
+        <v>3.4656471646030702E-2</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="R31" s="7">
+        <v>3.7201377292588697E-2</v>
+      </c>
+      <c r="S31" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="T31" s="7">
+        <v>2.6662943665840801E-2</v>
+      </c>
+      <c r="U31" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="V31" s="7">
+        <v>3.5306438897571103E-2</v>
+      </c>
+      <c r="W31" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="X31" s="7">
+        <v>3.0152965053974499E-2</v>
+      </c>
+      <c r="Y31" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="Z31" s="5">
-        <v>3.1455495017329501E-4</v>
-      </c>
-      <c r="AB31" t="s">
+        <v>1.8706328728720301E-2</v>
+      </c>
+      <c r="AB31" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AC31">
+      <c r="AC31" s="7">
         <v>1.2524106593180999E-3</v>
       </c>
-      <c r="AD31" t="s">
+      <c r="AD31" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="AE31">
+      <c r="AE31" s="7">
         <v>1.1459546090187001E-3</v>
       </c>
       <c r="AF31" s="7" t="s">
@@ -4156,51 +4164,51 @@
         <v>1.3267491734432601E-2</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="P32" s="11">
-        <v>-6.6434449882191104E-6</v>
-      </c>
-      <c r="Q32" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="R32" s="11">
-        <v>2.7076635188105699E-5</v>
-      </c>
-      <c r="S32" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="T32" s="5">
-        <v>7.4681496642487995E-4</v>
-      </c>
-      <c r="U32" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="V32" s="5">
-        <v>1.26295348689264E-4</v>
-      </c>
-      <c r="W32" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="X32" s="11">
-        <v>-2.15036578770089E-6</v>
-      </c>
-      <c r="Y32" s="2" t="s">
-        <v>80</v>
+        <v>19</v>
+      </c>
+      <c r="P32" s="7">
+        <v>3.3229107289259201E-2</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="R32" s="7">
+        <v>3.2562821716190599E-2</v>
+      </c>
+      <c r="S32" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="T32" s="7">
+        <v>2.5146557234287201E-2</v>
+      </c>
+      <c r="U32" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="V32" s="7">
+        <v>3.4022897048413603E-2</v>
+      </c>
+      <c r="W32" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="X32" s="7">
+        <v>2.96404441334195E-2</v>
+      </c>
+      <c r="Y32" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="Z32" s="5">
-        <v>1.5968773632843899E-4</v>
-      </c>
-      <c r="AB32" t="s">
+        <v>1.8055188280403599E-2</v>
+      </c>
+      <c r="AB32" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AC32">
+      <c r="AC32" s="7">
         <v>1.20219917600766E-3</v>
       </c>
-      <c r="AD32" t="s">
+      <c r="AD32" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AE32">
+      <c r="AE32" s="7">
         <v>1.1380992175698899E-3</v>
       </c>
       <c r="AF32" s="7" t="s">
@@ -4266,51 +4274,51 @@
         <v>1.3217159104361E-2</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="P33" s="11">
-        <v>-9.5495400982859001E-6</v>
-      </c>
-      <c r="Q33" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="R33" s="11">
-        <v>4.8578477613414604E-6</v>
-      </c>
-      <c r="S33" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="T33" s="5">
-        <v>6.0771570079389795E-4</v>
-      </c>
-      <c r="U33" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="V33" s="5">
-        <v>1.03392479297959E-4</v>
-      </c>
-      <c r="W33" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="X33" s="11">
-        <v>-3.8381511501972502E-5</v>
-      </c>
-      <c r="Y33" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z33" s="11">
-        <v>6.7196507636513295E-5</v>
-      </c>
-      <c r="AB33" t="s">
+        <v>43</v>
+      </c>
+      <c r="P33" s="7">
+        <v>3.3215661148735497E-2</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="R33" s="7">
+        <v>3.1497909118103497E-2</v>
+      </c>
+      <c r="S33" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="T33" s="7">
+        <v>2.4032786945989801E-2</v>
+      </c>
+      <c r="U33" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="V33" s="7">
+        <v>3.2528779605569498E-2</v>
+      </c>
+      <c r="W33" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="X33" s="7">
+        <v>2.9244436223904099E-2</v>
+      </c>
+      <c r="Y33" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z33" s="5">
+        <v>1.8023387263431601E-2</v>
+      </c>
+      <c r="AB33" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="AC33">
+      <c r="AC33" s="7">
         <v>1.1654543269679701E-3</v>
       </c>
-      <c r="AD33" t="s">
+      <c r="AD33" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="AE33">
+      <c r="AE33" s="7">
         <v>1.0191962294252301E-3</v>
       </c>
       <c r="AF33" s="7" t="s">
@@ -4376,51 +4384,51 @@
         <v>1.26862306940964E-2</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="P34" s="11">
-        <v>-1.5080066377581801E-5</v>
-      </c>
-      <c r="Q34" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="R34" s="11">
-        <v>1.0589745590649999E-6</v>
-      </c>
-      <c r="S34" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P34" s="7">
+        <v>3.3147821049915101E-2</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="R34" s="7">
+        <v>2.8963310269831202E-2</v>
+      </c>
+      <c r="S34" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="T34" s="7">
+        <v>2.3148118322190402E-2</v>
+      </c>
+      <c r="U34" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="T34" s="5">
-        <v>2.4104017187571701E-4</v>
-      </c>
-      <c r="U34" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="V34" s="11">
-        <v>7.4622274773350399E-5</v>
-      </c>
-      <c r="W34" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="X34" s="11">
-        <v>-9.2420575160412298E-5</v>
-      </c>
-      <c r="Y34" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z34" s="11">
-        <v>4.2484167039047398E-5</v>
-      </c>
-      <c r="AB34" t="s">
+      <c r="V34" s="7">
+        <v>3.1864497199747703E-2</v>
+      </c>
+      <c r="W34" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="X34" s="7">
+        <v>2.8931695094142802E-2</v>
+      </c>
+      <c r="Y34" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z34" s="5">
+        <v>1.7976140934603101E-2</v>
+      </c>
+      <c r="AB34" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AC34">
+      <c r="AC34" s="7">
         <v>1.1089730444360001E-3</v>
       </c>
-      <c r="AD34" t="s">
+      <c r="AD34" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="AE34">
+      <c r="AE34" s="7">
         <v>1.0014724487669301E-3</v>
       </c>
       <c r="AF34" s="7" t="s">
@@ -4486,51 +4494,51 @@
         <v>1.24150076713655E-2</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="P35" s="11">
-        <v>-4.0417318831709097E-5</v>
-      </c>
-      <c r="Q35" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="R35" s="11">
-        <v>2.2914010302521599E-7</v>
-      </c>
-      <c r="S35" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="T35" s="5">
-        <v>2.1911114569563801E-4</v>
-      </c>
-      <c r="U35" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="V35" s="11">
-        <v>5.2775674209382098E-5</v>
-      </c>
-      <c r="W35" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="X35" s="5">
-        <v>-1.6484018797529001E-4</v>
-      </c>
-      <c r="Y35" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z35" s="11">
-        <v>3.1633549726128801E-5</v>
-      </c>
-      <c r="AB35" t="s">
+        <v>36</v>
+      </c>
+      <c r="P35" s="7">
+        <v>3.2743748890853103E-2</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="R35" s="7">
+        <v>2.89413099201744E-2</v>
+      </c>
+      <c r="S35" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="T35" s="7">
+        <v>2.1623188362021099E-2</v>
+      </c>
+      <c r="U35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="V35" s="7">
+        <v>2.9868481535905999E-2</v>
+      </c>
+      <c r="W35" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="X35" s="7">
+        <v>2.7510019679622098E-2</v>
+      </c>
+      <c r="Y35" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z35" s="5">
+        <v>1.7415460624076399E-2</v>
+      </c>
+      <c r="AB35" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AC35">
+      <c r="AC35" s="7">
         <v>1.1049985270500801E-3</v>
       </c>
-      <c r="AD35" t="s">
+      <c r="AD35" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="AE35">
+      <c r="AE35" s="7">
         <v>9.4235487819919301E-4</v>
       </c>
       <c r="AF35" s="7" t="s">
@@ -4551,7 +4559,7 @@
       <c r="AK35" s="7">
         <v>2.7465018431786599E-3</v>
       </c>
-      <c r="AL35" s="40" t="s">
+      <c r="AL35" s="34" t="s">
         <v>32</v>
       </c>
       <c r="AM35" s="5">
@@ -4596,51 +4604,51 @@
         <v>1.2311945562622001E-2</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="P36" s="5">
-        <v>-1.00315100623449E-4</v>
-      </c>
-      <c r="Q36" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="R36" s="11">
-        <v>1.5676793898577999E-7</v>
-      </c>
-      <c r="S36" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="T36" s="11">
-        <v>9.0986815105020805E-5</v>
-      </c>
-      <c r="U36" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="V36" s="11">
-        <v>1.6862144374929501E-5</v>
-      </c>
-      <c r="W36" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="X36" s="5">
-        <v>-1.6636870189743399E-4</v>
-      </c>
-      <c r="Y36" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z36" s="11">
-        <v>1.6782943256643501E-5</v>
-      </c>
-      <c r="AB36" t="s">
+        <v>15</v>
+      </c>
+      <c r="P36" s="7">
+        <v>3.2514129967016497E-2</v>
+      </c>
+      <c r="Q36" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="R36" s="7">
+        <v>2.82827717797253E-2</v>
+      </c>
+      <c r="S36" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="T36" s="7">
+        <v>2.12107552259873E-2</v>
+      </c>
+      <c r="U36" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="V36" s="7">
+        <v>2.7135656944706599E-2</v>
+      </c>
+      <c r="W36" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="X36" s="7">
+        <v>2.7466418521398101E-2</v>
+      </c>
+      <c r="Y36" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z36" s="5">
+        <v>1.71064227861304E-2</v>
+      </c>
+      <c r="AB36" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AC36">
+      <c r="AC36" s="7">
         <v>1.0048767832882301E-3</v>
       </c>
-      <c r="AD36" t="s">
+      <c r="AD36" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="AE36">
+      <c r="AE36" s="7">
         <v>9.3303192552681498E-4</v>
       </c>
       <c r="AF36" s="7" t="s">
@@ -4661,7 +4669,7 @@
       <c r="AK36" s="7">
         <v>2.5511805140416102E-3</v>
       </c>
-      <c r="AL36" s="7" t="s">
+      <c r="AL36" s="35" t="s">
         <v>29</v>
       </c>
       <c r="AM36" s="5">
@@ -4706,51 +4714,51 @@
         <v>1.2025007174576901E-2</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="P37" s="5">
-        <v>-1.50609177516036E-4</v>
-      </c>
-      <c r="Q37" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="R37" s="11">
-        <v>1.3353492800405299E-7</v>
-      </c>
-      <c r="S37" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="T37" s="11">
-        <v>4.74675251987743E-5</v>
-      </c>
-      <c r="U37" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="V37" s="11">
-        <v>3.9413045242131497E-6</v>
-      </c>
-      <c r="W37" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="X37" s="5">
-        <v>-2.8741968723751101E-4</v>
-      </c>
-      <c r="Y37" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z37" s="11">
-        <v>1.39843735386779E-5</v>
-      </c>
-      <c r="AB37" t="s">
+        <v>25</v>
+      </c>
+      <c r="P37" s="7">
+        <v>3.2141038951607498E-2</v>
+      </c>
+      <c r="Q37" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="R37" s="7">
+        <v>2.81528796412184E-2</v>
+      </c>
+      <c r="S37" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="T37" s="7">
+        <v>1.9854023878964899E-2</v>
+      </c>
+      <c r="U37" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="V37" s="7">
+        <v>2.6854017553120401E-2</v>
+      </c>
+      <c r="W37" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="X37" s="7">
+        <v>2.7345739975673598E-2</v>
+      </c>
+      <c r="Y37" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z37" s="5">
+        <v>1.6872310449235001E-2</v>
+      </c>
+      <c r="AB37" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AC37">
+      <c r="AC37" s="7">
         <v>9.9929841976359999E-4</v>
       </c>
-      <c r="AD37" t="s">
+      <c r="AD37" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AE37">
+      <c r="AE37" s="7">
         <v>8.9920974779855397E-4</v>
       </c>
       <c r="AF37" s="7" t="s">
@@ -4816,54 +4824,54 @@
         <v>1.1579506421221601E-2</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="P38" s="5">
-        <v>-2.25743630250363E-4</v>
-      </c>
-      <c r="Q38" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="R38" s="11">
-        <v>1.39623595352134E-8</v>
-      </c>
-      <c r="S38" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="T38" s="11">
-        <v>3.1090302988934203E-5</v>
-      </c>
-      <c r="U38" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="V38" s="11">
-        <v>2.8592311221320398E-6</v>
-      </c>
-      <c r="W38" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="X38" s="5">
-        <v>-2.9749481406313698E-4</v>
-      </c>
-      <c r="Y38" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z38" s="11">
-        <v>8.6838322268523104E-6</v>
-      </c>
-      <c r="AB38" t="s">
+        <v>45</v>
+      </c>
+      <c r="P38" s="7">
+        <v>3.0214430784286699E-2</v>
+      </c>
+      <c r="Q38" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="R38" s="7">
+        <v>2.7544272170127899E-2</v>
+      </c>
+      <c r="S38" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="T38" s="7">
+        <v>1.9494258160814099E-2</v>
+      </c>
+      <c r="U38" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="V38" s="7">
+        <v>2.6737849799624999E-2</v>
+      </c>
+      <c r="W38" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="X38" s="7">
+        <v>2.63258501044299E-2</v>
+      </c>
+      <c r="Y38" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z38" s="5">
+        <v>1.6845870416600701E-2</v>
+      </c>
+      <c r="AB38" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AC38">
+      <c r="AC38" s="7">
         <v>9.40009241809762E-4</v>
       </c>
-      <c r="AD38" t="s">
+      <c r="AD38" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="AE38">
+      <c r="AE38" s="7">
         <v>8.9739354833706295E-4</v>
       </c>
-      <c r="AF38" s="7" t="s">
+      <c r="AF38" s="35" t="s">
         <v>29</v>
       </c>
       <c r="AG38" s="7">
@@ -4926,51 +4934,51 @@
         <v>1.0060370237816601E-2</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="P39" s="5">
-        <v>-2.5427393579300299E-4</v>
-      </c>
-      <c r="Q39" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="R39" s="11">
-        <v>-1.6112734626538799E-7</v>
-      </c>
-      <c r="S39" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="T39" s="11">
-        <v>1.30906811265152E-5</v>
-      </c>
-      <c r="U39" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="V39" s="11">
-        <v>1.6698104920997899E-7</v>
-      </c>
-      <c r="W39" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X39" s="5">
-        <v>-3.8162034909272602E-4</v>
-      </c>
-      <c r="Y39" s="2" t="s">
-        <v>75</v>
+        <v>35</v>
+      </c>
+      <c r="P39" s="7">
+        <v>2.8135141704761401E-2</v>
+      </c>
+      <c r="Q39" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="R39" s="7">
+        <v>2.64955322226791E-2</v>
+      </c>
+      <c r="S39" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="T39" s="7">
+        <v>1.9045028411035801E-2</v>
+      </c>
+      <c r="U39" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="V39" s="7">
+        <v>2.6467837117062999E-2</v>
+      </c>
+      <c r="W39" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="X39" s="7">
+        <v>2.59904938879441E-2</v>
+      </c>
+      <c r="Y39" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="Z39" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB39" t="s">
+        <v>1.59290926820887E-2</v>
+      </c>
+      <c r="AB39" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AC39">
+      <c r="AC39" s="7">
         <v>9.1961378181067404E-4</v>
       </c>
-      <c r="AD39" t="s">
+      <c r="AD39" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="AE39">
+      <c r="AE39" s="7">
         <v>8.9723999747982799E-4</v>
       </c>
       <c r="AF39" s="7" t="s">
@@ -4991,7 +4999,7 @@
       <c r="AK39" s="7">
         <v>2.11694217445999E-3</v>
       </c>
-      <c r="AL39" s="40" t="s">
+      <c r="AL39" s="34" t="s">
         <v>46</v>
       </c>
       <c r="AM39" s="5">
@@ -5036,51 +5044,51 @@
         <v>9.5503416336569398E-3</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="P40" s="5">
-        <v>-3.4149905847513602E-4</v>
-      </c>
-      <c r="Q40" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="R40" s="11">
-        <v>-7.9789608823599402E-6</v>
-      </c>
-      <c r="S40" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="T40" s="11">
-        <v>5.7633371416620997E-6</v>
-      </c>
-      <c r="U40" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="V40" s="5">
-        <v>0</v>
-      </c>
-      <c r="W40" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="X40" s="5">
-        <v>-4.8803776029537801E-4</v>
-      </c>
-      <c r="Y40" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P40" s="7">
+        <v>2.8046741022692799E-2</v>
+      </c>
+      <c r="Q40" s="7" t="s">
         <v>44</v>
       </c>
+      <c r="R40" s="7">
+        <v>2.6062603480811599E-2</v>
+      </c>
+      <c r="S40" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="T40" s="7">
+        <v>1.8549797075173999E-2</v>
+      </c>
+      <c r="U40" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="V40" s="7">
+        <v>2.3911962734567398E-2</v>
+      </c>
+      <c r="W40" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="X40" s="7">
+        <v>2.5967308803835101E-2</v>
+      </c>
+      <c r="Y40" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="Z40" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB40" t="s">
+        <v>1.56022744210766E-2</v>
+      </c>
+      <c r="AB40" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="AC40">
+      <c r="AC40" s="7">
         <v>9.1261239512190203E-4</v>
       </c>
-      <c r="AD40" t="s">
+      <c r="AD40" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="AE40">
+      <c r="AE40" s="7">
         <v>8.6298487428190503E-4</v>
       </c>
       <c r="AF40" s="7" t="s">
@@ -5146,51 +5154,51 @@
         <v>8.9113480767561704E-3</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="P41" s="5">
-        <v>-6.2906644127807003E-4</v>
-      </c>
-      <c r="Q41" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="R41" s="11">
-        <v>-1.3825031642467E-5</v>
-      </c>
-      <c r="S41" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="T41" s="11">
-        <v>2.5309586733523999E-6</v>
-      </c>
-      <c r="U41" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="V41" s="5">
-        <v>0</v>
-      </c>
-      <c r="W41" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="X41" s="5">
-        <v>-4.9945695047504102E-4</v>
-      </c>
-      <c r="Y41" s="2" t="s">
-        <v>67</v>
+        <v>42</v>
+      </c>
+      <c r="P41" s="7">
+        <v>2.46503497773694E-2</v>
+      </c>
+      <c r="Q41" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="R41" s="7">
+        <v>2.2572226809776299E-2</v>
+      </c>
+      <c r="S41" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="T41" s="7">
+        <v>1.8156066635228198E-2</v>
+      </c>
+      <c r="U41" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="V41" s="7">
+        <v>2.0422871101463499E-2</v>
+      </c>
+      <c r="W41" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="X41" s="7">
+        <v>2.5180400458571499E-2</v>
+      </c>
+      <c r="Y41" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="Z41" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB41" t="s">
+        <v>1.49747474667347E-2</v>
+      </c>
+      <c r="AB41" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="AC41">
+      <c r="AC41" s="7">
         <v>9.1148823419837403E-4</v>
       </c>
-      <c r="AD41" t="s">
+      <c r="AD41" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="AE41">
+      <c r="AE41" s="7">
         <v>8.3701149240452799E-4</v>
       </c>
       <c r="AF41" s="7" t="s">
@@ -5256,51 +5264,51 @@
         <v>8.7800616224695798E-3</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="P42" s="5">
-        <v>-7.08262091868938E-4</v>
-      </c>
-      <c r="Q42" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="R42" s="11">
-        <v>-1.7015785265073099E-5</v>
-      </c>
-      <c r="S42" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="T42" s="5">
-        <v>0</v>
-      </c>
-      <c r="U42" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="V42" s="11">
-        <v>-6.4694234187534497E-6</v>
-      </c>
-      <c r="W42" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="X42" s="5">
-        <v>-6.1586243290117E-4</v>
-      </c>
-      <c r="Y42" s="2" t="s">
-        <v>76</v>
+        <v>44</v>
+      </c>
+      <c r="P42" s="7">
+        <v>2.4257769489437898E-2</v>
+      </c>
+      <c r="Q42" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="R42" s="7">
+        <v>2.2571272553548401E-2</v>
+      </c>
+      <c r="S42" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="T42" s="7">
+        <v>1.7711263838573701E-2</v>
+      </c>
+      <c r="U42" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="V42" s="7">
+        <v>1.97198064226346E-2</v>
+      </c>
+      <c r="W42" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="X42" s="7">
+        <v>2.4644743346578998E-2</v>
+      </c>
+      <c r="Y42" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="Z42" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB42" t="s">
+        <v>1.4654869893497E-2</v>
+      </c>
+      <c r="AB42" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AC42">
+      <c r="AC42" s="7">
         <v>8.6769451481948502E-4</v>
       </c>
-      <c r="AD42" t="s">
+      <c r="AD42" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="AE42">
+      <c r="AE42" s="7">
         <v>7.88224211093635E-4</v>
       </c>
       <c r="AF42" s="7" t="s">
@@ -5366,51 +5374,51 @@
         <v>8.6937360454980503E-3</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="P43" s="5">
-        <v>-7.2316449573124305E-4</v>
-      </c>
-      <c r="Q43" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="R43" s="11">
-        <v>-2.3531265328102698E-5</v>
-      </c>
-      <c r="S43" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="T43" s="5">
-        <v>0</v>
-      </c>
-      <c r="U43" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="V43" s="11">
-        <v>-2.9929795426219998E-5</v>
-      </c>
-      <c r="W43" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="X43" s="5">
-        <v>-6.3252590668834104E-4</v>
-      </c>
-      <c r="Y43" s="2" t="s">
-        <v>82</v>
+        <v>51</v>
+      </c>
+      <c r="P43" s="7">
+        <v>2.2574845745825599E-2</v>
+      </c>
+      <c r="Q43" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="R43" s="7">
+        <v>2.1069374690162301E-2</v>
+      </c>
+      <c r="S43" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="T43" s="7">
+        <v>1.6450232241783401E-2</v>
+      </c>
+      <c r="U43" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="V43" s="7">
+        <v>1.9138471005314E-2</v>
+      </c>
+      <c r="W43" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="X43" s="7">
+        <v>2.1604076616107901E-2</v>
+      </c>
+      <c r="Y43" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="Z43" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB43" t="s">
+        <v>1.3254571536205901E-2</v>
+      </c>
+      <c r="AB43" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="AC43">
+      <c r="AC43" s="7">
         <v>8.6438186435904897E-4</v>
       </c>
-      <c r="AD43" t="s">
+      <c r="AD43" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="AE43">
+      <c r="AE43" s="7">
         <v>7.8287179963565205E-4</v>
       </c>
       <c r="AF43" s="7" t="s">
@@ -5476,51 +5484,51 @@
         <v>8.3837070868467301E-3</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P44" s="5">
-        <v>-8.8762610327770505E-4</v>
-      </c>
-      <c r="Q44" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="R44" s="11">
-        <v>-2.6780025679462501E-5</v>
-      </c>
-      <c r="S44" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="T44" s="5">
-        <v>0</v>
-      </c>
-      <c r="U44" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="V44" s="5">
-        <v>-2.05681239793298E-4</v>
-      </c>
-      <c r="W44" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="X44" s="5">
-        <v>-8.8779467233637203E-4</v>
-      </c>
-      <c r="Y44" s="2" t="s">
-        <v>77</v>
+        <v>52</v>
+      </c>
+      <c r="P44" s="7">
+        <v>2.1365322506026501E-2</v>
+      </c>
+      <c r="Q44" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="R44" s="7">
+        <v>2.1044710013574101E-2</v>
+      </c>
+      <c r="S44" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="T44" s="7">
+        <v>1.6168177908773299E-2</v>
+      </c>
+      <c r="U44" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="V44" s="7">
+        <v>1.8628783028856899E-2</v>
+      </c>
+      <c r="W44" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="X44" s="7">
+        <v>1.9342809423980901E-2</v>
+      </c>
+      <c r="Y44" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="Z44" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB44" t="s">
+        <v>1.1615296364411399E-2</v>
+      </c>
+      <c r="AB44" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AC44">
+      <c r="AC44" s="7">
         <v>8.3208925594835902E-4</v>
       </c>
-      <c r="AD44" t="s">
+      <c r="AD44" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="AE44">
+      <c r="AE44" s="7">
         <v>7.7800350180467701E-4</v>
       </c>
       <c r="AF44" s="7" t="s">
@@ -5586,51 +5594,51 @@
         <v>8.2375386627904501E-3</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="P45" s="5">
-        <v>-1.0082615245508E-3</v>
-      </c>
-      <c r="Q45" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="R45" s="11">
-        <v>-4.0272163116350501E-5</v>
-      </c>
-      <c r="S45" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="T45" s="5">
-        <v>0</v>
-      </c>
-      <c r="U45" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="V45" s="5">
-        <v>-3.6272876812097897E-4</v>
-      </c>
-      <c r="W45" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="X45" s="5">
-        <v>-1.1873849440472201E-3</v>
-      </c>
-      <c r="Y45" s="2" t="s">
-        <v>84</v>
+        <v>55</v>
+      </c>
+      <c r="P45" s="7">
+        <v>1.9938181646435901E-2</v>
+      </c>
+      <c r="Q45" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="R45" s="7">
+        <v>2.0851622437527799E-2</v>
+      </c>
+      <c r="S45" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="T45" s="7">
+        <v>1.5048646262192499E-2</v>
+      </c>
+      <c r="U45" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="V45" s="7">
+        <v>1.6500990058619699E-2</v>
+      </c>
+      <c r="W45" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="X45" s="7">
+        <v>1.7643416946506198E-2</v>
+      </c>
+      <c r="Y45" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="Z45" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB45" t="s">
+        <v>8.9347145562773001E-3</v>
+      </c>
+      <c r="AB45" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AC45">
+      <c r="AC45" s="7">
         <v>8.2952394190677402E-4</v>
       </c>
-      <c r="AD45" t="s">
+      <c r="AD45" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="AE45">
+      <c r="AE45" s="7">
         <v>6.7215561217786202E-4</v>
       </c>
       <c r="AF45" s="7" t="s">
@@ -5696,51 +5704,51 @@
         <v>8.1381765116576594E-3</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="P46" s="5">
-        <v>-1.0835363072696899E-3</v>
-      </c>
-      <c r="Q46" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="R46" s="11">
-        <v>-4.7879014792240302E-5</v>
-      </c>
-      <c r="S46" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="T46" s="11">
-        <v>-7.0827628206426799E-6</v>
-      </c>
-      <c r="U46" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="V46" s="5">
-        <v>-4.8866096915998103E-4</v>
-      </c>
-      <c r="W46" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="X46" s="5">
-        <v>-1.22728336978257E-3</v>
-      </c>
-      <c r="Y46" s="2" t="s">
-        <v>87</v>
+        <v>60</v>
+      </c>
+      <c r="P46" s="7">
+        <v>1.98135406697462E-2</v>
+      </c>
+      <c r="Q46" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="R46" s="7">
+        <v>2.0080301589830801E-2</v>
+      </c>
+      <c r="S46" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="T46" s="7">
+        <v>1.3845103075212001E-2</v>
+      </c>
+      <c r="U46" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="V46" s="7">
+        <v>1.6221640096693898E-2</v>
+      </c>
+      <c r="W46" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="X46" s="7">
+        <v>1.7389639379710199E-2</v>
+      </c>
+      <c r="Y46" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="Z46" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB46" t="s">
+        <v>8.8600401318461308E-3</v>
+      </c>
+      <c r="AB46" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AC46">
+      <c r="AC46" s="7">
         <v>7.6953426094541197E-4</v>
       </c>
-      <c r="AD46" t="s">
+      <c r="AD46" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="AE46">
+      <c r="AE46" s="7">
         <v>6.6929312042476896E-4</v>
       </c>
       <c r="AF46" s="7" t="s">
@@ -5806,51 +5814,51 @@
         <v>7.8200293981326805E-3</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="P47" s="5">
-        <v>-1.09803740861447E-3</v>
-      </c>
-      <c r="Q47" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="R47" s="5">
-        <v>-1.7816932479055499E-4</v>
-      </c>
-      <c r="S47" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="T47" s="11">
-        <v>-1.0743539537294499E-5</v>
-      </c>
-      <c r="U47" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="V47" s="5">
-        <v>-5.4390775294361701E-4</v>
-      </c>
-      <c r="W47" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="X47" s="5">
-        <v>-1.2976693165145301E-3</v>
-      </c>
-      <c r="Y47" s="2" t="s">
-        <v>83</v>
+        <v>58</v>
+      </c>
+      <c r="P47" s="7">
+        <v>1.815818775983E-2</v>
+      </c>
+      <c r="Q47" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="R47" s="7">
+        <v>1.6142890823482602E-2</v>
+      </c>
+      <c r="S47" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="T47" s="7">
+        <v>1.3438876262118401E-2</v>
+      </c>
+      <c r="U47" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="V47" s="7">
+        <v>1.6047568578370499E-2</v>
+      </c>
+      <c r="W47" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="X47" s="7">
+        <v>1.5878684343800801E-2</v>
+      </c>
+      <c r="Y47" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="Z47" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB47" t="s">
+        <v>8.1871695065479401E-3</v>
+      </c>
+      <c r="AB47" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AC47">
+      <c r="AC47" s="7">
         <v>7.2209619170290201E-4</v>
       </c>
-      <c r="AD47" t="s">
+      <c r="AD47" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="AE47">
+      <c r="AE47" s="7">
         <v>6.5004131873519901E-4</v>
       </c>
       <c r="AF47" s="7" t="s">
@@ -5916,51 +5924,51 @@
         <v>7.3703148671364904E-3</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="P48" s="5">
-        <v>-1.1742584644704999E-3</v>
-      </c>
-      <c r="Q48" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="R48" s="5">
-        <v>-2.3862622583288299E-4</v>
-      </c>
-      <c r="S48" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="T48" s="11">
-        <v>-1.7751277840360999E-5</v>
-      </c>
-      <c r="U48" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="V48" s="5">
-        <v>-5.6093724200150202E-4</v>
-      </c>
-      <c r="W48" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="X48" s="5">
-        <v>-1.4921093343586299E-3</v>
-      </c>
-      <c r="Y48" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z48" s="11">
-        <v>-1.4461255599673701E-5</v>
-      </c>
-      <c r="AB48" t="s">
+        <v>49</v>
+      </c>
+      <c r="P48" s="7">
+        <v>1.8009135731356301E-2</v>
+      </c>
+      <c r="Q48" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="AC48">
+      <c r="R48" s="7">
+        <v>1.44268016739603E-2</v>
+      </c>
+      <c r="S48" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="T48" s="7">
+        <v>1.2969019342801501E-2</v>
+      </c>
+      <c r="U48" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="V48" s="7">
+        <v>1.60314421090424E-2</v>
+      </c>
+      <c r="W48" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="X48" s="7">
+        <v>1.54574258304883E-2</v>
+      </c>
+      <c r="Y48" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z48" s="5">
+        <v>7.9624533330747201E-3</v>
+      </c>
+      <c r="AB48" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC48" s="7">
         <v>7.1573651154714798E-4</v>
       </c>
-      <c r="AD48" t="s">
+      <c r="AD48" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="AE48">
+      <c r="AE48" s="7">
         <v>6.4456228821977704E-4</v>
       </c>
       <c r="AF48" s="7" t="s">
@@ -6028,49 +6036,49 @@
       <c r="O49" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P49" s="5">
-        <v>-1.2351361276725201E-3</v>
-      </c>
-      <c r="Q49" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="R49" s="5">
-        <v>-4.5718763664992501E-4</v>
-      </c>
-      <c r="S49" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="T49" s="11">
-        <v>-3.39921174977053E-5</v>
-      </c>
-      <c r="U49" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="V49" s="5">
-        <v>-5.9215755723434E-4</v>
-      </c>
-      <c r="W49" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="X49" s="5">
-        <v>-1.5991735724561801E-3</v>
-      </c>
-      <c r="Y49" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z49" s="11">
-        <v>-4.2148014296827797E-5</v>
-      </c>
-      <c r="AB49" t="s">
+      <c r="P49" s="7">
+        <v>1.7747901283024298E-2</v>
+      </c>
+      <c r="Q49" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="R49" s="7">
+        <v>1.43444334203415E-2</v>
+      </c>
+      <c r="S49" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="T49" s="7">
+        <v>1.0774793691238601E-2</v>
+      </c>
+      <c r="U49" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="V49" s="7">
+        <v>1.55631979423148E-2</v>
+      </c>
+      <c r="W49" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="X49" s="7">
+        <v>1.3799896414306701E-2</v>
+      </c>
+      <c r="Y49" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z49" s="5">
+        <v>7.5151550524610701E-3</v>
+      </c>
+      <c r="AB49" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="AC49">
+      <c r="AC49" s="7">
         <v>7.1291005594875602E-4</v>
       </c>
-      <c r="AD49" t="s">
+      <c r="AD49" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AE49">
+      <c r="AE49" s="7">
         <v>5.8264473111652398E-4</v>
       </c>
       <c r="AF49" s="7" t="s">
@@ -6136,51 +6144,51 @@
         <v>6.8296765937865501E-3</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="P50" s="5">
-        <v>-1.30213885479038E-3</v>
-      </c>
-      <c r="Q50" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="R50" s="5">
-        <v>-4.7071968863918699E-4</v>
-      </c>
-      <c r="S50" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="T50" s="11">
-        <v>-4.0062548261321498E-5</v>
-      </c>
-      <c r="U50" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="V50" s="5">
-        <v>-6.1838957346092003E-4</v>
-      </c>
-      <c r="W50" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="X50" s="5">
-        <v>-1.6616904045138701E-3</v>
-      </c>
-      <c r="Y50" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z50" s="11">
-        <v>-5.1759028130726701E-5</v>
-      </c>
-      <c r="AB50" t="s">
+        <v>57</v>
+      </c>
+      <c r="P50" s="7">
+        <v>1.7238589872284701E-2</v>
+      </c>
+      <c r="Q50" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="R50" s="7">
+        <v>1.42404203335243E-2</v>
+      </c>
+      <c r="S50" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="T50" s="7">
+        <v>1.02220524401748E-2</v>
+      </c>
+      <c r="U50" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="V50" s="7">
+        <v>1.51618572810975E-2</v>
+      </c>
+      <c r="W50" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="X50" s="7">
+        <v>1.27817519799112E-2</v>
+      </c>
+      <c r="Y50" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z50" s="5">
+        <v>6.3911679220260299E-3</v>
+      </c>
+      <c r="AB50" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AC50">
+      <c r="AC50" s="7">
         <v>7.1246105470053605E-4</v>
       </c>
-      <c r="AD50" t="s">
+      <c r="AD50" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="AE50">
+      <c r="AE50" s="7">
         <v>5.7322466738534902E-4</v>
       </c>
       <c r="AF50" s="7" t="s">
@@ -6246,51 +6254,51 @@
         <v>6.5070350320197701E-3</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="P51" s="5">
-        <v>-1.5318541382725E-3</v>
-      </c>
-      <c r="Q51" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="R51" s="5">
-        <v>-5.8471873063843302E-4</v>
-      </c>
-      <c r="S51" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="T51" s="11">
-        <v>-4.4713979805477397E-5</v>
-      </c>
-      <c r="U51" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P51" s="7">
+        <v>1.7140105750559499E-2</v>
+      </c>
+      <c r="Q51" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="R51" s="7">
+        <v>1.38203961010496E-2</v>
+      </c>
+      <c r="S51" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="T51" s="7">
+        <v>8.5908338972554999E-3</v>
+      </c>
+      <c r="U51" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="V51" s="7">
+        <v>1.2191021882689199E-2</v>
+      </c>
+      <c r="W51" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="X51" s="7">
+        <v>1.1706557886727399E-2</v>
+      </c>
+      <c r="Y51" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z51" s="5">
+        <v>5.4152220297398702E-3</v>
+      </c>
+      <c r="AB51" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="V51" s="5">
-        <v>-6.8437976525506097E-4</v>
-      </c>
-      <c r="W51" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="X51" s="5">
-        <v>-1.84988091026543E-3</v>
-      </c>
-      <c r="Y51" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z51" s="11">
-        <v>-9.0887216161661405E-5</v>
-      </c>
-      <c r="AB51" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC51">
+      <c r="AC51" s="7">
         <v>7.0073361910033896E-4</v>
       </c>
-      <c r="AD51" t="s">
+      <c r="AD51" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="AE51">
+      <c r="AE51" s="7">
         <v>5.2189888662750896E-4</v>
       </c>
       <c r="AF51" s="7" t="s">
@@ -6356,51 +6364,51 @@
         <v>6.0587960452143496E-3</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P52" s="5">
-        <v>-1.80014069397058E-3</v>
-      </c>
-      <c r="Q52" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="R52" s="5">
-        <v>-6.9248539986408396E-4</v>
-      </c>
-      <c r="S52" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="T52" s="11">
-        <v>-5.1625289991008503E-5</v>
-      </c>
-      <c r="U52" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="V52" s="5">
-        <v>-6.8518537742980805E-4</v>
-      </c>
-      <c r="W52" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P52" s="7">
+        <v>1.6297192239818702E-2</v>
+      </c>
+      <c r="Q52" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="R52" s="7">
+        <v>1.2997159286040101E-2</v>
+      </c>
+      <c r="S52" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="T52" s="7">
+        <v>7.3496628226284999E-3</v>
+      </c>
+      <c r="U52" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="V52" s="7">
+        <v>1.03943728324273E-2</v>
+      </c>
+      <c r="W52" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="X52" s="7">
+        <v>1.11382116995647E-2</v>
+      </c>
+      <c r="Y52" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z52" s="5">
+        <v>5.1527954303176998E-3</v>
+      </c>
+      <c r="AB52" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC52" s="7">
+        <v>6.9084907638659605E-4</v>
+      </c>
+      <c r="AD52" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="X52" s="5">
-        <v>-2.04200091577879E-3</v>
-      </c>
-      <c r="Y52" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z52" s="5">
-        <v>-3.4441034849397301E-4</v>
-      </c>
-      <c r="AB52" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC52">
-        <v>6.9084907638659605E-4</v>
-      </c>
-      <c r="AD52" t="s">
-        <v>60</v>
-      </c>
-      <c r="AE52">
+      <c r="AE52" s="7">
         <v>5.12651551744207E-4</v>
       </c>
       <c r="AF52" s="7" t="s">
@@ -6466,51 +6474,51 @@
         <v>5.4194195155694404E-3</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="P53" s="5">
-        <v>-1.85674094612755E-3</v>
-      </c>
-      <c r="Q53" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="R53" s="5">
-        <v>-1.1874601602047401E-3</v>
-      </c>
-      <c r="S53" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="T53" s="5">
-        <v>-1.6607430334714099E-4</v>
-      </c>
-      <c r="U53" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="V53" s="5">
-        <v>-6.9399094354358703E-4</v>
-      </c>
-      <c r="W53" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P53" s="7">
+        <v>1.6167280913686001E-2</v>
+      </c>
+      <c r="Q53" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="R53" s="7">
+        <v>1.0732930914156801E-2</v>
+      </c>
+      <c r="S53" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T53" s="7">
+        <v>6.7818624067724704E-3</v>
+      </c>
+      <c r="U53" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="X53" s="5">
-        <v>-2.0955613655157601E-3</v>
-      </c>
-      <c r="Y53" s="2" t="s">
-        <v>66</v>
+      <c r="V53" s="7">
+        <v>9.6292162594612402E-3</v>
+      </c>
+      <c r="W53" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="X53" s="7">
+        <v>9.0621977369323894E-3</v>
+      </c>
+      <c r="Y53" s="7" t="s">
+        <v>59</v>
       </c>
       <c r="Z53" s="5">
-        <v>-4.2362561524282799E-4</v>
-      </c>
-      <c r="AB53" t="s">
+        <v>4.9003920819105304E-3</v>
+      </c>
+      <c r="AB53" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="AC53">
+      <c r="AC53" s="7">
         <v>6.3960143103651004E-4</v>
       </c>
-      <c r="AD53" t="s">
+      <c r="AD53" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="AE53">
+      <c r="AE53" s="7">
         <v>5.0063266569698895E-4</v>
       </c>
       <c r="AF53" s="7" t="s">
@@ -6576,51 +6584,51 @@
         <v>4.7505633868158903E-3</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="P54" s="5">
-        <v>-2.0013890574559E-3</v>
-      </c>
-      <c r="Q54" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="R54" s="5">
-        <v>-1.49677081685148E-3</v>
-      </c>
-      <c r="S54" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="T54" s="5">
-        <v>-2.2224549885043699E-4</v>
-      </c>
-      <c r="U54" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="V54" s="5">
-        <v>-8.3133140739084495E-4</v>
-      </c>
-      <c r="W54" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="X54" s="5">
-        <v>-2.1387125585994298E-3</v>
-      </c>
-      <c r="Y54" s="2" t="s">
-        <v>29</v>
+        <v>54</v>
+      </c>
+      <c r="P54" s="7">
+        <v>1.5772690845745199E-2</v>
+      </c>
+      <c r="Q54" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="R54" s="7">
+        <v>1.03208230443069E-2</v>
+      </c>
+      <c r="S54" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="T54" s="7">
+        <v>6.3748708581788001E-3</v>
+      </c>
+      <c r="U54" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="V54" s="7">
+        <v>7.9114592543108198E-3</v>
+      </c>
+      <c r="W54" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="X54" s="7">
+        <v>9.0618793869640495E-3</v>
+      </c>
+      <c r="Y54" s="7" t="s">
+        <v>87</v>
       </c>
       <c r="Z54" s="5">
-        <v>-5.4323646554812403E-4</v>
-      </c>
-      <c r="AB54" t="s">
+        <v>4.3008197608371303E-3</v>
+      </c>
+      <c r="AB54" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="AC54">
+      <c r="AC54" s="7">
         <v>5.6408035456857904E-4</v>
       </c>
-      <c r="AD54" t="s">
+      <c r="AD54" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="AE54">
+      <c r="AE54" s="7">
         <v>4.8010032184244599E-4</v>
       </c>
       <c r="AF54" s="7" t="s">
@@ -6686,51 +6694,51 @@
         <v>4.2976569258076497E-3</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="P55" s="5">
-        <v>-2.59828808342064E-3</v>
-      </c>
-      <c r="Q55" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="R55" s="5">
-        <v>-1.5373251668219399E-3</v>
-      </c>
-      <c r="S55" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T55" s="5">
-        <v>-3.7606979786990402E-4</v>
-      </c>
-      <c r="U55" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="V55" s="5">
-        <v>-9.2376746469930902E-4</v>
-      </c>
-      <c r="W55" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="X55" s="5">
-        <v>-2.7033915464620799E-3</v>
-      </c>
-      <c r="Y55" s="2" t="s">
-        <v>51</v>
+        <v>63</v>
+      </c>
+      <c r="P55" s="7">
+        <v>1.28914612209413E-2</v>
+      </c>
+      <c r="Q55" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="R55" s="7">
+        <v>9.7367512695632798E-3</v>
+      </c>
+      <c r="S55" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="T55" s="7">
+        <v>5.9775861808851003E-3</v>
+      </c>
+      <c r="U55" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="V55" s="7">
+        <v>7.8355974901221006E-3</v>
+      </c>
+      <c r="W55" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="X55" s="7">
+        <v>8.7170904833850007E-3</v>
+      </c>
+      <c r="Y55" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="Z55" s="5">
-        <v>-6.63719710535026E-4</v>
-      </c>
-      <c r="AB55" t="s">
+        <v>3.9600223000374902E-3</v>
+      </c>
+      <c r="AB55" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="AC55">
+      <c r="AC55" s="7">
         <v>5.4587304723366901E-4</v>
       </c>
-      <c r="AD55" t="s">
+      <c r="AD55" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="AE55">
+      <c r="AE55" s="7">
         <v>4.56921881115847E-4</v>
       </c>
       <c r="AF55" s="7" t="s">
@@ -6796,51 +6804,51 @@
         <v>4.0126334916949996E-3</v>
       </c>
       <c r="O56" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="P56" s="5">
-        <v>-2.5993142693042401E-3</v>
-      </c>
-      <c r="Q56" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="R56" s="5">
-        <v>-1.90184720930908E-3</v>
-      </c>
-      <c r="S56" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="T56" s="5">
-        <v>-4.2294416687624901E-4</v>
-      </c>
-      <c r="U56" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="V56" s="5">
-        <v>-1.09387620359582E-3</v>
-      </c>
-      <c r="W56" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X56" s="5">
-        <v>-2.9755049493646198E-3</v>
-      </c>
-      <c r="Y56" s="2" t="s">
-        <v>39</v>
+        <v>53</v>
+      </c>
+      <c r="P56" s="7">
+        <v>1.16060895498335E-2</v>
+      </c>
+      <c r="Q56" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="R56" s="7">
+        <v>9.0639524832338298E-3</v>
+      </c>
+      <c r="S56" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="T56" s="7">
+        <v>5.0173222482412499E-3</v>
+      </c>
+      <c r="U56" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="V56" s="7">
+        <v>6.6244190377753301E-3</v>
+      </c>
+      <c r="W56" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="X56" s="7">
+        <v>6.2253669892705999E-3</v>
+      </c>
+      <c r="Y56" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="Z56" s="5">
-        <v>-7.3420959737342502E-4</v>
-      </c>
-      <c r="AB56" t="s">
+        <v>3.9384475405120399E-3</v>
+      </c>
+      <c r="AB56" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="AC56">
+      <c r="AC56" s="7">
         <v>5.3454927898970096E-4</v>
       </c>
-      <c r="AD56" t="s">
+      <c r="AD56" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="AE56">
+      <c r="AE56" s="7">
         <v>3.8935498678275502E-4</v>
       </c>
       <c r="AF56" s="7" t="s">
@@ -6906,51 +6914,51 @@
         <v>3.46430202237573E-3</v>
       </c>
       <c r="O57" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P57" s="5">
-        <v>-2.8641162727943898E-3</v>
-      </c>
-      <c r="Q57" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="R57" s="5">
-        <v>-2.0967809101772798E-3</v>
-      </c>
-      <c r="S57" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="T57" s="5">
-        <v>-4.5727206991639201E-4</v>
-      </c>
-      <c r="U57" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="V57" s="5">
-        <v>-1.2718498591965E-3</v>
-      </c>
-      <c r="W57" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="X57" s="5">
-        <v>-3.0145298806451598E-3</v>
-      </c>
-      <c r="Y57" s="2" t="s">
-        <v>40</v>
+      <c r="P57" s="7">
+        <v>1.05537146242964E-2</v>
+      </c>
+      <c r="Q57" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="R57" s="7">
+        <v>8.0182685281235296E-3</v>
+      </c>
+      <c r="S57" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="T57" s="7">
+        <v>4.9544327089613401E-3</v>
+      </c>
+      <c r="U57" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="V57" s="7">
+        <v>6.4175502395327202E-3</v>
+      </c>
+      <c r="W57" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="X57" s="7">
+        <v>5.94008113835315E-3</v>
+      </c>
+      <c r="Y57" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="Z57" s="5">
-        <v>-1.00893111508932E-3</v>
-      </c>
-      <c r="AB57" t="s">
+        <v>3.4546820698996899E-3</v>
+      </c>
+      <c r="AB57" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="AC57">
+      <c r="AC57" s="7">
         <v>5.2749673280973002E-4</v>
       </c>
-      <c r="AD57" t="s">
+      <c r="AD57" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="AE57">
+      <c r="AE57" s="7">
         <v>3.3776296140798103E-4</v>
       </c>
       <c r="AF57" s="7" t="s">
@@ -7016,51 +7024,51 @@
         <v>3.2670078915026999E-3</v>
       </c>
       <c r="O58" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="P58" s="5">
-        <v>-3.1155909946425798E-3</v>
-      </c>
-      <c r="Q58" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="R58" s="5">
-        <v>-2.3130374707042798E-3</v>
-      </c>
-      <c r="S58" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="T58" s="5">
-        <v>-6.0829975587233204E-4</v>
-      </c>
-      <c r="U58" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="V58" s="5">
-        <v>-1.50450804681323E-3</v>
-      </c>
-      <c r="W58" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="X58" s="5">
-        <v>-3.2021974134655001E-3</v>
-      </c>
-      <c r="Y58" s="2" t="s">
-        <v>53</v>
+        <v>62</v>
+      </c>
+      <c r="P58" s="7">
+        <v>1.0318888215204301E-2</v>
+      </c>
+      <c r="Q58" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="R58" s="7">
+        <v>6.2103666334992298E-3</v>
+      </c>
+      <c r="S58" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="T58" s="7">
+        <v>4.1362672030075404E-3</v>
+      </c>
+      <c r="U58" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="V58" s="7">
+        <v>6.1757020303299902E-3</v>
+      </c>
+      <c r="W58" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="X58" s="7">
+        <v>5.06235889005726E-3</v>
+      </c>
+      <c r="Y58" s="7" t="s">
+        <v>73</v>
       </c>
       <c r="Z58" s="5">
-        <v>-1.1313624165418801E-3</v>
-      </c>
-      <c r="AB58" t="s">
+        <v>3.1434118525195099E-3</v>
+      </c>
+      <c r="AB58" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AC58">
+      <c r="AC58" s="7">
         <v>4.49919511107217E-4</v>
       </c>
-      <c r="AD58" t="s">
+      <c r="AD58" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="AE58">
+      <c r="AE58" s="7">
         <v>3.1367028026863002E-4</v>
       </c>
       <c r="AF58" s="7" t="s">
@@ -7126,51 +7134,51 @@
         <v>3.2654091512926298E-3</v>
       </c>
       <c r="O59" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="P59" s="5">
-        <v>-3.4367985457555098E-3</v>
-      </c>
-      <c r="Q59" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="R59" s="5">
-        <v>-2.4210897315471301E-3</v>
-      </c>
-      <c r="S59" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="T59" s="5">
-        <v>-8.0747478187292998E-4</v>
-      </c>
-      <c r="U59" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="V59" s="5">
-        <v>-1.78036795232996E-3</v>
-      </c>
-      <c r="W59" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="X59" s="5">
-        <v>-3.3335882255250298E-3</v>
-      </c>
-      <c r="Y59" s="2" t="s">
-        <v>20</v>
+        <v>65</v>
+      </c>
+      <c r="P59" s="7">
+        <v>6.7826922615576903E-3</v>
+      </c>
+      <c r="Q59" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="R59" s="7">
+        <v>4.9276768379281797E-3</v>
+      </c>
+      <c r="S59" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="T59" s="7">
+        <v>3.5435775188557201E-3</v>
+      </c>
+      <c r="U59" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="V59" s="7">
+        <v>5.5882185599555002E-3</v>
+      </c>
+      <c r="W59" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="X59" s="7">
+        <v>3.9223954647377999E-3</v>
+      </c>
+      <c r="Y59" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="Z59" s="5">
-        <v>-1.1651292131859201E-3</v>
-      </c>
-      <c r="AB59" t="s">
+        <v>2.7484378361352299E-3</v>
+      </c>
+      <c r="AB59" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="AC59">
+      <c r="AC59" s="7">
         <v>3.6806787873451199E-4</v>
       </c>
-      <c r="AD59" t="s">
+      <c r="AD59" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="AE59">
+      <c r="AE59" s="7">
         <v>2.36296916188303E-4</v>
       </c>
       <c r="AF59" s="7" t="s">
@@ -7236,51 +7244,51 @@
         <v>1.6280960195074201E-3</v>
       </c>
       <c r="O60" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="P60" s="5">
-        <v>-3.9767901364704096E-3</v>
-      </c>
-      <c r="Q60" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="R60" s="5">
-        <v>-2.5340254373790801E-3</v>
-      </c>
-      <c r="S60" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="T60" s="5">
-        <v>-9.0796852204890702E-4</v>
-      </c>
-      <c r="U60" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="V60" s="5">
-        <v>-1.8349768558673699E-3</v>
-      </c>
-      <c r="W60" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="X60" s="5">
-        <v>-3.3704247164897598E-3</v>
-      </c>
-      <c r="Y60" s="2" t="s">
-        <v>41</v>
+        <v>64</v>
+      </c>
+      <c r="P60" s="7">
+        <v>6.0454971624094699E-3</v>
+      </c>
+      <c r="Q60" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="R60" s="7">
+        <v>4.4741388831247503E-3</v>
+      </c>
+      <c r="S60" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="T60" s="7">
+        <v>2.3475502224274501E-3</v>
+      </c>
+      <c r="U60" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="V60" s="7">
+        <v>3.53591398709236E-3</v>
+      </c>
+      <c r="W60" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="X60" s="7">
+        <v>3.5139673586564702E-3</v>
+      </c>
+      <c r="Y60" s="7" t="s">
+        <v>40</v>
       </c>
       <c r="Z60" s="5">
-        <v>-1.2568869391176699E-3</v>
-      </c>
-      <c r="AB60" t="s">
+        <v>1.8967569749141801E-3</v>
+      </c>
+      <c r="AB60" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AC60">
+      <c r="AC60" s="7">
         <v>3.1223778752851098E-4</v>
       </c>
-      <c r="AD60" t="s">
+      <c r="AD60" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="AE60">
+      <c r="AE60" s="7">
         <v>2.2683221319616501E-4</v>
       </c>
       <c r="AF60" s="7" t="s">
@@ -7346,51 +7354,51 @@
         <v>1.5973597382814601E-3</v>
       </c>
       <c r="O61" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="P61" s="7">
+        <v>4.2191475759319804E-3</v>
+      </c>
+      <c r="Q61" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="R61" s="7">
+        <v>3.8600996169841201E-3</v>
+      </c>
+      <c r="S61" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="P61" s="5">
-        <v>-4.2308951070386203E-3</v>
-      </c>
-      <c r="Q61" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="R61" s="5">
-        <v>-2.5382951776569099E-3</v>
-      </c>
-      <c r="S61" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="T61" s="5">
-        <v>-9.9000066627841199E-4</v>
-      </c>
-      <c r="U61" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="V61" s="5">
-        <v>-1.8562713892562499E-3</v>
-      </c>
-      <c r="W61" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="X61" s="5">
-        <v>-3.8939152218178999E-3</v>
-      </c>
-      <c r="Y61" s="2" t="s">
-        <v>55</v>
+      <c r="T61" s="7">
+        <v>1.89160573553273E-3</v>
+      </c>
+      <c r="U61" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="V61" s="7">
+        <v>3.46858180160978E-3</v>
+      </c>
+      <c r="W61" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="X61" s="7">
+        <v>3.2304284887986999E-3</v>
+      </c>
+      <c r="Y61" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="Z61" s="5">
-        <v>-1.26832133898302E-3</v>
-      </c>
-      <c r="AB61" t="s">
+        <v>1.0309988386858701E-3</v>
+      </c>
+      <c r="AB61" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="AC61">
+      <c r="AC61" s="7">
         <v>2.1852006958099899E-4</v>
       </c>
-      <c r="AD61" t="s">
+      <c r="AD61" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="AE61">
+      <c r="AE61" s="7">
         <v>1.8196414585959299E-4</v>
       </c>
       <c r="AF61" s="7" t="s">
@@ -7456,51 +7464,51 @@
         <v>1.2731337241384799E-3</v>
       </c>
       <c r="O62" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="P62" s="5">
-        <v>-4.2448633448800696E-3</v>
-      </c>
-      <c r="Q62" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="R62" s="5">
-        <v>-2.94235817077073E-3</v>
-      </c>
-      <c r="S62" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="T62" s="5">
-        <v>-1.0351861497749099E-3</v>
-      </c>
-      <c r="U62" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="V62" s="5">
-        <v>-2.29784471842426E-3</v>
-      </c>
-      <c r="W62" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="X62" s="5">
-        <v>-3.89729459506509E-3</v>
-      </c>
-      <c r="Y62" s="2" t="s">
-        <v>49</v>
+      <c r="P62" s="7">
+        <v>3.72193069153308E-3</v>
+      </c>
+      <c r="Q62" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="R62" s="7">
+        <v>3.4668928723812398E-3</v>
+      </c>
+      <c r="S62" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="T62" s="7">
+        <v>1.3303192505738899E-3</v>
+      </c>
+      <c r="U62" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="V62" s="7">
+        <v>2.6499678032599599E-3</v>
+      </c>
+      <c r="W62" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="X62" s="7">
+        <v>2.8324638084615298E-3</v>
+      </c>
+      <c r="Y62" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="Z62" s="5">
-        <v>-1.3407887486275899E-3</v>
-      </c>
-      <c r="AB62" t="s">
+        <v>7.4198818840236496E-4</v>
+      </c>
+      <c r="AB62" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="AC62">
+      <c r="AC62" s="7">
         <v>2.0378428364608301E-4</v>
       </c>
-      <c r="AD62" t="s">
+      <c r="AD62" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="AE62">
+      <c r="AE62" s="7">
         <v>1.56236310106821E-4</v>
       </c>
       <c r="AF62" s="7" t="s">
@@ -7566,51 +7574,51 @@
         <v>1.0944511528864301E-3</v>
       </c>
       <c r="O63" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="P63" s="5">
-        <v>-4.4676445688176499E-3</v>
-      </c>
-      <c r="Q63" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="R63" s="5">
-        <v>-3.0555397876042799E-3</v>
-      </c>
-      <c r="S63" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="T63" s="5">
-        <v>-1.12604437917349E-3</v>
-      </c>
-      <c r="U63" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="V63" s="5">
-        <v>-3.7340058951154101E-3</v>
-      </c>
-      <c r="W63" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="X63" s="5">
-        <v>-4.3047981555956998E-3</v>
-      </c>
-      <c r="Y63" s="2" t="s">
-        <v>22</v>
+        <v>67</v>
+      </c>
+      <c r="P63" s="7">
+        <v>3.5520829120988901E-3</v>
+      </c>
+      <c r="Q63" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="R63" s="7">
+        <v>2.43550844701925E-3</v>
+      </c>
+      <c r="S63" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="T63" s="7">
+        <v>1.01213177258903E-3</v>
+      </c>
+      <c r="U63" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="V63" s="7">
+        <v>2.5158716613292E-3</v>
+      </c>
+      <c r="W63" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="X63" s="7">
+        <v>1.9088551066433299E-3</v>
+      </c>
+      <c r="Y63" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="Z63" s="5">
-        <v>-1.4113426843644901E-3</v>
-      </c>
-      <c r="AB63" t="s">
+        <v>6.5397038267223095E-4</v>
+      </c>
+      <c r="AB63" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="AC63">
+      <c r="AC63" s="7">
         <v>1.48834690786912E-4</v>
       </c>
-      <c r="AD63" t="s">
+      <c r="AD63" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="AE63">
+      <c r="AE63" s="7">
         <v>1.00189867576008E-4</v>
       </c>
       <c r="AF63" s="7" t="s">
@@ -7676,51 +7684,51 @@
         <v>9.0941719075167697E-4</v>
       </c>
       <c r="O64" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="P64" s="5">
-        <v>-4.50313457994218E-3</v>
-      </c>
-      <c r="Q64" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="R64" s="5">
-        <v>-3.7019260232268002E-3</v>
-      </c>
-      <c r="S64" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="T64" s="5">
-        <v>-1.2581960689455E-3</v>
-      </c>
-      <c r="U64" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="V64" s="5">
-        <v>-3.9849798292089997E-3</v>
-      </c>
-      <c r="W64" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="X64" s="5">
-        <v>-4.3249953134554698E-3</v>
-      </c>
-      <c r="Y64" s="2" t="s">
-        <v>57</v>
+        <v>72</v>
+      </c>
+      <c r="P64" s="7">
+        <v>3.4048172342186602E-3</v>
+      </c>
+      <c r="Q64" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="R64" s="7">
+        <v>2.1153342356763799E-3</v>
+      </c>
+      <c r="S64" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="T64" s="7">
+        <v>7.0434151330374102E-4</v>
+      </c>
+      <c r="U64" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="V64" s="7">
+        <v>1.95495081294534E-3</v>
+      </c>
+      <c r="W64" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="X64" s="7">
+        <v>1.8888302351052801E-3</v>
+      </c>
+      <c r="Y64" s="7" t="s">
+        <v>79</v>
       </c>
       <c r="Z64" s="5">
-        <v>-1.52182389632558E-3</v>
-      </c>
-      <c r="AB64" t="s">
+        <v>6.00321167233919E-4</v>
+      </c>
+      <c r="AB64" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="AC64">
+      <c r="AC64" s="7">
         <v>1.2398531710193801E-4</v>
       </c>
-      <c r="AD64" t="s">
+      <c r="AD64" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="AE64" s="9">
+      <c r="AE64" s="10">
         <v>9.9997420337643298E-5</v>
       </c>
       <c r="AF64" s="7" t="s">
@@ -7786,51 +7794,51 @@
         <v>8.4579041282935698E-4</v>
       </c>
       <c r="O65" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="P65" s="5">
-        <v>-5.0990513831938797E-3</v>
-      </c>
-      <c r="Q65" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="R65" s="5">
-        <v>-3.9920175813467299E-3</v>
-      </c>
-      <c r="S65" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="T65" s="5">
-        <v>-1.3035637979072099E-3</v>
-      </c>
-      <c r="U65" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="V65" s="5">
-        <v>-4.4860767100701497E-3</v>
-      </c>
-      <c r="W65" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="X65" s="5">
-        <v>-4.5778044762179101E-3</v>
-      </c>
-      <c r="Y65" s="2" t="s">
-        <v>36</v>
+        <v>71</v>
+      </c>
+      <c r="P65" s="7">
+        <v>3.3924542965764999E-3</v>
+      </c>
+      <c r="Q65" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="R65" s="7">
+        <v>2.07953798620186E-3</v>
+      </c>
+      <c r="S65" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="T65" s="7">
+        <v>3.3188060470088398E-4</v>
+      </c>
+      <c r="U65" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="V65" s="7">
+        <v>1.83726952490133E-3</v>
+      </c>
+      <c r="W65" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="X65" s="7">
+        <v>1.5911492983919199E-3</v>
+      </c>
+      <c r="Y65" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="Z65" s="5">
-        <v>-1.6854042546383199E-3</v>
-      </c>
-      <c r="AB65" t="s">
+        <v>4.5059947621619499E-4</v>
+      </c>
+      <c r="AB65" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="AC65">
+      <c r="AC65" s="7">
         <v>1.04688748483742E-4</v>
       </c>
-      <c r="AD65" t="s">
+      <c r="AD65" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="AE65" s="9">
+      <c r="AE65" s="10">
         <v>7.2275757972106597E-5</v>
       </c>
       <c r="AF65" s="7" t="s">
@@ -7896,51 +7904,51 @@
         <v>8.1450430849502203E-4</v>
       </c>
       <c r="O66" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="P66" s="5">
-        <v>-5.3847666657662104E-3</v>
-      </c>
-      <c r="Q66" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="R66" s="5">
-        <v>-4.5786513463383404E-3</v>
-      </c>
-      <c r="S66" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="T66" s="5">
-        <v>-1.3068611799011501E-3</v>
-      </c>
-      <c r="U66" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="V66" s="5">
-        <v>-4.5492156711285101E-3</v>
-      </c>
-      <c r="W66" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="X66" s="5">
-        <v>-4.81620662471353E-3</v>
-      </c>
-      <c r="Y66" s="2" t="s">
-        <v>19</v>
+        <v>68</v>
+      </c>
+      <c r="P66" s="7">
+        <v>2.0368813299767902E-3</v>
+      </c>
+      <c r="Q66" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="R66" s="7">
+        <v>1.4913331515205199E-3</v>
+      </c>
+      <c r="S66" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="T66" s="7">
+        <v>3.21463918794817E-4</v>
+      </c>
+      <c r="U66" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="V66" s="7">
+        <v>1.7064154938849401E-3</v>
+      </c>
+      <c r="W66" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="X66" s="7">
+        <v>7.8736363621054704E-4</v>
+      </c>
+      <c r="Y66" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="Z66" s="5">
-        <v>-2.0310813820381499E-3</v>
-      </c>
-      <c r="AB66" t="s">
+        <v>4.0051610744953301E-4</v>
+      </c>
+      <c r="AB66" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="AC66" s="9">
+      <c r="AC66" s="10">
         <v>9.5338462083283001E-5</v>
       </c>
-      <c r="AD66" t="s">
+      <c r="AD66" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="AE66" s="9">
+      <c r="AE66" s="10">
         <v>6.8897718624410495E-5</v>
       </c>
       <c r="AF66" s="7" t="s">
@@ -8006,51 +8014,51 @@
         <v>7.4018983328574795E-4</v>
       </c>
       <c r="O67" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="P67" s="5">
-        <v>-5.4910315897751501E-3</v>
-      </c>
-      <c r="Q67" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="R67" s="5">
-        <v>-4.9063522688139703E-3</v>
-      </c>
-      <c r="S67" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="T67" s="5">
-        <v>-1.3745144067032599E-3</v>
-      </c>
-      <c r="U67" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="V67" s="5">
-        <v>-5.0987870131276904E-3</v>
-      </c>
-      <c r="W67" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X67" s="5">
-        <v>-4.9014521103432499E-3</v>
-      </c>
-      <c r="Y67" s="2" t="s">
-        <v>56</v>
+        <v>69</v>
+      </c>
+      <c r="P67" s="7">
+        <v>1.13953021553165E-3</v>
+      </c>
+      <c r="Q67" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="R67" s="7">
+        <v>1.38905451592834E-3</v>
+      </c>
+      <c r="S67" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="T67" s="7">
+        <v>2.3445054815915899E-4</v>
+      </c>
+      <c r="U67" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="V67" s="7">
+        <v>7.1229268891630497E-4</v>
+      </c>
+      <c r="W67" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="X67" s="7">
+        <v>6.4868996172788801E-4</v>
+      </c>
+      <c r="Y67" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="Z67" s="5">
-        <v>-2.3136124014424102E-3</v>
-      </c>
-      <c r="AB67" t="s">
+        <v>1.9842387205688499E-4</v>
+      </c>
+      <c r="AB67" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="AC67" s="9">
+      <c r="AC67" s="10">
         <v>7.7628583109150398E-5</v>
       </c>
-      <c r="AD67" t="s">
+      <c r="AD67" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="AE67" s="9">
+      <c r="AE67" s="10">
         <v>6.2613684707430204E-5</v>
       </c>
       <c r="AF67" s="7" t="s">
@@ -8116,51 +8124,51 @@
         <v>5.9254651910672202E-4</v>
       </c>
       <c r="O68" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="P68" s="5">
-        <v>-5.6801043870837202E-3</v>
-      </c>
-      <c r="Q68" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="P68" s="7">
+        <v>1.0955019437222299E-3</v>
+      </c>
+      <c r="Q68" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="R68" s="7">
+        <v>9.6915601836220497E-4</v>
+      </c>
+      <c r="S68" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="T68" s="7">
+        <v>1.9832041903886601E-4</v>
+      </c>
+      <c r="U68" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="V68" s="7">
+        <v>6.9161304738083395E-4</v>
+      </c>
+      <c r="W68" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="X68" s="7">
+        <v>5.2653848616961401E-4</v>
+      </c>
+      <c r="Y68" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="R68" s="5">
-        <v>-5.1725538318587198E-3</v>
-      </c>
-      <c r="S68" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="T68" s="5">
-        <v>-1.6811857958024699E-3</v>
-      </c>
-      <c r="U68" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="V68" s="5">
-        <v>-6.0672478399363501E-3</v>
-      </c>
-      <c r="W68" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="X68" s="5">
-        <v>-5.5550377926547601E-3</v>
-      </c>
-      <c r="Y68" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="Z68" s="5">
-        <v>-2.4402964824282E-3</v>
-      </c>
-      <c r="AB68" t="s">
+        <v>1.5788240125935699E-4</v>
+      </c>
+      <c r="AB68" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="AC68" s="9">
+      <c r="AC68" s="10">
         <v>7.5813302271829095E-5</v>
       </c>
-      <c r="AD68" t="s">
+      <c r="AD68" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="AE68" s="9">
+      <c r="AE68" s="10">
         <v>5.0964012611896799E-5</v>
       </c>
       <c r="AF68" s="7" t="s">
@@ -8226,51 +8234,51 @@
         <v>5.2732996962573495E-4</v>
       </c>
       <c r="O69" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="P69" s="5">
-        <v>-6.4360524934242401E-3</v>
-      </c>
-      <c r="Q69" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="R69" s="5">
-        <v>-5.4313989630949203E-3</v>
-      </c>
-      <c r="S69" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="T69" s="5">
-        <v>-2.5402462875186698E-3</v>
-      </c>
-      <c r="U69" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="V69" s="5">
-        <v>-6.3339217797974802E-3</v>
-      </c>
-      <c r="W69" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="X69" s="5">
-        <v>-5.6260084769667196E-3</v>
-      </c>
-      <c r="Y69" s="2" t="s">
-        <v>26</v>
+        <v>73</v>
+      </c>
+      <c r="P69" s="7">
+        <v>1.0065836022779401E-3</v>
+      </c>
+      <c r="Q69" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="R69" s="7">
+        <v>5.4382842281002202E-4</v>
+      </c>
+      <c r="S69" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="T69" s="7">
+        <v>1.79568084611836E-4</v>
+      </c>
+      <c r="U69" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="V69" s="7">
+        <v>5.2442031111634704E-4</v>
+      </c>
+      <c r="W69" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="X69" s="7">
+        <v>3.4598616492809099E-4</v>
+      </c>
+      <c r="Y69" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="Z69" s="5">
-        <v>-3.2517459752786399E-3</v>
-      </c>
-      <c r="AB69" t="s">
+        <v>1.5193641010615699E-4</v>
+      </c>
+      <c r="AB69" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AC69" s="9">
+      <c r="AC69" s="10">
         <v>5.7624940449316501E-5</v>
       </c>
-      <c r="AD69" t="s">
+      <c r="AD69" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="AE69" s="9">
+      <c r="AE69" s="10">
         <v>4.2918755706986902E-5</v>
       </c>
       <c r="AF69" s="7" t="s">
@@ -8336,51 +8344,51 @@
         <v>4.9973973783575204E-4</v>
       </c>
       <c r="O70" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="P70" s="5">
-        <v>-6.9652232162143298E-3</v>
-      </c>
-      <c r="Q70" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="R70" s="5">
-        <v>-5.9376666747747997E-3</v>
-      </c>
-      <c r="S70" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="T70" s="5">
-        <v>-2.58177257627001E-3</v>
-      </c>
-      <c r="U70" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="V70" s="5">
-        <v>-6.62606453283438E-3</v>
-      </c>
-      <c r="W70" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="X70" s="5">
-        <v>-6.4570958420959203E-3</v>
-      </c>
-      <c r="Y70" s="2" t="s">
-        <v>24</v>
+        <v>76</v>
+      </c>
+      <c r="P70" s="7">
+        <v>7.6297246774921198E-4</v>
+      </c>
+      <c r="Q70" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="R70" s="7">
+        <v>5.2593623033512203E-4</v>
+      </c>
+      <c r="S70" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="T70" s="7">
+        <v>1.3871012854633699E-4</v>
+      </c>
+      <c r="U70" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="V70" s="7">
+        <v>3.6681871561812198E-4</v>
+      </c>
+      <c r="W70" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="X70" s="7">
+        <v>2.06461916515432E-4</v>
+      </c>
+      <c r="Y70" s="7" t="s">
+        <v>71</v>
       </c>
       <c r="Z70" s="5">
-        <v>-3.7711695951458501E-3</v>
-      </c>
-      <c r="AB70" t="s">
+        <v>1.1620854429294999E-4</v>
+      </c>
+      <c r="AB70" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="AC70" s="9">
+      <c r="AC70" s="10">
         <v>5.2403151939373002E-5</v>
       </c>
-      <c r="AD70" t="s">
+      <c r="AD70" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="AE70" s="9">
+      <c r="AE70" s="10">
         <v>3.02957667463319E-5</v>
       </c>
       <c r="AF70" s="7" t="s">
@@ -8446,51 +8454,51 @@
         <v>1.82935602571369E-4</v>
       </c>
       <c r="O71" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="P71" s="5">
-        <v>-7.22585548696268E-3</v>
-      </c>
-      <c r="Q71" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="R71" s="5">
-        <v>-6.6894245987155904E-3</v>
-      </c>
-      <c r="S71" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="T71" s="5">
-        <v>-2.58443045873484E-3</v>
-      </c>
-      <c r="U71" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="V71" s="5">
-        <v>-6.77540450614588E-3</v>
-      </c>
-      <c r="W71" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="X71" s="5">
-        <v>-7.2021112240164102E-3</v>
-      </c>
-      <c r="Y71" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z71" s="5">
-        <v>-4.0167708042509699E-3</v>
-      </c>
-      <c r="AB71" t="s">
         <v>75</v>
       </c>
-      <c r="AC71" s="9">
+      <c r="P71" s="7">
+        <v>6.0866170588036396E-4</v>
+      </c>
+      <c r="Q71" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="R71" s="7">
+        <v>4.3796896809191702E-4</v>
+      </c>
+      <c r="S71" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="T71" s="7">
+        <v>1.06919868662158E-4</v>
+      </c>
+      <c r="U71" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="V71" s="7">
+        <v>3.08429006068156E-4</v>
+      </c>
+      <c r="W71" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="X71" s="7">
+        <v>1.6621182673495199E-4</v>
+      </c>
+      <c r="Y71" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z71" s="11">
+        <v>5.3399381094632002E-5</v>
+      </c>
+      <c r="AB71" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC71" s="10">
         <v>2.6728088356225899E-5</v>
       </c>
-      <c r="AD71" t="s">
+      <c r="AD71" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="AE71" s="9">
+      <c r="AE71" s="10">
         <v>2.99235011597841E-5</v>
       </c>
       <c r="AF71" s="7" t="s">
@@ -8556,51 +8564,51 @@
         <v>1.52691643823373E-4</v>
       </c>
       <c r="O72" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="P72" s="5">
-        <v>-7.7140583903140903E-3</v>
-      </c>
-      <c r="Q72" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="R72" s="5">
-        <v>-6.8166127798224103E-3</v>
-      </c>
-      <c r="S72" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="T72" s="5">
-        <v>-3.89537319763437E-3</v>
-      </c>
-      <c r="U72" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="V72" s="5">
-        <v>-7.1552389720186804E-3</v>
-      </c>
-      <c r="W72" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X72" s="5">
-        <v>-7.4605501804419798E-3</v>
-      </c>
-      <c r="Y72" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z72" s="5">
-        <v>-5.0805827180908604E-3</v>
-      </c>
-      <c r="AB72" t="s">
+        <v>77</v>
+      </c>
+      <c r="P72" s="7">
+        <v>3.7341078053232298E-4</v>
+      </c>
+      <c r="Q72" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="R72" s="7">
+        <v>2.3820146401518601E-4</v>
+      </c>
+      <c r="S72" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="T72" s="10">
+        <v>7.6304734208409896E-5</v>
+      </c>
+      <c r="U72" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="V72" s="7">
+        <v>2.8798198332569098E-4</v>
+      </c>
+      <c r="W72" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="X72" s="10">
+        <v>2.6769447736763E-5</v>
+      </c>
+      <c r="Y72" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z72" s="11">
+        <v>5.2713642336277201E-5</v>
+      </c>
+      <c r="AB72" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="AC72" s="9">
+      <c r="AC72" s="10">
         <v>2.6643386490152899E-5</v>
       </c>
-      <c r="AD72" t="s">
+      <c r="AD72" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="AE72" s="9">
+      <c r="AE72" s="10">
         <v>2.29599147030014E-5</v>
       </c>
       <c r="AF72" s="7" t="s">
@@ -8666,51 +8674,51 @@
         <v>4.5566230425600303E-5</v>
       </c>
       <c r="O73" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P73" s="5">
-        <v>-8.5899883470131194E-3</v>
-      </c>
-      <c r="Q73" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="R73" s="5">
-        <v>-8.0637881487368203E-3</v>
-      </c>
-      <c r="S73" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="T73" s="5">
-        <v>-4.2040773889894401E-3</v>
-      </c>
-      <c r="U73" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="V73" s="5">
-        <v>-8.0193481948369599E-3</v>
-      </c>
-      <c r="W73" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="X73" s="5">
-        <v>-8.6878398231841295E-3</v>
-      </c>
-      <c r="Y73" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z73" s="5">
-        <v>-5.77651972972774E-3</v>
-      </c>
-      <c r="AB73" t="s">
+        <v>78</v>
+      </c>
+      <c r="P73" s="7">
+        <v>2.4744600524277899E-4</v>
+      </c>
+      <c r="Q73" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="R73" s="7">
+        <v>1.60300041020611E-4</v>
+      </c>
+      <c r="S73" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="T73" s="10">
+        <v>7.1922646050581705E-5</v>
+      </c>
+      <c r="U73" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="V73" s="7">
+        <v>2.7649493774666299E-4</v>
+      </c>
+      <c r="W73" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="X73" s="10">
+        <v>2.2344136085172799E-5</v>
+      </c>
+      <c r="Y73" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z73" s="11">
+        <v>4.8946105357949797E-5</v>
+      </c>
+      <c r="AB73" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="AC73" s="9">
+      <c r="AC73" s="10">
         <v>2.6290742326931299E-5</v>
       </c>
-      <c r="AD73" t="s">
+      <c r="AD73" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="AE73" s="9">
+      <c r="AE73" s="10">
         <v>1.00689309300377E-5</v>
       </c>
       <c r="AF73" s="7" t="s">
@@ -8776,51 +8784,51 @@
         <v>2.9141842406334801E-5</v>
       </c>
       <c r="O74" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="P74" s="5">
-        <v>-8.6467117329765697E-3</v>
-      </c>
-      <c r="Q74" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="R74" s="5">
-        <v>-8.1152868035252405E-3</v>
-      </c>
-      <c r="S74" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="T74" s="5">
-        <v>-4.6547420575365501E-3</v>
-      </c>
-      <c r="U74" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="V74" s="5">
-        <v>-1.0013017407325599E-2</v>
-      </c>
-      <c r="W74" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="X74" s="5">
-        <v>-9.6868031456323004E-3</v>
-      </c>
-      <c r="Y74" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z74" s="5">
-        <v>-6.1812156547884998E-3</v>
-      </c>
-      <c r="AB74" t="s">
+        <v>79</v>
+      </c>
+      <c r="P74" s="7">
+        <v>1.9384870495953101E-4</v>
+      </c>
+      <c r="Q74" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="R74" s="7">
+        <v>1.1817490130874199E-4</v>
+      </c>
+      <c r="S74" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="T74" s="10">
+        <v>6.9159769564364199E-5</v>
+      </c>
+      <c r="U74" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="V74" s="7">
+        <v>1.45789116318639E-4</v>
+      </c>
+      <c r="W74" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="X74" s="10">
+        <v>1.8455755373847299E-5</v>
+      </c>
+      <c r="Y74" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z74" s="11">
+        <v>1.8008601860519601E-5</v>
+      </c>
+      <c r="AB74" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="AC74" s="9">
+      <c r="AC74" s="10">
         <v>2.4963505678397699E-5</v>
       </c>
-      <c r="AD74" t="s">
+      <c r="AD74" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="AE74" s="9">
+      <c r="AE74" s="10">
         <v>9.3710521130025599E-6</v>
       </c>
       <c r="AF74" s="7" t="s">
@@ -8886,51 +8894,51 @@
         <v>2.88562826090451E-5</v>
       </c>
       <c r="O75" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="P75" s="5">
-        <v>-9.2631924956901208E-3</v>
-      </c>
-      <c r="Q75" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="R75" s="5">
-        <v>-1.0193612916565901E-2</v>
-      </c>
-      <c r="S75" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="T75" s="5">
-        <v>-4.8955934001427602E-3</v>
-      </c>
-      <c r="U75" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="V75" s="5">
-        <v>-1.04119443025577E-2</v>
-      </c>
-      <c r="W75" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="X75" s="5">
-        <v>-9.8755329080299093E-3</v>
-      </c>
-      <c r="Y75" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z75" s="5">
-        <v>-8.7323495979083603E-3</v>
-      </c>
-      <c r="AB75" t="s">
+        <v>80</v>
+      </c>
+      <c r="P75" s="7">
+        <v>1.3778743916630299E-4</v>
+      </c>
+      <c r="Q75" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="R75" s="10">
+        <v>7.4378952287323905E-5</v>
+      </c>
+      <c r="S75" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="T75" s="10">
+        <v>4.1187827132893499E-5</v>
+      </c>
+      <c r="U75" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="V75" s="7">
+        <v>1.20909674865909E-4</v>
+      </c>
+      <c r="W75" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="X75" s="10">
+        <v>1.44988727876826E-5</v>
+      </c>
+      <c r="Y75" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="AC75" s="9">
+      <c r="Z75" s="11">
+        <v>5.7855276851759197E-6</v>
+      </c>
+      <c r="AB75" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC75" s="10">
         <v>1.57393746125837E-5</v>
       </c>
-      <c r="AD75" t="s">
+      <c r="AD75" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="AE75" s="9">
+      <c r="AE75" s="10">
         <v>8.9050795247180505E-6</v>
       </c>
       <c r="AF75" s="7" t="s">
@@ -8996,51 +9004,51 @@
         <v>1.0630682054246799E-5</v>
       </c>
       <c r="O76" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="P76" s="5">
-        <v>-9.2994612515234498E-3</v>
-      </c>
-      <c r="Q76" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R76" s="5">
-        <v>-1.0987652740940899E-2</v>
-      </c>
-      <c r="S76" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="T76" s="5">
-        <v>-5.0484863828008202E-3</v>
-      </c>
-      <c r="U76" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="V76" s="5">
-        <v>-1.1846201313481901E-2</v>
-      </c>
-      <c r="W76" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="X76" s="5">
-        <v>-9.9595669679054706E-3</v>
-      </c>
-      <c r="Y76" s="2" t="s">
-        <v>30</v>
+        <v>81</v>
+      </c>
+      <c r="P76" s="10">
+        <v>5.89396142849141E-5</v>
+      </c>
+      <c r="Q76" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="R76" s="10">
+        <v>4.25606601864858E-5</v>
+      </c>
+      <c r="S76" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="T76" s="10">
+        <v>2.2911861788310599E-5</v>
+      </c>
+      <c r="U76" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="V76" s="10">
+        <v>2.0355759683310302E-5</v>
+      </c>
+      <c r="W76" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="X76" s="10">
+        <v>1.19509544240559E-5</v>
+      </c>
+      <c r="Y76" s="7" t="s">
+        <v>76</v>
       </c>
       <c r="Z76" s="5">
-        <v>-1.1072898074557899E-2</v>
-      </c>
-      <c r="AB76" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB76" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="AC76" s="9">
+      <c r="AC76" s="10">
         <v>9.4633533883454003E-6</v>
       </c>
-      <c r="AD76" t="s">
+      <c r="AD76" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="AE76" s="9">
+      <c r="AE76" s="10">
         <v>5.7553114082644001E-6</v>
       </c>
       <c r="AF76" s="7" t="s">
@@ -9106,51 +9114,51 @@
         <v>0</v>
       </c>
       <c r="O77" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="P77" s="5">
-        <v>-9.5487654495288003E-3</v>
-      </c>
-      <c r="Q77" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="R77" s="5">
-        <v>-1.1178453647068501E-2</v>
-      </c>
-      <c r="S77" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="T77" s="5">
-        <v>-7.64534541948043E-3</v>
-      </c>
-      <c r="U77" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="V77" s="5">
-        <v>-1.20298257766493E-2</v>
-      </c>
-      <c r="W77" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="X77" s="5">
-        <v>-1.1176506223360401E-2</v>
-      </c>
-      <c r="Y77" s="2" t="s">
-        <v>25</v>
+        <v>82</v>
+      </c>
+      <c r="P77" s="10">
+        <v>5.3225685591606801E-5</v>
+      </c>
+      <c r="Q77" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="R77" s="10">
+        <v>2.4534450762714301E-5</v>
+      </c>
+      <c r="S77" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="T77" s="10">
+        <v>2.2251024219776999E-5</v>
+      </c>
+      <c r="U77" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="V77" s="10">
+        <v>1.71305664959708E-5</v>
+      </c>
+      <c r="W77" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="X77" s="10">
+        <v>1.1320894684963E-5</v>
+      </c>
+      <c r="Y77" s="7" t="s">
+        <v>84</v>
       </c>
       <c r="Z77" s="5">
-        <v>-1.20917274753166E-2</v>
-      </c>
-      <c r="AB77" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB77" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="AC77" s="9">
+      <c r="AC77" s="10">
         <v>6.6821874744393596E-6</v>
       </c>
-      <c r="AD77" t="s">
+      <c r="AD77" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="AE77" s="9">
+      <c r="AE77" s="10">
         <v>3.2036575940689201E-6</v>
       </c>
       <c r="AF77" s="7" t="s">
@@ -9216,51 +9224,51 @@
         <v>0</v>
       </c>
       <c r="O78" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P78" s="5">
-        <v>-1.0415313669024E-2</v>
-      </c>
-      <c r="Q78" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R78" s="5">
-        <v>-1.2216627928708E-2</v>
-      </c>
-      <c r="S78" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="T78" s="5">
-        <v>-8.4979236253758007E-3</v>
-      </c>
-      <c r="U78" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="V78" s="5">
-        <v>-1.2318584324088101E-2</v>
-      </c>
-      <c r="W78" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="X78" s="5">
-        <v>-1.5913801172639599E-2</v>
-      </c>
-      <c r="Y78" s="2" t="s">
-        <v>34</v>
+        <v>83</v>
+      </c>
+      <c r="P78" s="10">
+        <v>4.4536645140125202E-5</v>
+      </c>
+      <c r="Q78" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="R78" s="10">
+        <v>1.8177595788615399E-5</v>
+      </c>
+      <c r="S78" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="T78" s="10">
+        <v>1.87899489911602E-5</v>
+      </c>
+      <c r="U78" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="V78" s="10">
+        <v>1.50750169568114E-5</v>
+      </c>
+      <c r="W78" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="X78" s="10">
+        <v>2.8183309190854502E-6</v>
+      </c>
+      <c r="Y78" s="7" t="s">
+        <v>77</v>
       </c>
       <c r="Z78" s="5">
-        <v>-1.5969336102454199E-2</v>
-      </c>
-      <c r="AB78" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB78" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="AC78" s="9">
+      <c r="AC78" s="10">
         <v>4.9719229329042699E-6</v>
       </c>
-      <c r="AD78" t="s">
+      <c r="AD78" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="AE78" s="9">
+      <c r="AE78" s="10">
         <v>3.1828419351976098E-6</v>
       </c>
       <c r="AF78" s="7" t="s">
@@ -9326,51 +9334,51 @@
         <v>0</v>
       </c>
       <c r="O79" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="P79" s="5">
-        <v>-1.1777909498962499E-2</v>
-      </c>
-      <c r="Q79" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R79" s="5">
-        <v>-1.32106302635504E-2</v>
-      </c>
-      <c r="S79" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="T79" s="5">
-        <v>-1.0410374509870301E-2</v>
-      </c>
-      <c r="U79" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="V79" s="5">
-        <v>-1.2520953391860899E-2</v>
-      </c>
-      <c r="W79" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="X79" s="5">
-        <v>-1.7092277863986999E-2</v>
-      </c>
-      <c r="Y79" s="2" t="s">
-        <v>15</v>
+        <v>84</v>
+      </c>
+      <c r="P79" s="10">
+        <v>2.5688898062248199E-5</v>
+      </c>
+      <c r="Q79" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="R79" s="10">
+        <v>1.0584688983694599E-5</v>
+      </c>
+      <c r="S79" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="T79" s="10">
+        <v>9.7669885696483006E-6</v>
+      </c>
+      <c r="U79" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="V79" s="10">
+        <v>4.5121595680930301E-6</v>
+      </c>
+      <c r="W79" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="X79" s="10">
+        <v>5.8539814762337198E-7</v>
+      </c>
+      <c r="Y79" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="Z79" s="5">
-        <v>-2.32614359001025E-2</v>
-      </c>
-      <c r="AB79" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB79" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="AC79" s="9">
+      <c r="AC79" s="10">
         <v>4.31657319380512E-6</v>
       </c>
-      <c r="AD79" t="s">
+      <c r="AD79" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="AE79" s="9">
+      <c r="AE79" s="10">
         <v>2.0074050123623501E-6</v>
       </c>
       <c r="AF79" s="7" t="s">
@@ -9436,51 +9444,51 @@
         <v>0</v>
       </c>
       <c r="O80" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="P80" s="5">
-        <v>-1.26334456496397E-2</v>
-      </c>
-      <c r="Q80" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="R80" s="5">
-        <v>-1.6745569863973499E-2</v>
-      </c>
-      <c r="S80" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="T80" s="5">
-        <v>-1.31635753724395E-2</v>
-      </c>
-      <c r="U80" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V80" s="5">
-        <v>-1.3667248273246E-2</v>
-      </c>
-      <c r="W80" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="X80" s="5">
-        <v>-1.8910930620528801E-2</v>
-      </c>
-      <c r="Y80" s="2" t="s">
-        <v>70</v>
+        <v>85</v>
+      </c>
+      <c r="P80" s="10">
+        <v>2.0168361094152701E-5</v>
+      </c>
+      <c r="Q80" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="R80" s="10">
+        <v>9.6360914436877106E-6</v>
+      </c>
+      <c r="S80" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="T80" s="10">
+        <v>2.18303755072923E-9</v>
+      </c>
+      <c r="U80" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="V80" s="10">
+        <v>-3.5945532113057498E-7</v>
+      </c>
+      <c r="W80" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="X80" s="10">
+        <v>5.4557416939715598E-7</v>
+      </c>
+      <c r="Y80" s="7" t="s">
+        <v>85</v>
       </c>
       <c r="Z80" s="5">
-        <v>-2.9240400740999699E-2</v>
-      </c>
-      <c r="AB80" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB80" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="AC80" s="9">
+      <c r="AC80" s="10">
         <v>3.36804974572022E-6</v>
       </c>
-      <c r="AD80" t="s">
+      <c r="AD80" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="AE80" s="9">
+      <c r="AE80" s="10">
         <v>1.07938820904232E-6</v>
       </c>
       <c r="AF80" s="7" t="s">
@@ -9538,43 +9546,43 @@
       <c r="L81" s="7"/>
       <c r="M81" s="5"/>
       <c r="O81" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P81" s="5">
-        <v>-1.36513343637231E-2</v>
-      </c>
-      <c r="Q81" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R81" s="5">
-        <v>-1.6757512566744601E-2</v>
-      </c>
-      <c r="S81" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="T81" s="5">
-        <v>-1.6063154205246601E-2</v>
-      </c>
-      <c r="U81" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="V81" s="5">
-        <v>-2.0339849680895701E-2</v>
+        <v>87</v>
+      </c>
+      <c r="P81" s="10">
+        <v>1.3143410786642299E-5</v>
+      </c>
+      <c r="Q81" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="R81" s="10">
+        <v>2.7753814970887799E-6</v>
+      </c>
+      <c r="S81" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="T81" s="7">
+        <v>0</v>
+      </c>
+      <c r="U81" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="V81" s="10">
+        <v>-3.2343540912416199E-6</v>
       </c>
       <c r="W81" s="7"/>
       <c r="X81" s="7"/>
       <c r="Y81" s="7"/>
       <c r="Z81" s="5"/>
-      <c r="AB81" t="s">
+      <c r="AB81" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="AC81" s="9">
+      <c r="AC81" s="10">
         <v>3.2103745053004701E-6</v>
       </c>
-      <c r="AD81" t="s">
+      <c r="AD81" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="AE81" s="9">
+      <c r="AE81" s="10">
         <v>5.2694578094360998E-7</v>
       </c>
       <c r="AF81" s="7" t="s">
@@ -9612,10 +9620,10 @@
       <c r="L82" s="7"/>
       <c r="M82" s="5"/>
       <c r="O82" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="P82" s="5">
-        <v>-1.36874839587915E-2</v>
+        <v>86</v>
+      </c>
+      <c r="P82" s="10">
+        <v>5.7137836344311999E-6</v>
       </c>
       <c r="Q82" s="7"/>
       <c r="R82" s="7"/>
@@ -9627,12 +9635,22 @@
       <c r="X82" s="7"/>
       <c r="Y82" s="7"/>
       <c r="Z82" s="5"/>
-      <c r="AB82" t="s">
+      <c r="AB82" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="AC82" s="9">
+      <c r="AC82" s="10">
         <v>7.1131721892138101E-7</v>
       </c>
+      <c r="AD82" s="7"/>
+      <c r="AE82" s="7"/>
+      <c r="AF82" s="7"/>
+      <c r="AG82" s="7"/>
+      <c r="AH82" s="7"/>
+      <c r="AI82" s="7"/>
+      <c r="AJ82" s="7"/>
+      <c r="AK82" s="7"/>
+      <c r="AL82" s="7"/>
+      <c r="AM82" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="21">
